--- a/ricorsione/output/ServiceMenu.xlsx
+++ b/ricorsione/output/ServiceMenu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="605">
   <si>
     <t>0</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>RICARICHE</t>
   </si>
   <si>
@@ -62,15 +65,15 @@
     <t>menuTitle</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Telefonia Mobile</t>
   </si>
   <si>
     <t>menuRow</t>
   </si>
   <si>
+    <t>369</t>
+  </si>
+  <si>
     <t>ILIAD</t>
   </si>
   <si>
@@ -80,144 +83,402 @@
     <t>PRIMARY</t>
   </si>
   <si>
+    <t>12244</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
     <t>WIND</t>
   </si>
   <si>
+    <t>12098</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
     <t>TIM</t>
   </si>
   <si>
+    <t>18070</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
     <t>VODAFONE</t>
   </si>
   <si>
+    <t>12097</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
     <t>HO. MOBILE</t>
   </si>
   <si>
+    <t>12096</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
     <t>H3G</t>
   </si>
   <si>
+    <t>12093</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
     <t>POSTE MOBILE</t>
   </si>
   <si>
+    <t>12094</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>LYCA MOBILE</t>
   </si>
   <si>
     <t>PRODUCT</t>
   </si>
   <si>
+    <t>12199</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
     <t>LYCAMOBILE</t>
   </si>
   <si>
+    <t>11543</t>
+  </si>
+  <si>
     <t>RICARICA</t>
   </si>
   <si>
     <t>landingPage</t>
   </si>
   <si>
+    <t>5030</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
     <t>KENA</t>
   </si>
   <si>
+    <t>12238</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>COOP VOCE</t>
   </si>
   <si>
+    <t>12100</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
     <t>FASTWEB</t>
   </si>
   <si>
+    <t>12232</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
     <t>DIGI MOBIL</t>
   </si>
   <si>
+    <t>12256</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>UNO MOBILE</t>
   </si>
   <si>
+    <t>12207</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>DAILY TELECOM</t>
   </si>
   <si>
+    <t>12252</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>TISCALI MOBILE</t>
   </si>
   <si>
+    <t>18778</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
     <t>CUBACEL</t>
   </si>
   <si>
+    <t>12209</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
     <t>NAUTA</t>
   </si>
   <si>
+    <t>12213</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
     <t>REINCARCA MOBIL RICARICHE</t>
   </si>
   <si>
+    <t>12251</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
     <t>NOITEL RICARICHE</t>
   </si>
   <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
     <t>WEBCOM</t>
   </si>
   <si>
+    <t>12214</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
     <t>RABONA_MOBILE</t>
   </si>
   <si>
+    <t>12236</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
     <t>OPTIMA</t>
   </si>
   <si>
+    <t>12242</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
     <t>NT_MOBILE</t>
   </si>
   <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
     <t>Decatel</t>
   </si>
   <si>
+    <t>12250</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
     <t>VECTONE MOBILE</t>
   </si>
   <si>
+    <t>12237</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
     <t>YEPINGO</t>
   </si>
   <si>
+    <t>12243</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
     <t>GREENTELECOM</t>
   </si>
   <si>
+    <t>12111</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
     <t>BT MOBILE</t>
   </si>
   <si>
+    <t>12107</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
     <t>TERRA</t>
   </si>
   <si>
+    <t>12205</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
     <t>TALK360</t>
   </si>
   <si>
+    <t>12204</t>
+  </si>
+  <si>
     <t>Carte Bancarie</t>
   </si>
   <si>
+    <t>418</t>
+  </si>
+  <si>
     <t>UNICREDIT</t>
   </si>
   <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
     <t>QUI MULTIBANCA</t>
   </si>
   <si>
+    <t>13346</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
     <t>CARTASI</t>
   </si>
   <si>
+    <t>12258</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>CARTASI VODAF</t>
   </si>
   <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
     <t>PIN ON DEMAND DELIVERY AND ACTIVATION</t>
   </si>
   <si>
+    <t>13348</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
     <t>RICARICA SOLDO</t>
   </si>
   <si>
+    <t>18354</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
     <t>PLUTON</t>
   </si>
   <si>
+    <t>13350</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
     <t>RICARICHE BDS</t>
   </si>
   <si>
+    <t>13344</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
     <t>COMPASS PAY</t>
   </si>
   <si>
+    <t>18783</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
     <t>CARTE COMPASSPAY ADV</t>
   </si>
   <si>
+    <t>12240</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
     <t>CARTE FINDOMESTIC</t>
   </si>
   <si>
+    <t>18782</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
     <t>TSI</t>
   </si>
   <si>
+    <t>13354</t>
+  </si>
+  <si>
     <t>Sisal.it</t>
   </si>
   <si>
@@ -227,9 +488,21 @@
     <t>tabGroup</t>
   </si>
   <si>
+    <t>19455</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
     <t>APERTURA</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>PRELIEVO</t>
   </si>
   <si>
@@ -242,51 +515,138 @@
     <t>buttonGroup</t>
   </si>
   <si>
+    <t>19798</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>EDICARD AFRICA</t>
   </si>
   <si>
+    <t>19799</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>EDICARD ASIA</t>
   </si>
   <si>
+    <t>19800</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>EDICARD GLOBAL</t>
   </si>
   <si>
+    <t>19801</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>EDICARD LATINA</t>
   </si>
   <si>
+    <t>19802</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>EDICARD EUROu0026USA</t>
   </si>
   <si>
+    <t>19803</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
     <t>AMUNDO CUBA</t>
   </si>
   <si>
+    <t>12202</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>HAPPINESS PLUS</t>
   </si>
   <si>
+    <t>12306</t>
+  </si>
+  <si>
     <t>TELECOM CARTE</t>
   </si>
   <si>
+    <t>6669</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
     <t>EASY AFRICA</t>
   </si>
   <si>
+    <t>13416</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>EASY ASIA</t>
   </si>
   <si>
+    <t>13417</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>EASY EAST EUROPE</t>
   </si>
   <si>
+    <t>13418</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>EASY SOUTH AMERICA</t>
   </si>
   <si>
+    <t>13419</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
     <t>WELCOME EXPO</t>
   </si>
   <si>
+    <t>13428</t>
+  </si>
+  <si>
     <t>SISAL CALLYOU</t>
   </si>
   <si>
+    <t>12352</t>
+  </si>
+  <si>
     <t>Africa</t>
   </si>
   <si>
+    <t>13334</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
     <t>ATTIVAZIONE</t>
   </si>
   <si>
@@ -296,21 +656,54 @@
     <t>Asia</t>
   </si>
   <si>
+    <t>13335</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
     <t>Global</t>
   </si>
   <si>
+    <t>13337</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
     <t>Latina</t>
   </si>
   <si>
+    <t>13338</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
     <t>EU-USA</t>
   </si>
   <si>
+    <t>13336</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
     <t>RICARICHE EUTELIA</t>
   </si>
   <si>
+    <t>6671</t>
+  </si>
+  <si>
     <t>EUTELIA AFRICA</t>
   </si>
   <si>
+    <t>13422</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>ACTIVATION</t>
   </si>
   <si>
@@ -320,409 +713,1117 @@
     <t>EUTELIA ASIA</t>
   </si>
   <si>
+    <t>13423</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>EUTELIA GLOBAL</t>
   </si>
   <si>
+    <t>13424</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>EUTELIA AMERICA</t>
   </si>
   <si>
+    <t>13425</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>EUTELIA IT-OCSE</t>
   </si>
   <si>
+    <t>13437</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>ETNICOM</t>
   </si>
   <si>
+    <t>12305</t>
+  </si>
+  <si>
     <t>ICTCARD MENÃ™</t>
   </si>
   <si>
+    <t>12353</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
     <t>PLUSONE</t>
   </si>
   <si>
+    <t>12200</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
     <t>TELETU</t>
   </si>
   <si>
+    <t>12253</t>
+  </si>
+  <si>
     <t>Codici di Acquisto</t>
   </si>
   <si>
+    <t>349</t>
+  </si>
+  <si>
     <t>AMAZON CASH</t>
   </si>
   <si>
+    <t>12228</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
     <t>AMAZON</t>
   </si>
   <si>
+    <t>12229</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
     <t>ITUNES</t>
   </si>
   <si>
+    <t>13400</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
     <t>SPOTIFY</t>
   </si>
   <si>
+    <t>17633</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
     <t>FLIXBUS</t>
   </si>
   <si>
+    <t>12234</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
     <t>XBOX</t>
   </si>
   <si>
+    <t>17634</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
     <t>PLAYSTATION PLUS</t>
   </si>
   <si>
+    <t>17636</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
     <t>PLAYSTATION STORE</t>
   </si>
   <si>
+    <t>17637</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
     <t>NINTENDO</t>
   </si>
   <si>
+    <t>17635</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
     <t>VOLAGRATIS</t>
   </si>
   <si>
+    <t>12235</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
     <t>SALABAM</t>
   </si>
   <si>
+    <t>12215</t>
+  </si>
+  <si>
     <t>Pay TV</t>
   </si>
   <si>
+    <t>154</t>
+  </si>
+  <si>
     <t>SKY RICARICHE</t>
   </si>
   <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
     <t>NETFLIX</t>
   </si>
   <si>
+    <t>12239</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
     <t>MEDIASET INFINITY</t>
   </si>
   <si>
+    <t>12203</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
     <t>CHILI TV</t>
   </si>
   <si>
+    <t>553</t>
+  </si>
+  <si>
     <t>Altre Ricariche</t>
   </si>
   <si>
+    <t>417</t>
+  </si>
+  <si>
     <t>BILL</t>
   </si>
   <si>
+    <t>19336</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>TELEPASS RICAR.</t>
   </si>
   <si>
+    <t>12198</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
     <t>730 E DINTORNI - PEC</t>
   </si>
   <si>
+    <t>12260</t>
+  </si>
+  <si>
     <t>PAGAMENTI</t>
   </si>
   <si>
     <t>Pagopa, bollo e tributi</t>
   </si>
   <si>
+    <t>216</t>
+  </si>
+  <si>
     <t>DIGITPA</t>
   </si>
   <si>
+    <t>12279</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>EQUITALIA</t>
   </si>
   <si>
+    <t>13342</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>MULTE</t>
   </si>
   <si>
+    <t>12126</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>RECUP REGIONE LAZIO</t>
   </si>
   <si>
+    <t>12224</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
     <t>MULTE MILANO BOLLETTINI</t>
   </si>
   <si>
+    <t>13345</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>SORIS 2</t>
   </si>
   <si>
+    <t>13355</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
     <t>SOLORI BOLLETTINI</t>
   </si>
   <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
     <t>SORIT BOLLETTINI</t>
   </si>
   <si>
+    <t>12271</t>
+  </si>
+  <si>
     <t>Bollette Utenze</t>
   </si>
   <si>
     <t>ENEL MENÃ™</t>
   </si>
   <si>
+    <t>6656</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
     <t>ENEL ENERGIA</t>
   </si>
   <si>
+    <t>13321</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>ENEL SERVIZIO ELETTRICO</t>
   </si>
   <si>
+    <t>13351</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
     <t>RIMBORSI ENEL ENERGIA</t>
   </si>
   <si>
+    <t>13320</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
     <t>ENEL ELETTRICITAu0027 RIMBORSO</t>
   </si>
   <si>
+    <t>13352</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
     <t>TELECOM ITALIA</t>
   </si>
   <si>
+    <t>4948</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>TIM BOLLETTE</t>
   </si>
   <si>
+    <t>4949</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
     <t>MEDIASET Invoices</t>
   </si>
   <si>
+    <t>13401</t>
+  </si>
+  <si>
     <t>Bollettini Premarcati</t>
   </si>
   <si>
+    <t>12349</t>
+  </si>
+  <si>
     <t>STAMPA QUIETANZA</t>
   </si>
   <si>
+    <t>13415</t>
+  </si>
+  <si>
     <t>ANNULLO</t>
   </si>
   <si>
     <t>ESSEDIESSE MENÃ™</t>
   </si>
   <si>
+    <t>12302</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
     <t>ESSEDIESSE RMPP</t>
   </si>
   <si>
+    <t>13421</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
     <t>ESSEDIESSE BOLLETTINI</t>
   </si>
   <si>
+    <t>13420</t>
+  </si>
+  <si>
     <t>HERA MENÃ™</t>
   </si>
   <si>
+    <t>6663</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>HERA BOLLETTE</t>
   </si>
   <si>
+    <t>12348</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>HERA BOLLETTINI</t>
   </si>
   <si>
+    <t>13438</t>
+  </si>
+  <si>
     <t>A2A MENÃ™</t>
   </si>
   <si>
+    <t>6662</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
     <t>A2A CALORE E SERVIZI BOLLETTE</t>
   </si>
   <si>
+    <t>13413</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
     <t>A2A CICLO IDRICO BOLLETTE</t>
   </si>
   <si>
+    <t>13414</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
     <t>A2A ENERGIA BOLLETTE</t>
   </si>
   <si>
+    <t>13433</t>
+  </si>
+  <si>
     <t>ACEA MENÃ™</t>
   </si>
   <si>
+    <t>6655</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
     <t>ACEA ATO2</t>
   </si>
   <si>
+    <t>13434</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>ACEA ATO5</t>
   </si>
   <si>
+    <t>13435</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
     <t>ACEA DISTRIBUZIONE</t>
   </si>
   <si>
+    <t>13343</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
     <t>ACEA</t>
   </si>
   <si>
+    <t>13353</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
     <t>ACEA ENERGIA ELETTRICA LIB.</t>
   </si>
   <si>
+    <t>13318</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
     <t>ACEA ENERGIA - VENDITA GAS</t>
   </si>
   <si>
+    <t>13319</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
     <t>ACQUALATINA</t>
   </si>
   <si>
+    <t>12259</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
     <t>ACQUEDOTTO DEL FIORA BOLLETTE</t>
   </si>
   <si>
+    <t>12277</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
     <t>ACQUEDOTTO LUCANO BOLLETTE</t>
   </si>
   <si>
+    <t>12227</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>AIM BOLLETTE</t>
   </si>
   <si>
+    <t>12125</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>AIRC BOLLETTINI</t>
   </si>
   <si>
+    <t>12291</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
     <t>BPS 2</t>
   </si>
   <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
     <t>BNL</t>
   </si>
   <si>
+    <t>12293</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
     <t>CONSAC BOLLETTE</t>
   </si>
   <si>
+    <t>12290</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
     <t>DOLOMITI ENERGIA BOLLETTE</t>
   </si>
   <si>
+    <t>12276</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
     <t>EDISON BOLLETTE</t>
   </si>
   <si>
+    <t>12262</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
     <t>ENEL X BOLLETTE</t>
   </si>
   <si>
+    <t>12188</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
     <t>ENERXENIA 2</t>
   </si>
   <si>
+    <t>12289</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
     <t>ENGIE BOLLETTE</t>
   </si>
   <si>
+    <t>12270</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>ENI BOLLETTE</t>
   </si>
   <si>
+    <t>12230</t>
+  </si>
+  <si>
     <t>EON MENÃ™</t>
   </si>
   <si>
+    <t>13411</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
     <t>EON GAS</t>
   </si>
   <si>
+    <t>13323</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
     <t>EON ENERGIA ELETTRICA</t>
   </si>
   <si>
+    <t>13322</t>
+  </si>
+  <si>
     <t>ESTENERGY MENÃ™</t>
   </si>
   <si>
+    <t>6659</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
     <t>ESTENERGY ENERGIA ELETTRICA</t>
   </si>
   <si>
+    <t>13330</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
     <t>ESTENERGY GAS</t>
   </si>
   <si>
+    <t>13331</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
     <t>GORI</t>
   </si>
   <si>
     <t>IREN MENÃ™</t>
   </si>
   <si>
+    <t>6664</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
     <t>IREN AMBIENTE SPA</t>
   </si>
   <si>
+    <t>12104</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
     <t>IREN MERCATO SPA</t>
   </si>
   <si>
+    <t>13426</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
     <t>IRETI SPA</t>
   </si>
   <si>
+    <t>12254</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
     <t>METAMER BOLLETTE</t>
   </si>
   <si>
+    <t>18781</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>MONDADORI BOLLETTINI</t>
   </si>
   <si>
+    <t>13349</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
     <t>OPTIMA BOLLETTE</t>
   </si>
   <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
     <t>SALERNO ENERGIA BOLLETTE</t>
   </si>
   <si>
+    <t>12316</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
     <t>SGR SERVIZI BOLLETTE</t>
   </si>
   <si>
+    <t>12226</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
     <t>SORGENIA</t>
   </si>
   <si>
+    <t>12261</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
     <t>TISCALI BOLLETTE</t>
   </si>
   <si>
+    <t>12231</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
     <t>UMBRA ACQUE</t>
   </si>
   <si>
+    <t>12303</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
     <t>VODAFONE BOLLETTE</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
     <t>WIND BOLLETTE</t>
   </si>
   <si>
+    <t>13429</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
     <t>WIND FISSO DEP</t>
   </si>
   <si>
+    <t>13430</t>
+  </si>
+  <si>
     <t>Bollettini credito al consumo</t>
   </si>
   <si>
     <t>FINDOMESTIC MENÃ™</t>
   </si>
   <si>
+    <t>6661</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
     <t>FINDOMESTIC BOLLETTINI</t>
   </si>
   <si>
+    <t>18779</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
     <t>FINDOMESTIC ACCORDI</t>
   </si>
   <si>
+    <t>18780</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
     <t>COMPASS BOLLETTINI</t>
   </si>
   <si>
+    <t>19436</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
     <t>AGOS BOLLETTINI</t>
   </si>
   <si>
+    <t>12272</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
     <t>SANTANDER</t>
   </si>
   <si>
+    <t>12301</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
     <t>FIDITALIA</t>
   </si>
   <si>
+    <t>12179</t>
+  </si>
+  <si>
     <t>SKY</t>
   </si>
   <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>SKY FATTURE</t>
   </si>
   <si>
+    <t>18028</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
     <t>SKY DEPOSITO CAUZIONALE</t>
   </si>
   <si>
+    <t>13340</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>SKY ATTIVAZIONI</t>
   </si>
   <si>
+    <t>13339</t>
+  </si>
+  <si>
     <t>Biglietteria</t>
   </si>
   <si>
     <t>TRENITALIA MENÃ™</t>
   </si>
   <si>
+    <t>12298</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
     <t>EMISSIONI</t>
   </si>
   <si>
+    <t>13439</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
     <t>CAMBIO DATA</t>
   </si>
   <si>
+    <t>167</t>
+  </si>
+  <si>
     <t>PLUSERVICE</t>
   </si>
   <si>
+    <t>13347</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
     <t>MARINO Bus</t>
   </si>
   <si>
+    <t>12300</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
     <t>IBUS</t>
   </si>
   <si>
+    <t>12225</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
     <t>INTERSAJ</t>
   </si>
   <si>
+    <t>12297</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
     <t>BIG-BUS</t>
   </si>
   <si>
+    <t>13436</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
     <t>BALTOUR</t>
   </si>
   <si>
+    <t>12274</t>
+  </si>
+  <si>
     <t>Assicurazioni</t>
   </si>
   <si>
+    <t>186</t>
+  </si>
+  <si>
     <t>FACILE.IT</t>
   </si>
   <si>
+    <t>12267</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
     <t>QUIXA</t>
   </si>
   <si>
+    <t>12287</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
     <t>LINEAR</t>
   </si>
   <si>
+    <t>12288</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>ZURICH CONNECT</t>
   </si>
   <si>
+    <t>12216</t>
+  </si>
+  <si>
     <t>Altri pagamenti</t>
   </si>
   <si>
+    <t>253</t>
+  </si>
+  <si>
     <t>ATM PIN AREA C</t>
   </si>
   <si>
+    <t>12347</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>ALLOPASS-HYPAY</t>
   </si>
   <si>
+    <t>12273</t>
+  </si>
+  <si>
     <t>Donazioni</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>AIRC DONAZIONI</t>
+  </si>
+  <si>
+    <t>20398</t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
   <si>
     <t>UMBERTO VERONESI</t>
@@ -848,22 +1949,22 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -883,22 +1984,22 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -917,23 +2018,23 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="n">
-        <v>369.0</v>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12244.0</v>
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -952,23 +2053,23 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="n">
-        <v>406.0</v>
+      <c r="F5" t="s">
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12098.0</v>
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -987,23 +2088,23 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="n">
-        <v>407.0</v>
+      <c r="F6" t="s">
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18070.0</v>
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1022,23 +2123,23 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="n">
-        <v>413.0</v>
+      <c r="F7" t="s">
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12097.0</v>
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1057,23 +2158,23 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="n">
-        <v>368.0</v>
+      <c r="F8" t="s">
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12096.0</v>
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1092,23 +2193,23 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="n">
-        <v>408.0</v>
+      <c r="F9" t="s">
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12093.0</v>
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1127,23 +2228,23 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="n">
-        <v>130.0</v>
+      <c r="F10" t="s">
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="n">
-        <v>12094.0</v>
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1162,23 +2263,23 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="n">
-        <v>40.0</v>
+      <c r="F11" t="s">
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" t="n">
-        <v>12199.0</v>
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1197,23 +2298,23 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="n">
-        <v>352.0</v>
+      <c r="F12" t="s">
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11543.0</v>
+        <v>22</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -1233,22 +2334,22 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5030.0</v>
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14">
@@ -1267,23 +2368,23 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="n">
-        <v>361.0</v>
+      <c r="F14" t="s">
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12238.0</v>
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -1302,23 +2403,23 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="n">
-        <v>60.0</v>
+      <c r="F15" t="s">
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12100.0</v>
+        <v>22</v>
+      </c>
+      <c r="K15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -1337,23 +2438,23 @@
       <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="n">
-        <v>353.0</v>
+      <c r="F16" t="s">
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12232.0</v>
+        <v>22</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -1372,23 +2473,23 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" t="n">
-        <v>146.0</v>
+      <c r="F17" t="s">
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12256.0</v>
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18">
@@ -1407,23 +2508,23 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" t="n">
-        <v>55.0</v>
+      <c r="F18" t="s">
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" t="n">
-        <v>12207.0</v>
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -1442,23 +2543,23 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" t="n">
-        <v>120.0</v>
+      <c r="F19" t="s">
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" t="n">
-        <v>12252.0</v>
+        <v>44</v>
+      </c>
+      <c r="K19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -1477,23 +2578,23 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" t="n">
-        <v>15.0</v>
+      <c r="F20" t="s">
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" t="n">
-        <v>18778.0</v>
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -1512,23 +2613,23 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" t="n">
-        <v>317.0</v>
+      <c r="F21" t="s">
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12209.0</v>
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -1547,23 +2648,23 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" t="n">
-        <v>325.0</v>
+      <c r="F22" t="s">
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" t="n">
-        <v>12213.0</v>
+        <v>44</v>
+      </c>
+      <c r="K22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -1582,23 +2683,23 @@
       <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" t="n">
-        <v>374.0</v>
+      <c r="F23" t="s">
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" t="n">
-        <v>12251.0</v>
+        <v>44</v>
+      </c>
+      <c r="K23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -1617,23 +2718,23 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" t="n">
-        <v>372.0</v>
+      <c r="F24" t="s">
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" t="n">
-        <v>597.0</v>
+        <v>44</v>
+      </c>
+      <c r="K24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -1652,23 +2753,23 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" t="n">
-        <v>326.0</v>
+      <c r="F25" t="s">
+        <v>85</v>
       </c>
       <c r="G25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
         <v>44</v>
       </c>
-      <c r="H25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" t="n">
-        <v>12214.0</v>
+      <c r="K25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1687,23 +2788,23 @@
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" t="n">
-        <v>358.0</v>
+      <c r="F26" t="s">
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" t="n">
-        <v>12236.0</v>
+        <v>44</v>
+      </c>
+      <c r="K26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1722,23 +2823,23 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" t="n">
-        <v>366.0</v>
+      <c r="F27" t="s">
+        <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" t="n">
-        <v>12242.0</v>
+        <v>44</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -1757,23 +2858,23 @@
       <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" t="n">
-        <v>359.0</v>
+      <c r="F28" t="s">
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" t="n">
-        <v>598.0</v>
+        <v>44</v>
+      </c>
+      <c r="K28" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -1792,23 +2893,23 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" t="n">
-        <v>373.0</v>
+      <c r="F29" t="s">
+        <v>97</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" t="n">
-        <v>12250.0</v>
+        <v>44</v>
+      </c>
+      <c r="K29" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30">
@@ -1827,23 +2928,23 @@
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" t="n">
-        <v>360.0</v>
+      <c r="F30" t="s">
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" t="n">
-        <v>12237.0</v>
+        <v>44</v>
+      </c>
+      <c r="K30" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -1862,23 +2963,23 @@
       <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" t="n">
-        <v>367.0</v>
+      <c r="F31" t="s">
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" t="n">
-        <v>12243.0</v>
+        <v>44</v>
+      </c>
+      <c r="K31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -1897,23 +2998,23 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" t="n">
-        <v>414.0</v>
+      <c r="F32" t="s">
+        <v>106</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" t="n">
-        <v>12111.0</v>
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1932,23 +3033,23 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" t="n">
-        <v>161.0</v>
+      <c r="F33" t="s">
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" t="n">
-        <v>12107.0</v>
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34">
@@ -1967,23 +3068,23 @@
       <c r="E34" t="s">
         <v>12</v>
       </c>
-      <c r="F34" t="n">
-        <v>307.0</v>
+      <c r="F34" t="s">
+        <v>112</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" t="n">
-        <v>12205.0</v>
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -2002,23 +3103,23 @@
       <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" t="n">
-        <v>306.0</v>
+      <c r="F35" t="s">
+        <v>115</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" t="n">
-        <v>12204.0</v>
+        <v>44</v>
+      </c>
+      <c r="K35" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="36">
@@ -2038,22 +3139,22 @@
         <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -2072,23 +3173,23 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" t="n">
-        <v>418.0</v>
+      <c r="F37" t="s">
+        <v>119</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" t="n">
-        <v>623.0</v>
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -2107,23 +3208,23 @@
       <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="F38" t="n">
-        <v>404.0</v>
+      <c r="F38" t="s">
+        <v>122</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" t="n">
-        <v>13346.0</v>
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="39">
@@ -2142,23 +3243,23 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" t="n">
-        <v>405.0</v>
+      <c r="F39" t="s">
+        <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" t="n">
-        <v>12258.0</v>
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="40">
@@ -2177,23 +3278,23 @@
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" t="n">
-        <v>410.0</v>
+      <c r="F40" t="s">
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" t="n">
-        <v>552.0</v>
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="41">
@@ -2212,23 +3313,23 @@
       <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="F41" t="n">
-        <v>162.0</v>
+      <c r="F41" t="s">
+        <v>131</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" t="n">
-        <v>13348.0</v>
+        <v>44</v>
+      </c>
+      <c r="K41" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="42">
@@ -2247,23 +3348,23 @@
       <c r="E42" t="s">
         <v>12</v>
       </c>
-      <c r="F42" t="n">
-        <v>316.0</v>
+      <c r="F42" t="s">
+        <v>134</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" t="n">
-        <v>18354.0</v>
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="43">
@@ -2282,23 +3383,23 @@
       <c r="E43" t="s">
         <v>12</v>
       </c>
-      <c r="F43" t="n">
-        <v>409.0</v>
+      <c r="F43" t="s">
+        <v>137</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" t="n">
-        <v>13350.0</v>
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="44">
@@ -2317,23 +3418,23 @@
       <c r="E44" t="s">
         <v>12</v>
       </c>
-      <c r="F44" t="n">
-        <v>411.0</v>
+      <c r="F44" t="s">
+        <v>140</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" t="n">
-        <v>13344.0</v>
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="45">
@@ -2352,23 +3453,23 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45" t="n">
-        <v>402.0</v>
+      <c r="F45" t="s">
+        <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" t="n">
-        <v>18783.0</v>
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="46">
@@ -2387,23 +3488,23 @@
       <c r="E46" t="s">
         <v>12</v>
       </c>
-      <c r="F46" t="n">
-        <v>363.0</v>
+      <c r="F46" t="s">
+        <v>146</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" t="n">
-        <v>12240.0</v>
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="47">
@@ -2422,23 +3523,23 @@
       <c r="E47" t="s">
         <v>12</v>
       </c>
-      <c r="F47" t="n">
-        <v>401.0</v>
+      <c r="F47" t="s">
+        <v>149</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" t="n">
-        <v>18782.0</v>
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="48">
@@ -2457,23 +3558,23 @@
       <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="F48" t="n">
-        <v>354.0</v>
+      <c r="F48" t="s">
+        <v>152</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" t="n">
-        <v>13354.0</v>
+        <v>44</v>
+      </c>
+      <c r="K48" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="49">
@@ -2493,22 +3594,22 @@
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -2528,22 +3629,22 @@
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J50" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" t="n">
-        <v>19455.0</v>
+        <v>13</v>
+      </c>
+      <c r="K50" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="51">
@@ -2562,23 +3663,23 @@
       <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F51" t="n">
-        <v>19.0</v>
+      <c r="F51" t="s">
+        <v>159</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -2597,23 +3698,23 @@
       <c r="E52" t="s">
         <v>12</v>
       </c>
-      <c r="F52" t="n">
-        <v>412.0</v>
+      <c r="F52" t="s">
+        <v>160</v>
       </c>
       <c r="G52" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -2632,23 +3733,23 @@
       <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="F53" t="n">
-        <v>34.0</v>
+      <c r="F53" t="s">
+        <v>162</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54">
@@ -2668,22 +3769,22 @@
         <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -2703,22 +3804,22 @@
         <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J55" t="s">
-        <v>16</v>
-      </c>
-      <c r="K55" t="n">
-        <v>19798.0</v>
+        <v>13</v>
+      </c>
+      <c r="K55" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -2737,23 +3838,23 @@
       <c r="E56" t="s">
         <v>12</v>
       </c>
-      <c r="F56" t="n">
-        <v>10.0</v>
+      <c r="F56" t="s">
+        <v>168</v>
       </c>
       <c r="G56" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J56" t="s">
-        <v>29</v>
-      </c>
-      <c r="K56" t="n">
-        <v>19799.0</v>
+        <v>44</v>
+      </c>
+      <c r="K56" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="57">
@@ -2772,23 +3873,23 @@
       <c r="E57" t="s">
         <v>12</v>
       </c>
-      <c r="F57" t="n">
-        <v>11.0</v>
+      <c r="F57" t="s">
+        <v>171</v>
       </c>
       <c r="G57" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" t="n">
-        <v>19800.0</v>
+        <v>44</v>
+      </c>
+      <c r="K57" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="58">
@@ -2807,23 +3908,23 @@
       <c r="E58" t="s">
         <v>12</v>
       </c>
-      <c r="F58" t="n">
-        <v>12.0</v>
+      <c r="F58" t="s">
+        <v>174</v>
       </c>
       <c r="G58" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" t="n">
-        <v>19801.0</v>
+        <v>44</v>
+      </c>
+      <c r="K58" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="59">
@@ -2842,23 +3943,23 @@
       <c r="E59" t="s">
         <v>12</v>
       </c>
-      <c r="F59" t="n">
-        <v>13.0</v>
+      <c r="F59" t="s">
+        <v>177</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>29</v>
-      </c>
-      <c r="K59" t="n">
-        <v>19802.0</v>
+        <v>44</v>
+      </c>
+      <c r="K59" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="60">
@@ -2877,23 +3978,23 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="F60" t="n">
-        <v>14.0</v>
+      <c r="F60" t="s">
+        <v>180</v>
       </c>
       <c r="G60" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" t="n">
-        <v>19803.0</v>
+        <v>44</v>
+      </c>
+      <c r="K60" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="61">
@@ -2912,23 +4013,23 @@
       <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="F61" t="n">
-        <v>302.0</v>
+      <c r="F61" t="s">
+        <v>183</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
-      </c>
-      <c r="K61" t="n">
-        <v>12202.0</v>
+        <v>44</v>
+      </c>
+      <c r="K61" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="62">
@@ -2947,23 +4048,23 @@
       <c r="E62" t="s">
         <v>12</v>
       </c>
-      <c r="F62" t="n">
-        <v>30.0</v>
+      <c r="F62" t="s">
+        <v>186</v>
       </c>
       <c r="G62" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="H62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>29</v>
-      </c>
-      <c r="K62" t="n">
-        <v>12306.0</v>
+        <v>44</v>
+      </c>
+      <c r="K62" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="63">
@@ -2983,22 +4084,22 @@
         <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J63" t="s">
-        <v>16</v>
-      </c>
-      <c r="K63" t="n">
-        <v>6669.0</v>
+        <v>13</v>
+      </c>
+      <c r="K63" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="64">
@@ -3017,23 +4118,23 @@
       <c r="E64" t="s">
         <v>12</v>
       </c>
-      <c r="F64" t="n">
-        <v>116.0</v>
+      <c r="F64" t="s">
+        <v>191</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>29</v>
-      </c>
-      <c r="K64" t="n">
-        <v>13416.0</v>
+        <v>44</v>
+      </c>
+      <c r="K64" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="65">
@@ -3052,23 +4153,23 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F65" t="n">
-        <v>117.0</v>
+      <c r="F65" t="s">
+        <v>194</v>
       </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" t="n">
-        <v>13417.0</v>
+        <v>44</v>
+      </c>
+      <c r="K65" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="66">
@@ -3087,23 +4188,23 @@
       <c r="E66" t="s">
         <v>12</v>
       </c>
-      <c r="F66" t="n">
-        <v>118.0</v>
+      <c r="F66" t="s">
+        <v>197</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
-      </c>
-      <c r="K66" t="n">
-        <v>13418.0</v>
+        <v>44</v>
+      </c>
+      <c r="K66" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="67">
@@ -3122,23 +4223,23 @@
       <c r="E67" t="s">
         <v>12</v>
       </c>
-      <c r="F67" t="n">
-        <v>119.0</v>
+      <c r="F67" t="s">
+        <v>200</v>
       </c>
       <c r="G67" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J67" t="s">
-        <v>29</v>
-      </c>
-      <c r="K67" t="n">
-        <v>13419.0</v>
+        <v>44</v>
+      </c>
+      <c r="K67" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="68">
@@ -3157,23 +4258,23 @@
       <c r="E68" t="s">
         <v>12</v>
       </c>
-      <c r="F68" t="n">
-        <v>315.0</v>
+      <c r="F68" t="s">
+        <v>203</v>
       </c>
       <c r="G68" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J68" t="s">
-        <v>29</v>
-      </c>
-      <c r="K68" t="n">
-        <v>13428.0</v>
+        <v>44</v>
+      </c>
+      <c r="K68" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="69">
@@ -3193,22 +4294,22 @@
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J69" t="s">
-        <v>16</v>
-      </c>
-      <c r="K69" t="n">
-        <v>12352.0</v>
+        <v>13</v>
+      </c>
+      <c r="K69" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="70">
@@ -3228,22 +4329,22 @@
         <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J70" t="s">
-        <v>16</v>
-      </c>
-      <c r="K70" t="n">
-        <v>13334.0</v>
+        <v>13</v>
+      </c>
+      <c r="K70" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="71">
@@ -3262,23 +4363,23 @@
       <c r="E71" t="s">
         <v>11</v>
       </c>
-      <c r="F71" t="n">
-        <v>176.0</v>
+      <c r="F71" t="s">
+        <v>210</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="H71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J71" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -3297,23 +4398,23 @@
       <c r="E72" t="s">
         <v>11</v>
       </c>
-      <c r="F72" t="n">
-        <v>176.0</v>
+      <c r="F72" t="s">
+        <v>210</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J72" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="K72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -3333,22 +4434,22 @@
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J73" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" t="n">
-        <v>13335.0</v>
+        <v>13</v>
+      </c>
+      <c r="K73" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="74">
@@ -3367,23 +4468,23 @@
       <c r="E74" t="s">
         <v>11</v>
       </c>
-      <c r="F74" t="n">
-        <v>177.0</v>
+      <c r="F74" t="s">
+        <v>215</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="H74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J74" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -3402,23 +4503,23 @@
       <c r="E75" t="s">
         <v>11</v>
       </c>
-      <c r="F75" t="n">
-        <v>177.0</v>
+      <c r="F75" t="s">
+        <v>215</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="K75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -3438,22 +4539,22 @@
         <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J76" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" t="n">
-        <v>13337.0</v>
+        <v>13</v>
+      </c>
+      <c r="K76" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="77">
@@ -3472,23 +4573,23 @@
       <c r="E77" t="s">
         <v>11</v>
       </c>
-      <c r="F77" t="n">
-        <v>178.0</v>
+      <c r="F77" t="s">
+        <v>218</v>
       </c>
       <c r="G77" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="H77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -3507,23 +4608,23 @@
       <c r="E78" t="s">
         <v>11</v>
       </c>
-      <c r="F78" t="n">
-        <v>178.0</v>
+      <c r="F78" t="s">
+        <v>218</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="K78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
@@ -3543,22 +4644,22 @@
         <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J79" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" t="n">
-        <v>13338.0</v>
+        <v>13</v>
+      </c>
+      <c r="K79" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="80">
@@ -3577,23 +4678,23 @@
       <c r="E80" t="s">
         <v>11</v>
       </c>
-      <c r="F80" t="n">
-        <v>179.0</v>
+      <c r="F80" t="s">
+        <v>221</v>
       </c>
       <c r="G80" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="H80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J80" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -3612,23 +4713,23 @@
       <c r="E81" t="s">
         <v>11</v>
       </c>
-      <c r="F81" t="n">
-        <v>179.0</v>
+      <c r="F81" t="s">
+        <v>221</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J81" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="K81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -3648,22 +4749,22 @@
         <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J82" t="s">
-        <v>16</v>
-      </c>
-      <c r="K82" t="n">
-        <v>13336.0</v>
+        <v>13</v>
+      </c>
+      <c r="K82" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="83">
@@ -3682,23 +4783,23 @@
       <c r="E83" t="s">
         <v>11</v>
       </c>
-      <c r="F83" t="n">
-        <v>180.0</v>
+      <c r="F83" t="s">
+        <v>224</v>
       </c>
       <c r="G83" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="H83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J83" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -3717,23 +4818,23 @@
       <c r="E84" t="s">
         <v>11</v>
       </c>
-      <c r="F84" t="n">
-        <v>180.0</v>
+      <c r="F84" t="s">
+        <v>224</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J84" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="K84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -3753,22 +4854,22 @@
         <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J85" t="s">
-        <v>16</v>
-      </c>
-      <c r="K85" t="n">
-        <v>6671.0</v>
+        <v>13</v>
+      </c>
+      <c r="K85" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="86">
@@ -3788,22 +4889,22 @@
         <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J86" t="s">
-        <v>16</v>
-      </c>
-      <c r="K86" t="n">
-        <v>13422.0</v>
+        <v>13</v>
+      </c>
+      <c r="K86" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="87">
@@ -3822,23 +4923,23 @@
       <c r="E87" t="s">
         <v>11</v>
       </c>
-      <c r="F87" t="n">
-        <v>21.0</v>
+      <c r="F87" t="s">
+        <v>229</v>
       </c>
       <c r="G87" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="H87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J87" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="K87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -3857,23 +4958,23 @@
       <c r="E88" t="s">
         <v>11</v>
       </c>
-      <c r="F88" t="n">
-        <v>21.0</v>
+      <c r="F88" t="s">
+        <v>229</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I88" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="K88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
@@ -3893,22 +4994,22 @@
         <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J89" t="s">
-        <v>16</v>
-      </c>
-      <c r="K89" t="n">
-        <v>13423.0</v>
+        <v>13</v>
+      </c>
+      <c r="K89" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="90">
@@ -3927,23 +5028,23 @@
       <c r="E90" t="s">
         <v>11</v>
       </c>
-      <c r="F90" t="n">
-        <v>22.0</v>
+      <c r="F90" t="s">
+        <v>234</v>
       </c>
       <c r="G90" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="H90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="K90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91">
@@ -3962,23 +5063,23 @@
       <c r="E91" t="s">
         <v>11</v>
       </c>
-      <c r="F91" t="n">
-        <v>22.0</v>
+      <c r="F91" t="s">
+        <v>234</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="K91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -3998,22 +5099,22 @@
         <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J92" t="s">
-        <v>16</v>
-      </c>
-      <c r="K92" t="n">
-        <v>13424.0</v>
+        <v>13</v>
+      </c>
+      <c r="K92" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="93">
@@ -4032,23 +5133,23 @@
       <c r="E93" t="s">
         <v>11</v>
       </c>
-      <c r="F93" t="n">
-        <v>23.0</v>
+      <c r="F93" t="s">
+        <v>237</v>
       </c>
       <c r="G93" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="H93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I93" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J93" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="K93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -4067,23 +5168,23 @@
       <c r="E94" t="s">
         <v>11</v>
       </c>
-      <c r="F94" t="n">
-        <v>23.0</v>
+      <c r="F94" t="s">
+        <v>237</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J94" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="K94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -4103,22 +5204,22 @@
         <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J95" t="s">
-        <v>16</v>
-      </c>
-      <c r="K95" t="n">
-        <v>13425.0</v>
+        <v>13</v>
+      </c>
+      <c r="K95" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="96">
@@ -4137,23 +5238,23 @@
       <c r="E96" t="s">
         <v>11</v>
       </c>
-      <c r="F96" t="n">
-        <v>24.0</v>
+      <c r="F96" t="s">
+        <v>240</v>
       </c>
       <c r="G96" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="H96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I96" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J96" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="K96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -4172,23 +5273,23 @@
       <c r="E97" t="s">
         <v>11</v>
       </c>
-      <c r="F97" t="n">
-        <v>24.0</v>
+      <c r="F97" t="s">
+        <v>240</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="K97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -4208,22 +5309,22 @@
         <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J98" t="s">
-        <v>16</v>
-      </c>
-      <c r="K98" t="n">
-        <v>13437.0</v>
+        <v>13</v>
+      </c>
+      <c r="K98" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="99">
@@ -4242,23 +5343,23 @@
       <c r="E99" t="s">
         <v>11</v>
       </c>
-      <c r="F99" t="n">
-        <v>25.0</v>
+      <c r="F99" t="s">
+        <v>243</v>
       </c>
       <c r="G99" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I99" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J99" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="K99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -4277,23 +5378,23 @@
       <c r="E100" t="s">
         <v>11</v>
       </c>
-      <c r="F100" t="n">
-        <v>25.0</v>
+      <c r="F100" t="s">
+        <v>243</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I100" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J100" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="K100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
@@ -4312,23 +5413,23 @@
       <c r="E101" t="s">
         <v>12</v>
       </c>
-      <c r="F101" t="n">
-        <v>27.0</v>
+      <c r="F101" t="s">
+        <v>244</v>
       </c>
       <c r="G101" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I101" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J101" t="s">
-        <v>21</v>
-      </c>
-      <c r="K101" t="n">
-        <v>12305.0</v>
+        <v>22</v>
+      </c>
+      <c r="K101" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="102">
@@ -4348,22 +5449,22 @@
         <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>106</v>
+        <v>247</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J102" t="s">
-        <v>16</v>
-      </c>
-      <c r="K102" t="n">
-        <v>12353.0</v>
+        <v>13</v>
+      </c>
+      <c r="K102" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="103">
@@ -4382,23 +5483,23 @@
       <c r="E103" t="s">
         <v>12</v>
       </c>
-      <c r="F103" t="n">
-        <v>322.0</v>
+      <c r="F103" t="s">
+        <v>249</v>
       </c>
       <c r="G103" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="H103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I103" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J103" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104">
@@ -4417,23 +5518,23 @@
       <c r="E104" t="s">
         <v>12</v>
       </c>
-      <c r="F104" t="n">
-        <v>322.0</v>
+      <c r="F104" t="s">
+        <v>249</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I104" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J104" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="K104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
@@ -4452,23 +5553,23 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
-      <c r="F105" t="n">
-        <v>300.0</v>
+      <c r="F105" t="s">
+        <v>250</v>
       </c>
       <c r="G105" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I105" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J105" t="s">
-        <v>29</v>
-      </c>
-      <c r="K105" t="n">
-        <v>12200.0</v>
+        <v>44</v>
+      </c>
+      <c r="K105" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="106">
@@ -4487,23 +5588,23 @@
       <c r="E106" t="s">
         <v>12</v>
       </c>
-      <c r="F106" t="n">
-        <v>138.0</v>
+      <c r="F106" t="s">
+        <v>253</v>
       </c>
       <c r="G106" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="H106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J106" t="s">
-        <v>29</v>
-      </c>
-      <c r="K106" t="n">
-        <v>12253.0</v>
+        <v>44</v>
+      </c>
+      <c r="K106" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="107">
@@ -4523,22 +5624,22 @@
         <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
         <v>18</v>
       </c>
       <c r="J107" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108">
@@ -4557,23 +5658,23 @@
       <c r="E108" t="s">
         <v>12</v>
       </c>
-      <c r="F108" t="n">
-        <v>349.0</v>
+      <c r="F108" t="s">
+        <v>257</v>
       </c>
       <c r="G108" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="H108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J108" t="s">
-        <v>29</v>
-      </c>
-      <c r="K108" t="n">
-        <v>12228.0</v>
+        <v>44</v>
+      </c>
+      <c r="K108" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="109">
@@ -4592,23 +5693,23 @@
       <c r="E109" t="s">
         <v>12</v>
       </c>
-      <c r="F109" t="n">
-        <v>350.0</v>
+      <c r="F109" t="s">
+        <v>260</v>
       </c>
       <c r="G109" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="H109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I109" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J109" t="s">
-        <v>29</v>
-      </c>
-      <c r="K109" t="n">
-        <v>12229.0</v>
+        <v>44</v>
+      </c>
+      <c r="K109" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="110">
@@ -4627,23 +5728,23 @@
       <c r="E110" t="s">
         <v>12</v>
       </c>
-      <c r="F110" t="n">
-        <v>355.0</v>
+      <c r="F110" t="s">
+        <v>263</v>
       </c>
       <c r="G110" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="H110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I110" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J110" t="s">
-        <v>29</v>
-      </c>
-      <c r="K110" t="n">
-        <v>13400.0</v>
+        <v>44</v>
+      </c>
+      <c r="K110" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="111">
@@ -4662,23 +5763,23 @@
       <c r="E111" t="s">
         <v>12</v>
       </c>
-      <c r="F111" t="n">
-        <v>375.0</v>
+      <c r="F111" t="s">
+        <v>266</v>
       </c>
       <c r="G111" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
       <c r="H111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I111" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>29</v>
-      </c>
-      <c r="K111" t="n">
-        <v>17633.0</v>
+        <v>44</v>
+      </c>
+      <c r="K111" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="112">
@@ -4697,23 +5798,23 @@
       <c r="E112" t="s">
         <v>12</v>
       </c>
-      <c r="F112" t="n">
-        <v>356.0</v>
+      <c r="F112" t="s">
+        <v>269</v>
       </c>
       <c r="G112" t="s">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="H112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I112" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J112" t="s">
-        <v>29</v>
-      </c>
-      <c r="K112" t="n">
-        <v>12234.0</v>
+        <v>44</v>
+      </c>
+      <c r="K112" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="113">
@@ -4732,23 +5833,23 @@
       <c r="E113" t="s">
         <v>12</v>
       </c>
-      <c r="F113" t="n">
-        <v>376.0</v>
+      <c r="F113" t="s">
+        <v>272</v>
       </c>
       <c r="G113" t="s">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="H113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I113" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J113" t="s">
-        <v>29</v>
-      </c>
-      <c r="K113" t="n">
-        <v>17634.0</v>
+        <v>44</v>
+      </c>
+      <c r="K113" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="114">
@@ -4767,23 +5868,23 @@
       <c r="E114" t="s">
         <v>12</v>
       </c>
-      <c r="F114" t="n">
-        <v>378.0</v>
+      <c r="F114" t="s">
+        <v>275</v>
       </c>
       <c r="G114" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="H114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I114" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J114" t="s">
-        <v>29</v>
-      </c>
-      <c r="K114" t="n">
-        <v>17636.0</v>
+        <v>44</v>
+      </c>
+      <c r="K114" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="115">
@@ -4802,23 +5903,23 @@
       <c r="E115" t="s">
         <v>12</v>
       </c>
-      <c r="F115" t="n">
-        <v>379.0</v>
+      <c r="F115" t="s">
+        <v>278</v>
       </c>
       <c r="G115" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="H115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I115" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J115" t="s">
-        <v>29</v>
-      </c>
-      <c r="K115" t="n">
-        <v>17637.0</v>
+        <v>44</v>
+      </c>
+      <c r="K115" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="116">
@@ -4837,23 +5938,23 @@
       <c r="E116" t="s">
         <v>12</v>
       </c>
-      <c r="F116" t="n">
-        <v>377.0</v>
+      <c r="F116" t="s">
+        <v>281</v>
       </c>
       <c r="G116" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="H116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J116" t="s">
-        <v>29</v>
-      </c>
-      <c r="K116" t="n">
-        <v>17635.0</v>
+        <v>44</v>
+      </c>
+      <c r="K116" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="117">
@@ -4872,23 +5973,23 @@
       <c r="E117" t="s">
         <v>12</v>
       </c>
-      <c r="F117" t="n">
-        <v>357.0</v>
+      <c r="F117" t="s">
+        <v>284</v>
       </c>
       <c r="G117" t="s">
-        <v>119</v>
+        <v>285</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I117" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J117" t="s">
-        <v>29</v>
-      </c>
-      <c r="K117" t="n">
-        <v>12235.0</v>
+        <v>44</v>
+      </c>
+      <c r="K117" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="118">
@@ -4907,23 +6008,23 @@
       <c r="E118" t="s">
         <v>12</v>
       </c>
-      <c r="F118" t="n">
-        <v>327.0</v>
+      <c r="F118" t="s">
+        <v>287</v>
       </c>
       <c r="G118" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J118" t="s">
-        <v>29</v>
-      </c>
-      <c r="K118" t="n">
-        <v>12215.0</v>
+        <v>44</v>
+      </c>
+      <c r="K118" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="119">
@@ -4943,22 +6044,22 @@
         <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>121</v>
+        <v>290</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
         <v>18</v>
       </c>
       <c r="J119" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -4977,23 +6078,23 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
-      <c r="F120" t="n">
-        <v>154.0</v>
+      <c r="F120" t="s">
+        <v>291</v>
       </c>
       <c r="G120" t="s">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="H120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I120" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J120" t="s">
-        <v>29</v>
-      </c>
-      <c r="K120" t="n">
-        <v>613.0</v>
+        <v>44</v>
+      </c>
+      <c r="K120" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="121">
@@ -5012,23 +6113,23 @@
       <c r="E121" t="s">
         <v>12</v>
       </c>
-      <c r="F121" t="n">
-        <v>362.0</v>
+      <c r="F121" t="s">
+        <v>294</v>
       </c>
       <c r="G121" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
       <c r="H121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J121" t="s">
-        <v>29</v>
-      </c>
-      <c r="K121" t="n">
-        <v>12239.0</v>
+        <v>44</v>
+      </c>
+      <c r="K121" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="122">
@@ -5047,23 +6148,23 @@
       <c r="E122" t="s">
         <v>12</v>
       </c>
-      <c r="F122" t="n">
-        <v>305.0</v>
+      <c r="F122" t="s">
+        <v>297</v>
       </c>
       <c r="G122" t="s">
-        <v>124</v>
+        <v>298</v>
       </c>
       <c r="H122" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I122" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J122" t="s">
-        <v>29</v>
-      </c>
-      <c r="K122" t="n">
-        <v>12203.0</v>
+        <v>44</v>
+      </c>
+      <c r="K122" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="123">
@@ -5082,23 +6183,23 @@
       <c r="E123" t="s">
         <v>12</v>
       </c>
-      <c r="F123" t="n">
-        <v>323.0</v>
+      <c r="F123" t="s">
+        <v>300</v>
       </c>
       <c r="G123" t="s">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="H123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I123" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J123" t="s">
-        <v>29</v>
-      </c>
-      <c r="K123" t="n">
-        <v>553.0</v>
+        <v>44</v>
+      </c>
+      <c r="K123" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="124">
@@ -5118,22 +6219,22 @@
         <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
         <v>18</v>
       </c>
       <c r="J124" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125">
@@ -5152,23 +6253,23 @@
       <c r="E125" t="s">
         <v>12</v>
       </c>
-      <c r="F125" t="n">
-        <v>417.0</v>
+      <c r="F125" t="s">
+        <v>304</v>
       </c>
       <c r="G125" t="s">
-        <v>127</v>
+        <v>305</v>
       </c>
       <c r="H125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I125" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J125" t="s">
-        <v>29</v>
-      </c>
-      <c r="K125" t="n">
-        <v>19336.0</v>
+        <v>44</v>
+      </c>
+      <c r="K125" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="126">
@@ -5187,23 +6288,23 @@
       <c r="E126" t="s">
         <v>12</v>
       </c>
-      <c r="F126" t="n">
-        <v>31.0</v>
+      <c r="F126" t="s">
+        <v>307</v>
       </c>
       <c r="G126" t="s">
-        <v>128</v>
+        <v>308</v>
       </c>
       <c r="H126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I126" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J126" t="s">
-        <v>29</v>
-      </c>
-      <c r="K126" t="n">
-        <v>12198.0</v>
+        <v>44</v>
+      </c>
+      <c r="K126" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="127">
@@ -5222,23 +6323,23 @@
       <c r="E127" t="s">
         <v>12</v>
       </c>
-      <c r="F127" t="n">
-        <v>163.0</v>
+      <c r="F127" t="s">
+        <v>310</v>
       </c>
       <c r="G127" t="s">
-        <v>129</v>
+        <v>311</v>
       </c>
       <c r="H127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I127" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J127" t="s">
-        <v>29</v>
-      </c>
-      <c r="K127" t="n">
-        <v>12260.0</v>
+        <v>44</v>
+      </c>
+      <c r="K127" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="128">
@@ -5258,22 +6359,22 @@
         <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>130</v>
+        <v>313</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J128" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129">
@@ -5293,22 +6394,22 @@
         <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
         <v>18</v>
       </c>
       <c r="J129" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
@@ -5327,23 +6428,23 @@
       <c r="E130" t="s">
         <v>12</v>
       </c>
-      <c r="F130" t="n">
-        <v>216.0</v>
+      <c r="F130" t="s">
+        <v>315</v>
       </c>
       <c r="G130" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="H130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I130" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J130" t="s">
-        <v>21</v>
-      </c>
-      <c r="K130" t="n">
-        <v>12279.0</v>
+        <v>22</v>
+      </c>
+      <c r="K130" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="131">
@@ -5362,23 +6463,23 @@
       <c r="E131" t="s">
         <v>12</v>
       </c>
-      <c r="F131" t="n">
-        <v>150.0</v>
+      <c r="F131" t="s">
+        <v>318</v>
       </c>
       <c r="G131" t="s">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="H131" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I131" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J131" t="s">
-        <v>21</v>
-      </c>
-      <c r="K131" t="n">
-        <v>13342.0</v>
+        <v>22</v>
+      </c>
+      <c r="K131" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="132">
@@ -5397,23 +6498,23 @@
       <c r="E132" t="s">
         <v>12</v>
       </c>
-      <c r="F132" t="n">
-        <v>99.0</v>
+      <c r="F132" t="s">
+        <v>321</v>
       </c>
       <c r="G132" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="H132" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I132" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J132" t="s">
-        <v>21</v>
-      </c>
-      <c r="K132" t="n">
-        <v>12126.0</v>
+        <v>22</v>
+      </c>
+      <c r="K132" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="133">
@@ -5432,23 +6533,23 @@
       <c r="E133" t="s">
         <v>12</v>
       </c>
-      <c r="F133" t="n">
-        <v>79.0</v>
+      <c r="F133" t="s">
+        <v>324</v>
       </c>
       <c r="G133" t="s">
-        <v>135</v>
+        <v>325</v>
       </c>
       <c r="H133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I133" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J133" t="s">
-        <v>21</v>
-      </c>
-      <c r="K133" t="n">
-        <v>12224.0</v>
+        <v>22</v>
+      </c>
+      <c r="K133" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="134">
@@ -5467,23 +6568,23 @@
       <c r="E134" t="s">
         <v>12</v>
       </c>
-      <c r="F134" t="n">
-        <v>267.0</v>
+      <c r="F134" t="s">
+        <v>327</v>
       </c>
       <c r="G134" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="H134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I134" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J134" t="s">
-        <v>21</v>
-      </c>
-      <c r="K134" t="n">
-        <v>13345.0</v>
+        <v>22</v>
+      </c>
+      <c r="K134" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="135">
@@ -5502,23 +6603,23 @@
       <c r="E135" t="s">
         <v>12</v>
       </c>
-      <c r="F135" t="n">
-        <v>71.0</v>
+      <c r="F135" t="s">
+        <v>330</v>
       </c>
       <c r="G135" t="s">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="H135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I135" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J135" t="s">
-        <v>21</v>
-      </c>
-      <c r="K135" t="n">
-        <v>13355.0</v>
+        <v>22</v>
+      </c>
+      <c r="K135" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="136">
@@ -5537,23 +6638,23 @@
       <c r="E136" t="s">
         <v>12</v>
       </c>
-      <c r="F136" t="n">
-        <v>211.0</v>
+      <c r="F136" t="s">
+        <v>333</v>
       </c>
       <c r="G136" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="H136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I136" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J136" t="s">
-        <v>21</v>
-      </c>
-      <c r="K136" t="n">
-        <v>536.0</v>
+        <v>22</v>
+      </c>
+      <c r="K136" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="137">
@@ -5572,23 +6673,23 @@
       <c r="E137" t="s">
         <v>12</v>
       </c>
-      <c r="F137" t="n">
-        <v>194.0</v>
+      <c r="F137" t="s">
+        <v>336</v>
       </c>
       <c r="G137" t="s">
-        <v>139</v>
+        <v>337</v>
       </c>
       <c r="H137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I137" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J137" t="s">
-        <v>21</v>
-      </c>
-      <c r="K137" t="n">
-        <v>12271.0</v>
+        <v>22</v>
+      </c>
+      <c r="K137" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="138">
@@ -5608,22 +6709,22 @@
         <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>140</v>
+        <v>339</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
         <v>18</v>
       </c>
       <c r="J138" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139">
@@ -5643,22 +6744,22 @@
         <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>141</v>
+        <v>340</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J139" t="s">
-        <v>16</v>
-      </c>
-      <c r="K139" t="n">
-        <v>6656.0</v>
+        <v>13</v>
+      </c>
+      <c r="K139" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="140">
@@ -5677,23 +6778,23 @@
       <c r="E140" t="s">
         <v>12</v>
       </c>
-      <c r="F140" t="n">
-        <v>63.0</v>
+      <c r="F140" t="s">
+        <v>342</v>
       </c>
       <c r="G140" t="s">
-        <v>142</v>
+        <v>343</v>
       </c>
       <c r="H140" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I140" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J140" t="s">
-        <v>21</v>
-      </c>
-      <c r="K140" t="n">
-        <v>13321.0</v>
+        <v>22</v>
+      </c>
+      <c r="K140" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="141">
@@ -5712,23 +6813,23 @@
       <c r="E141" t="s">
         <v>12</v>
       </c>
-      <c r="F141" t="n">
-        <v>64.0</v>
+      <c r="F141" t="s">
+        <v>345</v>
       </c>
       <c r="G141" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="H141" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I141" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J141" t="s">
-        <v>21</v>
-      </c>
-      <c r="K141" t="n">
-        <v>13351.0</v>
+        <v>22</v>
+      </c>
+      <c r="K141" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="142">
@@ -5747,23 +6848,23 @@
       <c r="E142" t="s">
         <v>12</v>
       </c>
-      <c r="F142" t="n">
-        <v>208.0</v>
+      <c r="F142" t="s">
+        <v>348</v>
       </c>
       <c r="G142" t="s">
-        <v>144</v>
+        <v>349</v>
       </c>
       <c r="H142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I142" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J142" t="s">
-        <v>21</v>
-      </c>
-      <c r="K142" t="n">
-        <v>13320.0</v>
+        <v>22</v>
+      </c>
+      <c r="K142" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="143">
@@ -5782,23 +6883,23 @@
       <c r="E143" t="s">
         <v>12</v>
       </c>
-      <c r="F143" t="n">
-        <v>209.0</v>
+      <c r="F143" t="s">
+        <v>351</v>
       </c>
       <c r="G143" t="s">
-        <v>145</v>
+        <v>352</v>
       </c>
       <c r="H143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I143" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J143" t="s">
-        <v>21</v>
-      </c>
-      <c r="K143" t="n">
-        <v>13352.0</v>
+        <v>22</v>
+      </c>
+      <c r="K143" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="144">
@@ -5817,23 +6918,23 @@
       <c r="E144" t="s">
         <v>12</v>
       </c>
-      <c r="F144" t="n">
-        <v>84.0</v>
+      <c r="F144" t="s">
+        <v>354</v>
       </c>
       <c r="G144" t="s">
-        <v>146</v>
+        <v>355</v>
       </c>
       <c r="H144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I144" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J144" t="s">
-        <v>21</v>
-      </c>
-      <c r="K144" t="n">
-        <v>4948.0</v>
+        <v>22</v>
+      </c>
+      <c r="K144" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="145">
@@ -5852,23 +6953,23 @@
       <c r="E145" t="s">
         <v>12</v>
       </c>
-      <c r="F145" t="n">
-        <v>98.0</v>
+      <c r="F145" t="s">
+        <v>357</v>
       </c>
       <c r="G145" t="s">
-        <v>147</v>
+        <v>358</v>
       </c>
       <c r="H145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I145" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J145" t="s">
-        <v>21</v>
-      </c>
-      <c r="K145" t="n">
-        <v>4949.0</v>
+        <v>22</v>
+      </c>
+      <c r="K145" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="146">
@@ -5887,23 +6988,23 @@
       <c r="E146" t="s">
         <v>12</v>
       </c>
-      <c r="F146" t="n">
-        <v>136.0</v>
+      <c r="F146" t="s">
+        <v>360</v>
       </c>
       <c r="G146" t="s">
-        <v>148</v>
+        <v>361</v>
       </c>
       <c r="H146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I146" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J146" t="s">
-        <v>21</v>
-      </c>
-      <c r="K146" t="n">
-        <v>13401.0</v>
+        <v>22</v>
+      </c>
+      <c r="K146" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="147">
@@ -5923,22 +7024,22 @@
         <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>149</v>
+        <v>363</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J147" t="s">
-        <v>16</v>
-      </c>
-      <c r="K147" t="n">
-        <v>12349.0</v>
+        <v>13</v>
+      </c>
+      <c r="K147" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="148">
@@ -5958,22 +7059,22 @@
         <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>150</v>
+        <v>365</v>
       </c>
       <c r="H148" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I148" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J148" t="s">
-        <v>16</v>
-      </c>
-      <c r="K148" t="n">
-        <v>13415.0</v>
+        <v>13</v>
+      </c>
+      <c r="K148" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="149">
@@ -5993,22 +7094,22 @@
         <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="H149" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I149" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J149" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
@@ -6028,22 +7129,22 @@
         <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G150" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J150" t="s">
-        <v>16</v>
-      </c>
-      <c r="K150" t="n">
-        <v>12302.0</v>
+        <v>13</v>
+      </c>
+      <c r="K150" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="151">
@@ -6062,23 +7163,23 @@
       <c r="E151" t="s">
         <v>12</v>
       </c>
-      <c r="F151" t="n">
-        <v>249.0</v>
+      <c r="F151" t="s">
+        <v>370</v>
       </c>
       <c r="G151" t="s">
-        <v>153</v>
+        <v>371</v>
       </c>
       <c r="H151" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I151" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J151" t="s">
-        <v>21</v>
-      </c>
-      <c r="K151" t="n">
-        <v>13421.0</v>
+        <v>22</v>
+      </c>
+      <c r="K151" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="152">
@@ -6097,23 +7198,23 @@
       <c r="E152" t="s">
         <v>12</v>
       </c>
-      <c r="F152" t="n">
-        <v>220.0</v>
+      <c r="F152" t="s">
+        <v>373</v>
       </c>
       <c r="G152" t="s">
-        <v>154</v>
+        <v>374</v>
       </c>
       <c r="H152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I152" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J152" t="s">
-        <v>21</v>
-      </c>
-      <c r="K152" t="n">
-        <v>13420.0</v>
+        <v>22</v>
+      </c>
+      <c r="K152" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="153">
@@ -6133,22 +7234,22 @@
         <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>155</v>
+        <v>376</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J153" t="s">
-        <v>16</v>
-      </c>
-      <c r="K153" t="n">
-        <v>6663.0</v>
+        <v>13</v>
+      </c>
+      <c r="K153" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="154">
@@ -6167,23 +7268,23 @@
       <c r="E154" t="s">
         <v>12</v>
       </c>
-      <c r="F154" t="n">
-        <v>93.0</v>
+      <c r="F154" t="s">
+        <v>378</v>
       </c>
       <c r="G154" t="s">
-        <v>156</v>
+        <v>379</v>
       </c>
       <c r="H154" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I154" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J154" t="s">
-        <v>21</v>
-      </c>
-      <c r="K154" t="n">
-        <v>12348.0</v>
+        <v>22</v>
+      </c>
+      <c r="K154" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="155">
@@ -6202,23 +7303,23 @@
       <c r="E155" t="s">
         <v>12</v>
       </c>
-      <c r="F155" t="n">
-        <v>210.0</v>
+      <c r="F155" t="s">
+        <v>381</v>
       </c>
       <c r="G155" t="s">
-        <v>157</v>
+        <v>382</v>
       </c>
       <c r="H155" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I155" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J155" t="s">
-        <v>21</v>
-      </c>
-      <c r="K155" t="n">
-        <v>13438.0</v>
+        <v>22</v>
+      </c>
+      <c r="K155" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="156">
@@ -6238,22 +7339,22 @@
         <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J156" t="s">
-        <v>16</v>
-      </c>
-      <c r="K156" t="n">
-        <v>6662.0</v>
+        <v>13</v>
+      </c>
+      <c r="K156" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="157">
@@ -6272,23 +7373,23 @@
       <c r="E157" t="s">
         <v>12</v>
       </c>
-      <c r="F157" t="n">
-        <v>192.0</v>
+      <c r="F157" t="s">
+        <v>386</v>
       </c>
       <c r="G157" t="s">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="H157" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I157" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J157" t="s">
-        <v>21</v>
-      </c>
-      <c r="K157" t="n">
-        <v>13413.0</v>
+        <v>22</v>
+      </c>
+      <c r="K157" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="158">
@@ -6307,23 +7408,23 @@
       <c r="E158" t="s">
         <v>12</v>
       </c>
-      <c r="F158" t="n">
-        <v>171.0</v>
+      <c r="F158" t="s">
+        <v>389</v>
       </c>
       <c r="G158" t="s">
-        <v>160</v>
+        <v>390</v>
       </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I158" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J158" t="s">
-        <v>21</v>
-      </c>
-      <c r="K158" t="n">
-        <v>13414.0</v>
+        <v>22</v>
+      </c>
+      <c r="K158" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="159">
@@ -6342,23 +7443,23 @@
       <c r="E159" t="s">
         <v>12</v>
       </c>
-      <c r="F159" t="n">
-        <v>157.0</v>
+      <c r="F159" t="s">
+        <v>392</v>
       </c>
       <c r="G159" t="s">
-        <v>161</v>
+        <v>393</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I159" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J159" t="s">
-        <v>21</v>
-      </c>
-      <c r="K159" t="n">
-        <v>13433.0</v>
+        <v>22</v>
+      </c>
+      <c r="K159" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="160">
@@ -6378,22 +7479,22 @@
         <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>162</v>
+        <v>395</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J160" t="s">
-        <v>16</v>
-      </c>
-      <c r="K160" t="n">
-        <v>6655.0</v>
+        <v>13</v>
+      </c>
+      <c r="K160" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="161">
@@ -6412,23 +7513,23 @@
       <c r="E161" t="s">
         <v>12</v>
       </c>
-      <c r="F161" t="n">
-        <v>66.0</v>
+      <c r="F161" t="s">
+        <v>397</v>
       </c>
       <c r="G161" t="s">
-        <v>163</v>
+        <v>398</v>
       </c>
       <c r="H161" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I161" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J161" t="s">
-        <v>21</v>
-      </c>
-      <c r="K161" t="n">
-        <v>13434.0</v>
+        <v>22</v>
+      </c>
+      <c r="K161" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="162">
@@ -6447,23 +7548,23 @@
       <c r="E162" t="s">
         <v>12</v>
       </c>
-      <c r="F162" t="n">
-        <v>68.0</v>
+      <c r="F162" t="s">
+        <v>400</v>
       </c>
       <c r="G162" t="s">
-        <v>164</v>
+        <v>401</v>
       </c>
       <c r="H162" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I162" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J162" t="s">
-        <v>21</v>
-      </c>
-      <c r="K162" t="n">
-        <v>13435.0</v>
+        <v>22</v>
+      </c>
+      <c r="K162" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="163">
@@ -6482,23 +7583,23 @@
       <c r="E163" t="s">
         <v>12</v>
       </c>
-      <c r="F163" t="n">
-        <v>233.0</v>
+      <c r="F163" t="s">
+        <v>403</v>
       </c>
       <c r="G163" t="s">
-        <v>165</v>
+        <v>404</v>
       </c>
       <c r="H163" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I163" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J163" t="s">
-        <v>21</v>
-      </c>
-      <c r="K163" t="n">
-        <v>13343.0</v>
+        <v>22</v>
+      </c>
+      <c r="K163" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="164">
@@ -6517,23 +7618,23 @@
       <c r="E164" t="s">
         <v>12</v>
       </c>
-      <c r="F164" t="n">
-        <v>185.0</v>
+      <c r="F164" t="s">
+        <v>406</v>
       </c>
       <c r="G164" t="s">
-        <v>166</v>
+        <v>407</v>
       </c>
       <c r="H164" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I164" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J164" t="s">
-        <v>21</v>
-      </c>
-      <c r="K164" t="n">
-        <v>13353.0</v>
+        <v>22</v>
+      </c>
+      <c r="K164" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="165">
@@ -6552,23 +7653,23 @@
       <c r="E165" t="s">
         <v>12</v>
       </c>
-      <c r="F165" t="n">
-        <v>251.0</v>
+      <c r="F165" t="s">
+        <v>409</v>
       </c>
       <c r="G165" t="s">
-        <v>167</v>
+        <v>410</v>
       </c>
       <c r="H165" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I165" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J165" t="s">
-        <v>21</v>
-      </c>
-      <c r="K165" t="n">
-        <v>13318.0</v>
+        <v>22</v>
+      </c>
+      <c r="K165" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="166">
@@ -6587,23 +7688,23 @@
       <c r="E166" t="s">
         <v>12</v>
       </c>
-      <c r="F166" t="n">
-        <v>252.0</v>
+      <c r="F166" t="s">
+        <v>412</v>
       </c>
       <c r="G166" t="s">
-        <v>168</v>
+        <v>413</v>
       </c>
       <c r="H166" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I166" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J166" t="s">
-        <v>21</v>
-      </c>
-      <c r="K166" t="n">
-        <v>13319.0</v>
+        <v>22</v>
+      </c>
+      <c r="K166" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="167">
@@ -6622,23 +7723,23 @@
       <c r="E167" t="s">
         <v>12</v>
       </c>
-      <c r="F167" t="n">
-        <v>151.0</v>
+      <c r="F167" t="s">
+        <v>415</v>
       </c>
       <c r="G167" t="s">
-        <v>169</v>
+        <v>416</v>
       </c>
       <c r="H167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I167" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J167" t="s">
-        <v>21</v>
-      </c>
-      <c r="K167" t="n">
-        <v>12259.0</v>
+        <v>22</v>
+      </c>
+      <c r="K167" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="168">
@@ -6657,23 +7758,23 @@
       <c r="E168" t="s">
         <v>12</v>
       </c>
-      <c r="F168" t="n">
-        <v>207.0</v>
+      <c r="F168" t="s">
+        <v>418</v>
       </c>
       <c r="G168" t="s">
-        <v>170</v>
+        <v>419</v>
       </c>
       <c r="H168" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I168" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J168" t="s">
-        <v>21</v>
-      </c>
-      <c r="K168" t="n">
-        <v>12277.0</v>
+        <v>22</v>
+      </c>
+      <c r="K168" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="169">
@@ -6692,23 +7793,23 @@
       <c r="E169" t="s">
         <v>12</v>
       </c>
-      <c r="F169" t="n">
-        <v>91.0</v>
+      <c r="F169" t="s">
+        <v>421</v>
       </c>
       <c r="G169" t="s">
-        <v>171</v>
+        <v>422</v>
       </c>
       <c r="H169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I169" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J169" t="s">
-        <v>21</v>
-      </c>
-      <c r="K169" t="n">
-        <v>12227.0</v>
+        <v>22</v>
+      </c>
+      <c r="K169" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="170">
@@ -6727,23 +7828,23 @@
       <c r="E170" t="s">
         <v>12</v>
       </c>
-      <c r="F170" t="n">
-        <v>90.0</v>
+      <c r="F170" t="s">
+        <v>424</v>
       </c>
       <c r="G170" t="s">
-        <v>172</v>
+        <v>425</v>
       </c>
       <c r="H170" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I170" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J170" t="s">
-        <v>21</v>
-      </c>
-      <c r="K170" t="n">
-        <v>12125.0</v>
+        <v>22</v>
+      </c>
+      <c r="K170" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="171">
@@ -6762,23 +7863,23 @@
       <c r="E171" t="s">
         <v>12</v>
       </c>
-      <c r="F171" t="n">
-        <v>240.0</v>
+      <c r="F171" t="s">
+        <v>427</v>
       </c>
       <c r="G171" t="s">
-        <v>173</v>
+        <v>428</v>
       </c>
       <c r="H171" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I171" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J171" t="s">
-        <v>21</v>
-      </c>
-      <c r="K171" t="n">
-        <v>12291.0</v>
+        <v>22</v>
+      </c>
+      <c r="K171" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="172">
@@ -6797,23 +7898,23 @@
       <c r="E172" t="s">
         <v>12</v>
       </c>
-      <c r="F172" t="n">
-        <v>174.0</v>
+      <c r="F172" t="s">
+        <v>430</v>
       </c>
       <c r="G172" t="s">
-        <v>174</v>
+        <v>431</v>
       </c>
       <c r="H172" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I172" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J172" t="s">
-        <v>21</v>
-      </c>
-      <c r="K172" t="n">
-        <v>499.0</v>
+        <v>22</v>
+      </c>
+      <c r="K172" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="173">
@@ -6832,23 +7933,23 @@
       <c r="E173" t="s">
         <v>12</v>
       </c>
-      <c r="F173" t="n">
-        <v>241.0</v>
+      <c r="F173" t="s">
+        <v>433</v>
       </c>
       <c r="G173" t="s">
-        <v>175</v>
+        <v>434</v>
       </c>
       <c r="H173" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I173" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J173" t="s">
-        <v>21</v>
-      </c>
-      <c r="K173" t="n">
-        <v>12293.0</v>
+        <v>22</v>
+      </c>
+      <c r="K173" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="174">
@@ -6867,23 +7968,23 @@
       <c r="E174" t="s">
         <v>12</v>
       </c>
-      <c r="F174" t="n">
-        <v>238.0</v>
+      <c r="F174" t="s">
+        <v>436</v>
       </c>
       <c r="G174" t="s">
-        <v>176</v>
+        <v>437</v>
       </c>
       <c r="H174" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I174" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J174" t="s">
-        <v>21</v>
-      </c>
-      <c r="K174" t="n">
-        <v>12290.0</v>
+        <v>22</v>
+      </c>
+      <c r="K174" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="175">
@@ -6902,23 +8003,23 @@
       <c r="E175" t="s">
         <v>12</v>
       </c>
-      <c r="F175" t="n">
-        <v>206.0</v>
+      <c r="F175" t="s">
+        <v>439</v>
       </c>
       <c r="G175" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="H175" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I175" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J175" t="s">
-        <v>21</v>
-      </c>
-      <c r="K175" t="n">
-        <v>12276.0</v>
+        <v>22</v>
+      </c>
+      <c r="K175" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="176">
@@ -6937,23 +8038,23 @@
       <c r="E176" t="s">
         <v>12</v>
       </c>
-      <c r="F176" t="n">
-        <v>170.0</v>
+      <c r="F176" t="s">
+        <v>442</v>
       </c>
       <c r="G176" t="s">
-        <v>178</v>
+        <v>443</v>
       </c>
       <c r="H176" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I176" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J176" t="s">
-        <v>21</v>
-      </c>
-      <c r="K176" t="n">
-        <v>12262.0</v>
+        <v>22</v>
+      </c>
+      <c r="K176" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="177">
@@ -6972,23 +8073,23 @@
       <c r="E177" t="s">
         <v>12</v>
       </c>
-      <c r="F177" t="n">
-        <v>264.0</v>
+      <c r="F177" t="s">
+        <v>445</v>
       </c>
       <c r="G177" t="s">
-        <v>179</v>
+        <v>446</v>
       </c>
       <c r="H177" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I177" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J177" t="s">
-        <v>21</v>
-      </c>
-      <c r="K177" t="n">
-        <v>12188.0</v>
+        <v>22</v>
+      </c>
+      <c r="K177" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="178">
@@ -7007,23 +8108,23 @@
       <c r="E178" t="s">
         <v>12</v>
       </c>
-      <c r="F178" t="n">
-        <v>234.0</v>
+      <c r="F178" t="s">
+        <v>448</v>
       </c>
       <c r="G178" t="s">
-        <v>180</v>
+        <v>449</v>
       </c>
       <c r="H178" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I178" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J178" t="s">
-        <v>21</v>
-      </c>
-      <c r="K178" t="n">
-        <v>12289.0</v>
+        <v>22</v>
+      </c>
+      <c r="K178" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="179">
@@ -7042,23 +8143,23 @@
       <c r="E179" t="s">
         <v>12</v>
       </c>
-      <c r="F179" t="n">
-        <v>193.0</v>
+      <c r="F179" t="s">
+        <v>451</v>
       </c>
       <c r="G179" t="s">
-        <v>181</v>
+        <v>452</v>
       </c>
       <c r="H179" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I179" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J179" t="s">
-        <v>21</v>
-      </c>
-      <c r="K179" t="n">
-        <v>12270.0</v>
+        <v>22</v>
+      </c>
+      <c r="K179" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="180">
@@ -7077,23 +8178,23 @@
       <c r="E180" t="s">
         <v>12</v>
       </c>
-      <c r="F180" t="n">
-        <v>95.0</v>
+      <c r="F180" t="s">
+        <v>454</v>
       </c>
       <c r="G180" t="s">
-        <v>182</v>
+        <v>455</v>
       </c>
       <c r="H180" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I180" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J180" t="s">
-        <v>21</v>
-      </c>
-      <c r="K180" t="n">
-        <v>12230.0</v>
+        <v>22</v>
+      </c>
+      <c r="K180" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="181">
@@ -7113,22 +8214,22 @@
         <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G181" t="s">
-        <v>183</v>
+        <v>457</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J181" t="s">
-        <v>16</v>
-      </c>
-      <c r="K181" t="n">
-        <v>13411.0</v>
+        <v>13</v>
+      </c>
+      <c r="K181" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="182">
@@ -7147,23 +8248,23 @@
       <c r="E182" t="s">
         <v>12</v>
       </c>
-      <c r="F182" t="n">
-        <v>190.0</v>
+      <c r="F182" t="s">
+        <v>459</v>
       </c>
       <c r="G182" t="s">
-        <v>184</v>
+        <v>460</v>
       </c>
       <c r="H182" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I182" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J182" t="s">
-        <v>21</v>
-      </c>
-      <c r="K182" t="n">
-        <v>13323.0</v>
+        <v>22</v>
+      </c>
+      <c r="K182" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="183">
@@ -7182,23 +8283,23 @@
       <c r="E183" t="s">
         <v>12</v>
       </c>
-      <c r="F183" t="n">
-        <v>189.0</v>
+      <c r="F183" t="s">
+        <v>462</v>
       </c>
       <c r="G183" t="s">
-        <v>185</v>
+        <v>463</v>
       </c>
       <c r="H183" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I183" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J183" t="s">
-        <v>21</v>
-      </c>
-      <c r="K183" t="n">
-        <v>13322.0</v>
+        <v>22</v>
+      </c>
+      <c r="K183" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="184">
@@ -7218,22 +8319,22 @@
         <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G184" t="s">
-        <v>186</v>
+        <v>465</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J184" t="s">
-        <v>16</v>
-      </c>
-      <c r="K184" t="n">
-        <v>6659.0</v>
+        <v>13</v>
+      </c>
+      <c r="K184" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="185">
@@ -7252,23 +8353,23 @@
       <c r="E185" t="s">
         <v>12</v>
       </c>
-      <c r="F185" t="n">
-        <v>218.0</v>
+      <c r="F185" t="s">
+        <v>467</v>
       </c>
       <c r="G185" t="s">
-        <v>187</v>
+        <v>468</v>
       </c>
       <c r="H185" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I185" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J185" t="s">
-        <v>21</v>
-      </c>
-      <c r="K185" t="n">
-        <v>13330.0</v>
+        <v>22</v>
+      </c>
+      <c r="K185" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="186">
@@ -7287,23 +8388,23 @@
       <c r="E186" t="s">
         <v>12</v>
       </c>
-      <c r="F186" t="n">
-        <v>217.0</v>
+      <c r="F186" t="s">
+        <v>470</v>
       </c>
       <c r="G186" t="s">
-        <v>188</v>
+        <v>471</v>
       </c>
       <c r="H186" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I186" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J186" t="s">
-        <v>21</v>
-      </c>
-      <c r="K186" t="n">
-        <v>13331.0</v>
+        <v>22</v>
+      </c>
+      <c r="K186" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="187">
@@ -7322,23 +8423,23 @@
       <c r="E187" t="s">
         <v>12</v>
       </c>
-      <c r="F187" t="n">
-        <v>239.0</v>
+      <c r="F187" t="s">
+        <v>473</v>
       </c>
       <c r="G187" t="s">
-        <v>189</v>
+        <v>474</v>
       </c>
       <c r="H187" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I187" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J187" t="s">
-        <v>21</v>
-      </c>
-      <c r="K187" t="n">
-        <v>4.0</v>
+        <v>22</v>
+      </c>
+      <c r="K187" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="188">
@@ -7358,22 +8459,22 @@
         <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G188" t="s">
-        <v>190</v>
+        <v>475</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I188" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J188" t="s">
-        <v>16</v>
-      </c>
-      <c r="K188" t="n">
-        <v>6664.0</v>
+        <v>13</v>
+      </c>
+      <c r="K188" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="189">
@@ -7392,23 +8493,23 @@
       <c r="E189" t="s">
         <v>12</v>
       </c>
-      <c r="F189" t="n">
-        <v>145.0</v>
+      <c r="F189" t="s">
+        <v>477</v>
       </c>
       <c r="G189" t="s">
-        <v>191</v>
+        <v>478</v>
       </c>
       <c r="H189" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I189" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J189" t="s">
-        <v>21</v>
-      </c>
-      <c r="K189" t="n">
-        <v>12104.0</v>
+        <v>22</v>
+      </c>
+      <c r="K189" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="190">
@@ -7427,23 +8528,23 @@
       <c r="E190" t="s">
         <v>12</v>
       </c>
-      <c r="F190" t="n">
-        <v>128.0</v>
+      <c r="F190" t="s">
+        <v>480</v>
       </c>
       <c r="G190" t="s">
-        <v>192</v>
+        <v>481</v>
       </c>
       <c r="H190" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I190" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J190" t="s">
-        <v>21</v>
-      </c>
-      <c r="K190" t="n">
-        <v>13426.0</v>
+        <v>22</v>
+      </c>
+      <c r="K190" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="191">
@@ -7462,23 +8563,23 @@
       <c r="E191" t="s">
         <v>12</v>
       </c>
-      <c r="F191" t="n">
-        <v>144.0</v>
+      <c r="F191" t="s">
+        <v>483</v>
       </c>
       <c r="G191" t="s">
-        <v>193</v>
+        <v>484</v>
       </c>
       <c r="H191" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I191" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J191" t="s">
-        <v>21</v>
-      </c>
-      <c r="K191" t="n">
-        <v>12254.0</v>
+        <v>22</v>
+      </c>
+      <c r="K191" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="192">
@@ -7497,23 +8598,23 @@
       <c r="E192" t="s">
         <v>12</v>
       </c>
-      <c r="F192" t="n">
-        <v>242.0</v>
+      <c r="F192" t="s">
+        <v>486</v>
       </c>
       <c r="G192" t="s">
-        <v>194</v>
+        <v>487</v>
       </c>
       <c r="H192" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I192" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J192" t="s">
-        <v>21</v>
-      </c>
-      <c r="K192" t="n">
-        <v>18781.0</v>
+        <v>22</v>
+      </c>
+      <c r="K192" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="193">
@@ -7532,23 +8633,23 @@
       <c r="E193" t="s">
         <v>12</v>
       </c>
-      <c r="F193" t="n">
-        <v>85.0</v>
+      <c r="F193" t="s">
+        <v>489</v>
       </c>
       <c r="G193" t="s">
-        <v>195</v>
+        <v>490</v>
       </c>
       <c r="H193" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I193" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J193" t="s">
-        <v>21</v>
-      </c>
-      <c r="K193" t="n">
-        <v>13349.0</v>
+        <v>22</v>
+      </c>
+      <c r="K193" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="194">
@@ -7567,23 +8668,23 @@
       <c r="E194" t="s">
         <v>12</v>
       </c>
-      <c r="F194" t="n">
-        <v>262.0</v>
+      <c r="F194" t="s">
+        <v>492</v>
       </c>
       <c r="G194" t="s">
-        <v>196</v>
+        <v>493</v>
       </c>
       <c r="H194" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I194" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J194" t="s">
-        <v>21</v>
-      </c>
-      <c r="K194" t="n">
-        <v>519.0</v>
+        <v>22</v>
+      </c>
+      <c r="K194" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="195">
@@ -7602,23 +8703,23 @@
       <c r="E195" t="s">
         <v>12</v>
       </c>
-      <c r="F195" t="n">
-        <v>215.0</v>
+      <c r="F195" t="s">
+        <v>495</v>
       </c>
       <c r="G195" t="s">
-        <v>197</v>
+        <v>496</v>
       </c>
       <c r="H195" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I195" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J195" t="s">
-        <v>21</v>
-      </c>
-      <c r="K195" t="n">
-        <v>12316.0</v>
+        <v>22</v>
+      </c>
+      <c r="K195" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="196">
@@ -7637,23 +8738,23 @@
       <c r="E196" t="s">
         <v>12</v>
       </c>
-      <c r="F196" t="n">
-        <v>89.0</v>
+      <c r="F196" t="s">
+        <v>498</v>
       </c>
       <c r="G196" t="s">
-        <v>198</v>
+        <v>499</v>
       </c>
       <c r="H196" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I196" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J196" t="s">
-        <v>21</v>
-      </c>
-      <c r="K196" t="n">
-        <v>12226.0</v>
+        <v>22</v>
+      </c>
+      <c r="K196" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="197">
@@ -7672,23 +8773,23 @@
       <c r="E197" t="s">
         <v>12</v>
       </c>
-      <c r="F197" t="n">
-        <v>166.0</v>
+      <c r="F197" t="s">
+        <v>501</v>
       </c>
       <c r="G197" t="s">
-        <v>199</v>
+        <v>502</v>
       </c>
       <c r="H197" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I197" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J197" t="s">
-        <v>21</v>
-      </c>
-      <c r="K197" t="n">
-        <v>12261.0</v>
+        <v>22</v>
+      </c>
+      <c r="K197" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="198">
@@ -7707,23 +8808,23 @@
       <c r="E198" t="s">
         <v>12</v>
       </c>
-      <c r="F198" t="n">
-        <v>149.0</v>
+      <c r="F198" t="s">
+        <v>504</v>
       </c>
       <c r="G198" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="H198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I198" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J198" t="s">
-        <v>21</v>
-      </c>
-      <c r="K198" t="n">
-        <v>6.0</v>
+        <v>22</v>
+      </c>
+      <c r="K198" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="199">
@@ -7742,23 +8843,23 @@
       <c r="E199" t="s">
         <v>12</v>
       </c>
-      <c r="F199" t="n">
-        <v>96.0</v>
+      <c r="F199" t="s">
+        <v>506</v>
       </c>
       <c r="G199" t="s">
-        <v>200</v>
+        <v>507</v>
       </c>
       <c r="H199" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I199" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J199" t="s">
-        <v>21</v>
-      </c>
-      <c r="K199" t="n">
-        <v>12231.0</v>
+        <v>22</v>
+      </c>
+      <c r="K199" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="200">
@@ -7777,23 +8878,23 @@
       <c r="E200" t="s">
         <v>12</v>
       </c>
-      <c r="F200" t="n">
-        <v>268.0</v>
+      <c r="F200" t="s">
+        <v>509</v>
       </c>
       <c r="G200" t="s">
-        <v>201</v>
+        <v>510</v>
       </c>
       <c r="H200" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I200" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J200" t="s">
-        <v>21</v>
-      </c>
-      <c r="K200" t="n">
-        <v>12303.0</v>
+        <v>22</v>
+      </c>
+      <c r="K200" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="201">
@@ -7812,23 +8913,23 @@
       <c r="E201" t="s">
         <v>12</v>
       </c>
-      <c r="F201" t="n">
-        <v>148.0</v>
+      <c r="F201" t="s">
+        <v>512</v>
       </c>
       <c r="G201" t="s">
-        <v>202</v>
+        <v>513</v>
       </c>
       <c r="H201" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I201" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J201" t="s">
-        <v>21</v>
-      </c>
-      <c r="K201" t="n">
-        <v>7.0</v>
+        <v>22</v>
+      </c>
+      <c r="K201" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="202">
@@ -7847,23 +8948,23 @@
       <c r="E202" t="s">
         <v>12</v>
       </c>
-      <c r="F202" t="n">
-        <v>129.0</v>
+      <c r="F202" t="s">
+        <v>515</v>
       </c>
       <c r="G202" t="s">
-        <v>203</v>
+        <v>516</v>
       </c>
       <c r="H202" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I202" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J202" t="s">
-        <v>21</v>
-      </c>
-      <c r="K202" t="n">
-        <v>13429.0</v>
+        <v>22</v>
+      </c>
+      <c r="K202" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="203">
@@ -7882,23 +8983,23 @@
       <c r="E203" t="s">
         <v>12</v>
       </c>
-      <c r="F203" t="n">
-        <v>187.0</v>
+      <c r="F203" t="s">
+        <v>518</v>
       </c>
       <c r="G203" t="s">
-        <v>204</v>
+        <v>519</v>
       </c>
       <c r="H203" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I203" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J203" t="s">
-        <v>21</v>
-      </c>
-      <c r="K203" t="n">
-        <v>13430.0</v>
+        <v>22</v>
+      </c>
+      <c r="K203" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="204">
@@ -7918,22 +9019,22 @@
         <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>205</v>
+        <v>521</v>
       </c>
       <c r="H204" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I204" t="s">
         <v>18</v>
       </c>
       <c r="J204" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
@@ -7953,22 +9054,22 @@
         <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>206</v>
+        <v>522</v>
       </c>
       <c r="H205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I205" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="J205" t="s">
-        <v>16</v>
-      </c>
-      <c r="K205" t="n">
-        <v>6661.0</v>
+        <v>13</v>
+      </c>
+      <c r="K205" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="206">
@@ -7987,23 +9088,23 @@
       <c r="E206" t="s">
         <v>12</v>
       </c>
-      <c r="F206" t="n">
-        <v>202.0</v>
+      <c r="F206" t="s">
+        <v>524</v>
       </c>
       <c r="G206" t="s">
-        <v>207</v>
+        <v>525</v>
       </c>
       <c r="H206" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I206" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J206" t="s">
-        <v>21</v>
-      </c>
-      <c r="K206" t="n">
-        <v>18779.0</v>
+        <v>22</v>
+      </c>
+      <c r="K206" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="207">
@@ -8022,23 +9123,23 @@
       <c r="E207" t="s">
         <v>12</v>
       </c>
-      <c r="F207" t="n">
-        <v>204.0</v>
+      <c r="F207" t="s">
+        <v>527</v>
       </c>
       <c r="G207" t="s">
-        <v>208</v>
+        <v>528</v>
       </c>
       <c r="H207" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I207" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J207" t="s">
-        <v>21</v>
-      </c>
-      <c r="K207" t="n">
-        <v>18780.0</v>
+        <v>22</v>
+      </c>
+      <c r="K207" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="208">
@@ -8057,23 +9158,23 @@
       <c r="E208" t="s">
         <v>12</v>
       </c>
-      <c r="F208" t="n">
-        <v>175.0</v>
+      <c r="F208" t="s">
+        <v>530</v>
       </c>
       <c r="G208" t="s">
-        <v>209</v>
+        <v>531</v>
       </c>
       <c r="H208" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I208" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J208" t="s">
-        <v>21</v>
-      </c>
-      <c r="K208" t="n">
-        <v>19436.0</v>
+        <v>22</v>
+      </c>
+      <c r="K208" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="209">
@@ -8092,23 +9193,23 @@
       <c r="E209" t="s">
         <v>12</v>
       </c>
-      <c r="F209" t="n">
-        <v>196.0</v>
+      <c r="F209" t="s">
+        <v>533</v>
       </c>
       <c r="G209" t="s">
-        <v>210</v>
+        <v>534</v>
       </c>
       <c r="H209" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I209" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J209" t="s">
-        <v>21</v>
-      </c>
-      <c r="K209" t="n">
-        <v>12272.0</v>
+        <v>22</v>
+      </c>
+      <c r="K209" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="210">
@@ -8127,23 +9228,23 @@
       <c r="E210" t="s">
         <v>12</v>
       </c>
-      <c r="F210" t="n">
-        <v>248.0</v>
+      <c r="F210" t="s">
+        <v>536</v>
       </c>
       <c r="G210" t="s">
-        <v>211</v>
+        <v>537</v>
       </c>
       <c r="H210" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I210" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J210" t="s">
-        <v>21</v>
-      </c>
-      <c r="K210" t="n">
-        <v>12301.0</v>
+        <v>22</v>
+      </c>
+      <c r="K210" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="211">
@@ -8162,23 +9263,23 @@
       <c r="E211" t="s">
         <v>12</v>
       </c>
-      <c r="F211" t="n">
-        <v>257.0</v>
+      <c r="F211" t="s">
+        <v>539</v>
       </c>
       <c r="G211" t="s">
-        <v>212</v>
+        <v>540</v>
       </c>
       <c r="H211" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I211" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J211" t="s">
-        <v>21</v>
-      </c>
-      <c r="K211" t="n">
-        <v>12179.0</v>
+        <v>22</v>
+      </c>
+      <c r="K211" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="212">
@@ -8198,22 +9299,22 @@
         <v>12</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G212" t="s">
-        <v>213</v>
+        <v>542</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I212" t="s">
         <v>18</v>
       </c>
       <c r="J212" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K212" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213">
@@ -8232,23 +9333,23 @@
       <c r="E213" t="s">
         <v>12</v>
       </c>
-      <c r="F213" t="n">
-        <v>77.0</v>
+      <c r="F213" t="s">
+        <v>543</v>
       </c>
       <c r="G213" t="s">
-        <v>214</v>
+        <v>544</v>
       </c>
       <c r="H213" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I213" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J213" t="s">
-        <v>21</v>
-      </c>
-      <c r="K213" t="n">
-        <v>18028.0</v>
+        <v>22</v>
+      </c>
+      <c r="K213" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="214">
@@ -8267,23 +9368,23 @@
       <c r="E214" t="s">
         <v>12</v>
       </c>
-      <c r="F214" t="n">
-        <v>212.0</v>
+      <c r="F214" t="s">
+        <v>546</v>
       </c>
       <c r="G214" t="s">
-        <v>215</v>
+        <v>547</v>
       </c>
       <c r="H214" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I214" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J214" t="s">
-        <v>21</v>
-      </c>
-      <c r="K214" t="n">
-        <v>13340.0</v>
+        <v>22</v>
+      </c>
+      <c r="K214" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="215">
@@ -8302,23 +9403,23 @@
       <c r="E215" t="s">
         <v>12</v>
       </c>
-      <c r="F215" t="n">
-        <v>73.0</v>
+      <c r="F215" t="s">
+        <v>549</v>
       </c>
       <c r="G215" t="s">
-        <v>216</v>
+        <v>550</v>
       </c>
       <c r="H215" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I215" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J215" t="s">
-        <v>21</v>
-      </c>
-      <c r="K215" t="n">
-        <v>13339.0</v>
+        <v>22</v>
+      </c>
+      <c r="K215" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="216">
@@ -8338,22 +9439,22 @@
         <v>12</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>217</v>
+        <v>552</v>
       </c>
       <c r="H216" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I216" t="s">
         <v>18</v>
       </c>
       <c r="J216" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K216" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
@@ -8373,22 +9474,22 @@
         <v>12</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>218</v>
+        <v>553</v>
       </c>
       <c r="H217" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I217" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="J217" t="s">
-        <v>16</v>
-      </c>
-      <c r="K217" t="n">
-        <v>12298.0</v>
+        <v>13</v>
+      </c>
+      <c r="K217" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="218">
@@ -8407,23 +9508,23 @@
       <c r="E218" t="s">
         <v>12</v>
       </c>
-      <c r="F218" t="n">
-        <v>213.0</v>
+      <c r="F218" t="s">
+        <v>555</v>
       </c>
       <c r="G218" t="s">
-        <v>219</v>
+        <v>556</v>
       </c>
       <c r="H218" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I218" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J218" t="s">
-        <v>21</v>
-      </c>
-      <c r="K218" t="n">
-        <v>13439.0</v>
+        <v>22</v>
+      </c>
+      <c r="K218" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="219">
@@ -8442,23 +9543,23 @@
       <c r="E219" t="s">
         <v>12</v>
       </c>
-      <c r="F219" t="n">
-        <v>244.0</v>
+      <c r="F219" t="s">
+        <v>558</v>
       </c>
       <c r="G219" t="s">
-        <v>151</v>
+        <v>367</v>
       </c>
       <c r="H219" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I219" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J219" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K219" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220">
@@ -8477,23 +9578,23 @@
       <c r="E220" t="s">
         <v>12</v>
       </c>
-      <c r="F220" t="n">
-        <v>245.0</v>
+      <c r="F220" t="s">
+        <v>559</v>
       </c>
       <c r="G220" t="s">
-        <v>220</v>
+        <v>560</v>
       </c>
       <c r="H220" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I220" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J220" t="s">
-        <v>21</v>
-      </c>
-      <c r="K220" t="n">
-        <v>12298.0</v>
+        <v>22</v>
+      </c>
+      <c r="K220" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="221">
@@ -8512,23 +9613,23 @@
       <c r="E221" t="s">
         <v>12</v>
       </c>
-      <c r="F221" t="n">
-        <v>167.0</v>
+      <c r="F221" t="s">
+        <v>561</v>
       </c>
       <c r="G221" t="s">
-        <v>221</v>
+        <v>562</v>
       </c>
       <c r="H221" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I221" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J221" t="s">
-        <v>21</v>
-      </c>
-      <c r="K221" t="n">
-        <v>13347.0</v>
+        <v>22</v>
+      </c>
+      <c r="K221" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="222">
@@ -8547,23 +9648,23 @@
       <c r="E222" t="s">
         <v>12</v>
       </c>
-      <c r="F222" t="n">
-        <v>247.0</v>
+      <c r="F222" t="s">
+        <v>564</v>
       </c>
       <c r="G222" t="s">
-        <v>222</v>
+        <v>565</v>
       </c>
       <c r="H222" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I222" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J222" t="s">
-        <v>21</v>
-      </c>
-      <c r="K222" t="n">
-        <v>12300.0</v>
+        <v>22</v>
+      </c>
+      <c r="K222" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="223">
@@ -8582,23 +9683,23 @@
       <c r="E223" t="s">
         <v>12</v>
       </c>
-      <c r="F223" t="n">
-        <v>83.0</v>
+      <c r="F223" t="s">
+        <v>567</v>
       </c>
       <c r="G223" t="s">
-        <v>223</v>
+        <v>568</v>
       </c>
       <c r="H223" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I223" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J223" t="s">
-        <v>21</v>
-      </c>
-      <c r="K223" t="n">
-        <v>12225.0</v>
+        <v>22</v>
+      </c>
+      <c r="K223" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="224">
@@ -8617,23 +9718,23 @@
       <c r="E224" t="s">
         <v>12</v>
       </c>
-      <c r="F224" t="n">
-        <v>243.0</v>
+      <c r="F224" t="s">
+        <v>570</v>
       </c>
       <c r="G224" t="s">
-        <v>224</v>
+        <v>571</v>
       </c>
       <c r="H224" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I224" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J224" t="s">
-        <v>21</v>
-      </c>
-      <c r="K224" t="n">
-        <v>12297.0</v>
+        <v>22</v>
+      </c>
+      <c r="K224" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="225">
@@ -8652,23 +9753,23 @@
       <c r="E225" t="s">
         <v>12</v>
       </c>
-      <c r="F225" t="n">
-        <v>246.0</v>
+      <c r="F225" t="s">
+        <v>573</v>
       </c>
       <c r="G225" t="s">
-        <v>225</v>
+        <v>574</v>
       </c>
       <c r="H225" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I225" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J225" t="s">
-        <v>21</v>
-      </c>
-      <c r="K225" t="n">
-        <v>13436.0</v>
+        <v>22</v>
+      </c>
+      <c r="K225" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="226">
@@ -8687,23 +9788,23 @@
       <c r="E226" t="s">
         <v>12</v>
       </c>
-      <c r="F226" t="n">
-        <v>201.0</v>
+      <c r="F226" t="s">
+        <v>576</v>
       </c>
       <c r="G226" t="s">
-        <v>226</v>
+        <v>577</v>
       </c>
       <c r="H226" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I226" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J226" t="s">
-        <v>21</v>
-      </c>
-      <c r="K226" t="n">
-        <v>12274.0</v>
+        <v>22</v>
+      </c>
+      <c r="K226" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="227">
@@ -8723,22 +9824,22 @@
         <v>12</v>
       </c>
       <c r="F227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G227" t="s">
-        <v>227</v>
+        <v>579</v>
       </c>
       <c r="H227" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I227" t="s">
         <v>18</v>
       </c>
       <c r="J227" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228">
@@ -8757,23 +9858,23 @@
       <c r="E228" t="s">
         <v>12</v>
       </c>
-      <c r="F228" t="n">
-        <v>186.0</v>
+      <c r="F228" t="s">
+        <v>580</v>
       </c>
       <c r="G228" t="s">
-        <v>228</v>
+        <v>581</v>
       </c>
       <c r="H228" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I228" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J228" t="s">
-        <v>21</v>
-      </c>
-      <c r="K228" t="n">
-        <v>12267.0</v>
+        <v>22</v>
+      </c>
+      <c r="K228" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="229">
@@ -8792,23 +9893,23 @@
       <c r="E229" t="s">
         <v>12</v>
       </c>
-      <c r="F229" t="n">
-        <v>219.0</v>
+      <c r="F229" t="s">
+        <v>583</v>
       </c>
       <c r="G229" t="s">
-        <v>229</v>
+        <v>584</v>
       </c>
       <c r="H229" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I229" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J229" t="s">
-        <v>21</v>
-      </c>
-      <c r="K229" t="n">
-        <v>12287.0</v>
+        <v>22</v>
+      </c>
+      <c r="K229" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="230">
@@ -8827,23 +9928,23 @@
       <c r="E230" t="s">
         <v>12</v>
       </c>
-      <c r="F230" t="n">
-        <v>231.0</v>
+      <c r="F230" t="s">
+        <v>586</v>
       </c>
       <c r="G230" t="s">
-        <v>230</v>
+        <v>587</v>
       </c>
       <c r="H230" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I230" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J230" t="s">
-        <v>21</v>
-      </c>
-      <c r="K230" t="n">
-        <v>12288.0</v>
+        <v>22</v>
+      </c>
+      <c r="K230" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="231">
@@ -8862,23 +9963,23 @@
       <c r="E231" t="s">
         <v>12</v>
       </c>
-      <c r="F231" t="n">
-        <v>74.0</v>
+      <c r="F231" t="s">
+        <v>589</v>
       </c>
       <c r="G231" t="s">
-        <v>231</v>
+        <v>590</v>
       </c>
       <c r="H231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I231" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J231" t="s">
-        <v>21</v>
-      </c>
-      <c r="K231" t="n">
-        <v>12216.0</v>
+        <v>22</v>
+      </c>
+      <c r="K231" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="232">
@@ -8898,22 +9999,22 @@
         <v>12</v>
       </c>
       <c r="F232" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G232" t="s">
-        <v>232</v>
+        <v>592</v>
       </c>
       <c r="H232" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I232" t="s">
         <v>18</v>
       </c>
       <c r="J232" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K232" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233">
@@ -8932,23 +10033,23 @@
       <c r="E233" t="s">
         <v>12</v>
       </c>
-      <c r="F233" t="n">
-        <v>253.0</v>
+      <c r="F233" t="s">
+        <v>593</v>
       </c>
       <c r="G233" t="s">
-        <v>233</v>
+        <v>594</v>
       </c>
       <c r="H233" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I233" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J233" t="s">
-        <v>21</v>
-      </c>
-      <c r="K233" t="n">
-        <v>12347.0</v>
+        <v>22</v>
+      </c>
+      <c r="K233" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="234">
@@ -8967,23 +10068,23 @@
       <c r="E234" t="s">
         <v>12</v>
       </c>
-      <c r="F234" t="n">
-        <v>200.0</v>
+      <c r="F234" t="s">
+        <v>596</v>
       </c>
       <c r="G234" t="s">
-        <v>234</v>
+        <v>597</v>
       </c>
       <c r="H234" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I234" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J234" t="s">
-        <v>21</v>
-      </c>
-      <c r="K234" t="n">
-        <v>12273.0</v>
+        <v>22</v>
+      </c>
+      <c r="K234" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="235">
@@ -9003,22 +10104,22 @@
         <v>12</v>
       </c>
       <c r="F235" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G235" t="s">
-        <v>235</v>
+        <v>599</v>
       </c>
       <c r="H235" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I235" t="s">
         <v>18</v>
       </c>
       <c r="J235" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K235" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236">
@@ -9037,23 +10138,23 @@
       <c r="E236" t="s">
         <v>12</v>
       </c>
-      <c r="F236" t="n">
-        <v>70.0</v>
+      <c r="F236" t="s">
+        <v>600</v>
       </c>
       <c r="G236" t="s">
-        <v>236</v>
+        <v>601</v>
       </c>
       <c r="H236" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I236" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J236" t="s">
-        <v>21</v>
-      </c>
-      <c r="K236" t="n">
-        <v>20398.0</v>
+        <v>22</v>
+      </c>
+      <c r="K236" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="237">
@@ -9072,23 +10173,23 @@
       <c r="E237" t="s">
         <v>12</v>
       </c>
-      <c r="F237" t="n">
-        <v>72.0</v>
+      <c r="F237" t="s">
+        <v>603</v>
       </c>
       <c r="G237" t="s">
-        <v>237</v>
+        <v>604</v>
       </c>
       <c r="H237" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I237" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J237" t="s">
-        <v>21</v>
-      </c>
-      <c r="K237" t="n">
-        <v>20398.0</v>
+        <v>22</v>
+      </c>
+      <c r="K237" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/ricorsione/output/ServiceMenu.xlsx
+++ b/ricorsione/output/ServiceMenu.xlsx
@@ -755,7 +755,7 @@
     <t>12305</t>
   </si>
   <si>
-    <t>ICTCARD MENÃ™</t>
+    <t>ICTCARD MENÙ</t>
   </si>
   <si>
     <t>12353</t>
@@ -1034,7 +1034,7 @@
     <t>Bollette Utenze</t>
   </si>
   <si>
-    <t>ENEL MENÃ™</t>
+    <t>ENEL MENÙ</t>
   </si>
   <si>
     <t>6656</t>
@@ -1118,7 +1118,7 @@
     <t>ANNULLO</t>
   </si>
   <si>
-    <t>ESSEDIESSE MENÃ™</t>
+    <t>ESSEDIESSE MENÙ</t>
   </si>
   <si>
     <t>12302</t>
@@ -1142,7 +1142,7 @@
     <t>13420</t>
   </si>
   <si>
-    <t>HERA MENÃ™</t>
+    <t>HERA MENÙ</t>
   </si>
   <si>
     <t>6663</t>
@@ -1166,7 +1166,7 @@
     <t>13438</t>
   </si>
   <si>
-    <t>A2A MENÃ™</t>
+    <t>A2A MENÙ</t>
   </si>
   <si>
     <t>6662</t>
@@ -1199,7 +1199,7 @@
     <t>13433</t>
   </si>
   <si>
-    <t>ACEA MENÃ™</t>
+    <t>ACEA MENÙ</t>
   </si>
   <si>
     <t>6655</t>
@@ -1385,7 +1385,7 @@
     <t>12230</t>
   </si>
   <si>
-    <t>EON MENÃ™</t>
+    <t>EON MENÙ</t>
   </si>
   <si>
     <t>13411</t>
@@ -1409,7 +1409,7 @@
     <t>13322</t>
   </si>
   <si>
-    <t>ESTENERGY MENÃ™</t>
+    <t>ESTENERGY MENÙ</t>
   </si>
   <si>
     <t>6659</t>
@@ -1439,7 +1439,7 @@
     <t>GORI</t>
   </si>
   <si>
-    <t>IREN MENÃ™</t>
+    <t>IREN MENÙ</t>
   </si>
   <si>
     <t>6664</t>
@@ -1580,7 +1580,7 @@
     <t>Bollettini credito al consumo</t>
   </si>
   <si>
-    <t>FINDOMESTIC MENÃ™</t>
+    <t>FINDOMESTIC MENÙ</t>
   </si>
   <si>
     <t>6661</t>
@@ -1673,7 +1673,7 @@
     <t>Biglietteria</t>
   </si>
   <si>
-    <t>TRENITALIA MENÃ™</t>
+    <t>TRENITALIA MENÙ</t>
   </si>
   <si>
     <t>12298</t>
@@ -1878,7 +1878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K237"/>
+  <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1890,11 +1890,11 @@
     <col min="4" max="4" width="2.76171875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="2.76171875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.9140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.5078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.23046875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.51953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="41.5078125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.2578125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="23.3046875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.28125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="23.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1948,22 +1948,22 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1983,22 +1983,22 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2018,22 +2018,22 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2053,22 +2053,22 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2088,22 +2088,22 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2123,22 +2123,22 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2158,22 +2158,22 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2193,22 +2193,22 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2228,22 +2228,22 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2263,22 +2263,22 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>43</v>
       </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
         <v>44</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2298,22 +2298,22 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>21</v>
-      </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2333,22 +2333,22 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
       <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>49</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>50</v>
       </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2368,22 +2368,22 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>53</v>
       </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
         <v>44</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2403,22 +2403,22 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>55</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
       <c r="E16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>58</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="H16" t="s">
-        <v>21</v>
-      </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2473,22 +2473,22 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>61</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>62</v>
       </c>
-      <c r="H17" t="s">
-        <v>21</v>
-      </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>64</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>65</v>
       </c>
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
         <v>44</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2543,22 +2543,22 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>67</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>68</v>
       </c>
-      <c r="H19" t="s">
-        <v>21</v>
-      </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
         <v>44</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2578,22 +2578,22 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>70</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>71</v>
       </c>
-      <c r="H20" t="s">
-        <v>21</v>
-      </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2613,22 +2613,22 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>73</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>74</v>
       </c>
-      <c r="H21" t="s">
-        <v>21</v>
-      </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
         <v>44</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2648,22 +2648,22 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>76</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>77</v>
       </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
         <v>44</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2683,22 +2683,22 @@
       <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>79</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>80</v>
       </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2718,22 +2718,22 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>82</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>83</v>
       </c>
-      <c r="H24" t="s">
-        <v>21</v>
-      </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
         <v>44</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2753,22 +2753,22 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>85</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>86</v>
       </c>
-      <c r="H25" t="s">
-        <v>21</v>
-      </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
         <v>44</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2788,22 +2788,22 @@
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>88</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>89</v>
       </c>
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
       <c r="I26" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
         <v>44</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2823,22 +2823,22 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>91</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>92</v>
       </c>
-      <c r="H27" t="s">
-        <v>21</v>
-      </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2858,22 +2858,22 @@
       <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>94</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>95</v>
       </c>
-      <c r="H28" t="s">
-        <v>21</v>
-      </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2893,22 +2893,22 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>97</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>98</v>
       </c>
-      <c r="H29" t="s">
-        <v>21</v>
-      </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
         <v>44</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2928,22 +2928,22 @@
       <c r="E30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>100</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>101</v>
       </c>
-      <c r="H30" t="s">
-        <v>21</v>
-      </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
         <v>44</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2963,22 +2963,22 @@
       <c r="E31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>103</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>104</v>
       </c>
-      <c r="H31" t="s">
-        <v>21</v>
-      </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
         <v>44</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2998,22 +2998,22 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>106</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>107</v>
       </c>
-      <c r="H32" t="s">
-        <v>21</v>
-      </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3033,22 +3033,22 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>109</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>110</v>
       </c>
-      <c r="H33" t="s">
-        <v>21</v>
-      </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3068,22 +3068,22 @@
       <c r="E34" t="s">
         <v>12</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>112</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>113</v>
       </c>
-      <c r="H34" t="s">
-        <v>21</v>
-      </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K34" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3103,22 +3103,22 @@
       <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>115</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>116</v>
       </c>
-      <c r="H35" t="s">
-        <v>21</v>
-      </c>
       <c r="I35" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
         <v>44</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3138,22 +3138,22 @@
       <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
       <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
         <v>118</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>15</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>18</v>
       </c>
-      <c r="J36" t="s">
-        <v>13</v>
-      </c>
       <c r="K36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3173,22 +3173,22 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>119</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>120</v>
       </c>
-      <c r="H37" t="s">
-        <v>21</v>
-      </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3208,22 +3208,22 @@
       <c r="E38" t="s">
         <v>12</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>122</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>123</v>
       </c>
-      <c r="H38" t="s">
-        <v>21</v>
-      </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K38" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3243,22 +3243,22 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>125</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>126</v>
       </c>
-      <c r="H39" t="s">
-        <v>21</v>
-      </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3278,22 +3278,22 @@
       <c r="E40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>128</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>129</v>
       </c>
-      <c r="H40" t="s">
-        <v>21</v>
-      </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3313,22 +3313,22 @@
       <c r="E41" t="s">
         <v>12</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>131</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>132</v>
       </c>
-      <c r="H41" t="s">
-        <v>21</v>
-      </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
         <v>44</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3348,22 +3348,22 @@
       <c r="E42" t="s">
         <v>12</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>134</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>135</v>
       </c>
-      <c r="H42" t="s">
-        <v>21</v>
-      </c>
       <c r="I42" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3383,22 +3383,22 @@
       <c r="E43" t="s">
         <v>12</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>137</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>138</v>
       </c>
-      <c r="H43" t="s">
-        <v>21</v>
-      </c>
       <c r="I43" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3418,22 +3418,22 @@
       <c r="E44" t="s">
         <v>12</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>140</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>141</v>
       </c>
-      <c r="H44" t="s">
-        <v>21</v>
-      </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K44" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3453,22 +3453,22 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>143</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>144</v>
       </c>
-      <c r="H45" t="s">
-        <v>21</v>
-      </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3488,22 +3488,22 @@
       <c r="E46" t="s">
         <v>12</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>146</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>147</v>
       </c>
-      <c r="H46" t="s">
-        <v>21</v>
-      </c>
       <c r="I46" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K46" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3523,22 +3523,22 @@
       <c r="E47" t="s">
         <v>12</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>149</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>150</v>
       </c>
-      <c r="H47" t="s">
-        <v>21</v>
-      </c>
       <c r="I47" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K47" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3558,22 +3558,22 @@
       <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>152</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>153</v>
       </c>
-      <c r="H48" t="s">
-        <v>21</v>
-      </c>
       <c r="I48" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
         <v>44</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3593,22 +3593,22 @@
       <c r="E49" t="s">
         <v>12</v>
       </c>
-      <c r="F49" t="s">
-        <v>13</v>
-      </c>
       <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
         <v>155</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>15</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>18</v>
       </c>
-      <c r="J49" t="s">
-        <v>13</v>
-      </c>
       <c r="K49" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3628,22 +3628,22 @@
       <c r="E50" t="s">
         <v>12</v>
       </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
       <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
         <v>156</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>15</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>157</v>
       </c>
-      <c r="J50" t="s">
-        <v>13</v>
-      </c>
       <c r="K50" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3663,22 +3663,22 @@
       <c r="E51" t="s">
         <v>12</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>159</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>49</v>
       </c>
-      <c r="H51" t="s">
-        <v>21</v>
-      </c>
       <c r="I51" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K51" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3698,22 +3698,22 @@
       <c r="E52" t="s">
         <v>12</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>160</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>161</v>
       </c>
-      <c r="H52" t="s">
-        <v>21</v>
-      </c>
       <c r="I52" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K52" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3733,22 +3733,22 @@
       <c r="E53" t="s">
         <v>12</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>162</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>163</v>
       </c>
-      <c r="H53" t="s">
-        <v>21</v>
-      </c>
       <c r="I53" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K53" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3768,22 +3768,22 @@
       <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="F54" t="s">
-        <v>13</v>
-      </c>
       <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
         <v>164</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>15</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>18</v>
       </c>
-      <c r="J54" t="s">
-        <v>13</v>
-      </c>
       <c r="K54" t="s">
+        <v>13</v>
+      </c>
+      <c r="L54" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3803,22 +3803,22 @@
       <c r="E55" t="s">
         <v>12</v>
       </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
       <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
         <v>165</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>15</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>166</v>
       </c>
-      <c r="J55" t="s">
-        <v>13</v>
-      </c>
       <c r="K55" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3838,22 +3838,22 @@
       <c r="E56" t="s">
         <v>12</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>168</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>169</v>
       </c>
-      <c r="H56" t="s">
-        <v>21</v>
-      </c>
       <c r="I56" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s">
         <v>44</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3873,22 +3873,22 @@
       <c r="E57" t="s">
         <v>12</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>171</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>172</v>
       </c>
-      <c r="H57" t="s">
-        <v>21</v>
-      </c>
       <c r="I57" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s">
         <v>44</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3908,22 +3908,22 @@
       <c r="E58" t="s">
         <v>12</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>174</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>175</v>
       </c>
-      <c r="H58" t="s">
-        <v>21</v>
-      </c>
       <c r="I58" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s">
         <v>44</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       <c r="E59" t="s">
         <v>12</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>177</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>178</v>
       </c>
-      <c r="H59" t="s">
-        <v>21</v>
-      </c>
       <c r="I59" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s">
         <v>44</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3978,22 +3978,22 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>180</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>181</v>
       </c>
-      <c r="H60" t="s">
-        <v>21</v>
-      </c>
       <c r="I60" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" t="s">
         <v>44</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4013,22 +4013,22 @@
       <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>183</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>184</v>
       </c>
-      <c r="H61" t="s">
-        <v>21</v>
-      </c>
       <c r="I61" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s">
         <v>44</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4048,22 +4048,22 @@
       <c r="E62" t="s">
         <v>12</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>186</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>187</v>
       </c>
-      <c r="H62" t="s">
-        <v>21</v>
-      </c>
       <c r="I62" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" t="s">
         <v>44</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4083,22 +4083,22 @@
       <c r="E63" t="s">
         <v>12</v>
       </c>
-      <c r="F63" t="s">
-        <v>13</v>
-      </c>
       <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
         <v>189</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>15</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>166</v>
       </c>
-      <c r="J63" t="s">
-        <v>13</v>
-      </c>
       <c r="K63" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4118,22 +4118,22 @@
       <c r="E64" t="s">
         <v>12</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>191</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>192</v>
       </c>
-      <c r="H64" t="s">
-        <v>21</v>
-      </c>
       <c r="I64" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" t="s">
         <v>44</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4153,22 +4153,22 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>194</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>195</v>
       </c>
-      <c r="H65" t="s">
-        <v>21</v>
-      </c>
       <c r="I65" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" t="s">
         <v>44</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4188,22 +4188,22 @@
       <c r="E66" t="s">
         <v>12</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>197</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>198</v>
       </c>
-      <c r="H66" t="s">
-        <v>21</v>
-      </c>
       <c r="I66" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" t="s">
         <v>44</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4223,22 +4223,22 @@
       <c r="E67" t="s">
         <v>12</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>200</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>201</v>
       </c>
-      <c r="H67" t="s">
-        <v>21</v>
-      </c>
       <c r="I67" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s">
         <v>44</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4258,22 +4258,22 @@
       <c r="E68" t="s">
         <v>12</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>203</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>204</v>
       </c>
-      <c r="H68" t="s">
-        <v>21</v>
-      </c>
       <c r="I68" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J68" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" t="s">
         <v>44</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4293,22 +4293,22 @@
       <c r="E69" t="s">
         <v>12</v>
       </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
       <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
         <v>206</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>15</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>166</v>
       </c>
-      <c r="J69" t="s">
-        <v>13</v>
-      </c>
       <c r="K69" t="s">
+        <v>13</v>
+      </c>
+      <c r="L69" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4328,22 +4328,22 @@
       <c r="E70" t="s">
         <v>12</v>
       </c>
-      <c r="F70" t="s">
-        <v>13</v>
-      </c>
       <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
         <v>208</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>15</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>157</v>
       </c>
-      <c r="J70" t="s">
-        <v>13</v>
-      </c>
       <c r="K70" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4363,22 +4363,22 @@
       <c r="E71" t="s">
         <v>11</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>210</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>211</v>
       </c>
-      <c r="H71" t="s">
-        <v>21</v>
-      </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J71" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" t="s">
         <v>44</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4398,22 +4398,22 @@
       <c r="E72" t="s">
         <v>11</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>210</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>49</v>
       </c>
-      <c r="H72" t="s">
-        <v>21</v>
-      </c>
       <c r="I72" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" t="s">
         <v>212</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4433,22 +4433,22 @@
       <c r="E73" t="s">
         <v>12</v>
       </c>
-      <c r="F73" t="s">
-        <v>13</v>
-      </c>
       <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
         <v>213</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>15</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>157</v>
       </c>
-      <c r="J73" t="s">
-        <v>13</v>
-      </c>
       <c r="K73" t="s">
+        <v>13</v>
+      </c>
+      <c r="L73" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4468,22 +4468,22 @@
       <c r="E74" t="s">
         <v>11</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>215</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>211</v>
       </c>
-      <c r="H74" t="s">
-        <v>21</v>
-      </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J74" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" t="s">
         <v>44</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4503,22 +4503,22 @@
       <c r="E75" t="s">
         <v>11</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>215</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>49</v>
       </c>
-      <c r="H75" t="s">
-        <v>21</v>
-      </c>
       <c r="I75" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J75" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" t="s">
         <v>212</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4538,22 +4538,22 @@
       <c r="E76" t="s">
         <v>12</v>
       </c>
-      <c r="F76" t="s">
-        <v>13</v>
-      </c>
       <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
         <v>216</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>15</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>157</v>
       </c>
-      <c r="J76" t="s">
-        <v>13</v>
-      </c>
       <c r="K76" t="s">
+        <v>13</v>
+      </c>
+      <c r="L76" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4573,22 +4573,22 @@
       <c r="E77" t="s">
         <v>11</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>218</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>211</v>
       </c>
-      <c r="H77" t="s">
-        <v>21</v>
-      </c>
       <c r="I77" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" t="s">
         <v>44</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4608,22 +4608,22 @@
       <c r="E78" t="s">
         <v>11</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>218</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>49</v>
       </c>
-      <c r="H78" t="s">
-        <v>21</v>
-      </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s">
         <v>212</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4643,22 +4643,22 @@
       <c r="E79" t="s">
         <v>12</v>
       </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
       <c r="G79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
         <v>219</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>15</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>157</v>
       </c>
-      <c r="J79" t="s">
-        <v>13</v>
-      </c>
       <c r="K79" t="s">
+        <v>13</v>
+      </c>
+      <c r="L79" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4678,22 +4678,22 @@
       <c r="E80" t="s">
         <v>11</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>221</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>211</v>
       </c>
-      <c r="H80" t="s">
-        <v>21</v>
-      </c>
       <c r="I80" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J80" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" t="s">
         <v>44</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       <c r="E81" t="s">
         <v>11</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>221</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>49</v>
       </c>
-      <c r="H81" t="s">
-        <v>21</v>
-      </c>
       <c r="I81" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" t="s">
         <v>212</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4748,22 +4748,22 @@
       <c r="E82" t="s">
         <v>12</v>
       </c>
-      <c r="F82" t="s">
-        <v>13</v>
-      </c>
       <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
         <v>222</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>15</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>157</v>
       </c>
-      <c r="J82" t="s">
-        <v>13</v>
-      </c>
       <c r="K82" t="s">
+        <v>13</v>
+      </c>
+      <c r="L82" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4783,22 +4783,22 @@
       <c r="E83" t="s">
         <v>11</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>224</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>211</v>
       </c>
-      <c r="H83" t="s">
-        <v>21</v>
-      </c>
       <c r="I83" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J83" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" t="s">
         <v>44</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4818,22 +4818,22 @@
       <c r="E84" t="s">
         <v>11</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>224</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>49</v>
       </c>
-      <c r="H84" t="s">
-        <v>21</v>
-      </c>
       <c r="I84" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J84" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" t="s">
         <v>212</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4853,22 +4853,22 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
       <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
         <v>225</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>15</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>166</v>
       </c>
-      <c r="J85" t="s">
-        <v>13</v>
-      </c>
       <c r="K85" t="s">
+        <v>13</v>
+      </c>
+      <c r="L85" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4888,22 +4888,22 @@
       <c r="E86" t="s">
         <v>12</v>
       </c>
-      <c r="F86" t="s">
-        <v>13</v>
-      </c>
       <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
         <v>227</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>15</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>157</v>
       </c>
-      <c r="J86" t="s">
-        <v>13</v>
-      </c>
       <c r="K86" t="s">
+        <v>13</v>
+      </c>
+      <c r="L86" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4923,22 +4923,22 @@
       <c r="E87" t="s">
         <v>11</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>229</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>211</v>
       </c>
-      <c r="H87" t="s">
-        <v>21</v>
-      </c>
       <c r="I87" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J87" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" t="s">
         <v>230</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4958,22 +4958,22 @@
       <c r="E88" t="s">
         <v>11</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>229</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>49</v>
       </c>
-      <c r="H88" t="s">
-        <v>21</v>
-      </c>
       <c r="I88" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J88" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" t="s">
         <v>231</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4993,22 +4993,22 @@
       <c r="E89" t="s">
         <v>12</v>
       </c>
-      <c r="F89" t="s">
-        <v>13</v>
-      </c>
       <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
         <v>232</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>15</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>157</v>
       </c>
-      <c r="J89" t="s">
-        <v>13</v>
-      </c>
       <c r="K89" t="s">
+        <v>13</v>
+      </c>
+      <c r="L89" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5028,22 +5028,22 @@
       <c r="E90" t="s">
         <v>11</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>234</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>211</v>
       </c>
-      <c r="H90" t="s">
-        <v>21</v>
-      </c>
       <c r="I90" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J90" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" t="s">
         <v>230</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5063,22 +5063,22 @@
       <c r="E91" t="s">
         <v>11</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>234</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>49</v>
       </c>
-      <c r="H91" t="s">
-        <v>21</v>
-      </c>
       <c r="I91" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J91" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" t="s">
         <v>231</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5098,22 +5098,22 @@
       <c r="E92" t="s">
         <v>12</v>
       </c>
-      <c r="F92" t="s">
-        <v>13</v>
-      </c>
       <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
         <v>235</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>15</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>157</v>
       </c>
-      <c r="J92" t="s">
-        <v>13</v>
-      </c>
       <c r="K92" t="s">
+        <v>13</v>
+      </c>
+      <c r="L92" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5133,22 +5133,22 @@
       <c r="E93" t="s">
         <v>11</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>237</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>211</v>
       </c>
-      <c r="H93" t="s">
-        <v>21</v>
-      </c>
       <c r="I93" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J93" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" t="s">
         <v>230</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5168,22 +5168,22 @@
       <c r="E94" t="s">
         <v>11</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>237</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>49</v>
       </c>
-      <c r="H94" t="s">
-        <v>21</v>
-      </c>
       <c r="I94" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J94" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" t="s">
         <v>231</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5203,22 +5203,22 @@
       <c r="E95" t="s">
         <v>12</v>
       </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
       <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
         <v>238</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>15</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>157</v>
       </c>
-      <c r="J95" t="s">
-        <v>13</v>
-      </c>
       <c r="K95" t="s">
+        <v>13</v>
+      </c>
+      <c r="L95" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5238,22 +5238,22 @@
       <c r="E96" t="s">
         <v>11</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>240</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>211</v>
       </c>
-      <c r="H96" t="s">
-        <v>21</v>
-      </c>
       <c r="I96" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J96" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" t="s">
         <v>230</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5273,22 +5273,22 @@
       <c r="E97" t="s">
         <v>11</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>240</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>49</v>
       </c>
-      <c r="H97" t="s">
-        <v>21</v>
-      </c>
       <c r="I97" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J97" t="s">
+        <v>13</v>
+      </c>
+      <c r="K97" t="s">
         <v>231</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5308,22 +5308,22 @@
       <c r="E98" t="s">
         <v>12</v>
       </c>
-      <c r="F98" t="s">
-        <v>13</v>
-      </c>
       <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
         <v>241</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>15</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>157</v>
       </c>
-      <c r="J98" t="s">
-        <v>13</v>
-      </c>
       <c r="K98" t="s">
+        <v>13</v>
+      </c>
+      <c r="L98" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5343,22 +5343,22 @@
       <c r="E99" t="s">
         <v>11</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>243</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>211</v>
       </c>
-      <c r="H99" t="s">
-        <v>21</v>
-      </c>
       <c r="I99" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J99" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" t="s">
         <v>230</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5378,22 +5378,22 @@
       <c r="E100" t="s">
         <v>11</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>243</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>49</v>
       </c>
-      <c r="H100" t="s">
-        <v>21</v>
-      </c>
       <c r="I100" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J100" t="s">
+        <v>13</v>
+      </c>
+      <c r="K100" t="s">
         <v>231</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5413,22 +5413,22 @@
       <c r="E101" t="s">
         <v>12</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>244</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>245</v>
       </c>
-      <c r="H101" t="s">
-        <v>21</v>
-      </c>
       <c r="I101" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J101" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K101" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5448,22 +5448,22 @@
       <c r="E102" t="s">
         <v>12</v>
       </c>
-      <c r="F102" t="s">
-        <v>13</v>
-      </c>
       <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
         <v>247</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>15</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>157</v>
       </c>
-      <c r="J102" t="s">
-        <v>13</v>
-      </c>
       <c r="K102" t="s">
+        <v>13</v>
+      </c>
+      <c r="L102" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5483,22 +5483,22 @@
       <c r="E103" t="s">
         <v>12</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>249</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>211</v>
       </c>
-      <c r="H103" t="s">
-        <v>21</v>
-      </c>
       <c r="I103" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J103" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" t="s">
         <v>44</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5518,22 +5518,22 @@
       <c r="E104" t="s">
         <v>12</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>249</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>49</v>
       </c>
-      <c r="H104" t="s">
-        <v>21</v>
-      </c>
       <c r="I104" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J104" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" t="s">
         <v>212</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5553,22 +5553,22 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>250</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>251</v>
       </c>
-      <c r="H105" t="s">
-        <v>21</v>
-      </c>
       <c r="I105" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J105" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" t="s">
         <v>44</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5588,22 +5588,22 @@
       <c r="E106" t="s">
         <v>12</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>253</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>254</v>
       </c>
-      <c r="H106" t="s">
-        <v>21</v>
-      </c>
       <c r="I106" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J106" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" t="s">
         <v>44</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5623,22 +5623,22 @@
       <c r="E107" t="s">
         <v>12</v>
       </c>
-      <c r="F107" t="s">
-        <v>13</v>
-      </c>
       <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
         <v>256</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>15</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>18</v>
       </c>
-      <c r="J107" t="s">
-        <v>13</v>
-      </c>
       <c r="K107" t="s">
+        <v>13</v>
+      </c>
+      <c r="L107" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       <c r="E108" t="s">
         <v>12</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>257</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>258</v>
       </c>
-      <c r="H108" t="s">
-        <v>21</v>
-      </c>
       <c r="I108" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J108" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" t="s">
         <v>44</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5693,22 +5693,22 @@
       <c r="E109" t="s">
         <v>12</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>260</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>261</v>
       </c>
-      <c r="H109" t="s">
-        <v>21</v>
-      </c>
       <c r="I109" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J109" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" t="s">
         <v>44</v>
       </c>
-      <c r="K109" t="s">
+      <c r="L109" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5728,22 +5728,22 @@
       <c r="E110" t="s">
         <v>12</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>263</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>264</v>
       </c>
-      <c r="H110" t="s">
-        <v>21</v>
-      </c>
       <c r="I110" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J110" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" t="s">
         <v>44</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5763,22 +5763,22 @@
       <c r="E111" t="s">
         <v>12</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>266</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>267</v>
       </c>
-      <c r="H111" t="s">
-        <v>21</v>
-      </c>
       <c r="I111" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J111" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" t="s">
         <v>44</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5798,22 +5798,22 @@
       <c r="E112" t="s">
         <v>12</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>269</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>270</v>
       </c>
-      <c r="H112" t="s">
-        <v>21</v>
-      </c>
       <c r="I112" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J112" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" t="s">
         <v>44</v>
       </c>
-      <c r="K112" t="s">
+      <c r="L112" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5833,22 +5833,22 @@
       <c r="E113" t="s">
         <v>12</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>272</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>273</v>
       </c>
-      <c r="H113" t="s">
-        <v>21</v>
-      </c>
       <c r="I113" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J113" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113" t="s">
         <v>44</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L113" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5868,22 +5868,22 @@
       <c r="E114" t="s">
         <v>12</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>275</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>276</v>
       </c>
-      <c r="H114" t="s">
-        <v>21</v>
-      </c>
       <c r="I114" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J114" t="s">
+        <v>13</v>
+      </c>
+      <c r="K114" t="s">
         <v>44</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5903,22 +5903,22 @@
       <c r="E115" t="s">
         <v>12</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>278</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>279</v>
       </c>
-      <c r="H115" t="s">
-        <v>21</v>
-      </c>
       <c r="I115" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J115" t="s">
+        <v>13</v>
+      </c>
+      <c r="K115" t="s">
         <v>44</v>
       </c>
-      <c r="K115" t="s">
+      <c r="L115" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5938,22 +5938,22 @@
       <c r="E116" t="s">
         <v>12</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>281</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>282</v>
       </c>
-      <c r="H116" t="s">
-        <v>21</v>
-      </c>
       <c r="I116" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J116" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" t="s">
         <v>44</v>
       </c>
-      <c r="K116" t="s">
+      <c r="L116" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5973,22 +5973,22 @@
       <c r="E117" t="s">
         <v>12</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>284</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>285</v>
       </c>
-      <c r="H117" t="s">
-        <v>21</v>
-      </c>
       <c r="I117" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J117" t="s">
+        <v>13</v>
+      </c>
+      <c r="K117" t="s">
         <v>44</v>
       </c>
-      <c r="K117" t="s">
+      <c r="L117" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6008,22 +6008,22 @@
       <c r="E118" t="s">
         <v>12</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>287</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>288</v>
       </c>
-      <c r="H118" t="s">
-        <v>21</v>
-      </c>
       <c r="I118" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J118" t="s">
+        <v>13</v>
+      </c>
+      <c r="K118" t="s">
         <v>44</v>
       </c>
-      <c r="K118" t="s">
+      <c r="L118" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6043,22 +6043,22 @@
       <c r="E119" t="s">
         <v>12</v>
       </c>
-      <c r="F119" t="s">
-        <v>13</v>
-      </c>
       <c r="G119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
         <v>290</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>15</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>18</v>
       </c>
-      <c r="J119" t="s">
-        <v>13</v>
-      </c>
       <c r="K119" t="s">
+        <v>13</v>
+      </c>
+      <c r="L119" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6078,22 +6078,22 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>291</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>292</v>
       </c>
-      <c r="H120" t="s">
-        <v>21</v>
-      </c>
       <c r="I120" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J120" t="s">
+        <v>13</v>
+      </c>
+      <c r="K120" t="s">
         <v>44</v>
       </c>
-      <c r="K120" t="s">
+      <c r="L120" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6113,22 +6113,22 @@
       <c r="E121" t="s">
         <v>12</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>294</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>295</v>
       </c>
-      <c r="H121" t="s">
-        <v>21</v>
-      </c>
       <c r="I121" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J121" t="s">
+        <v>13</v>
+      </c>
+      <c r="K121" t="s">
         <v>44</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6148,22 +6148,22 @@
       <c r="E122" t="s">
         <v>12</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>297</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>298</v>
       </c>
-      <c r="H122" t="s">
-        <v>21</v>
-      </c>
       <c r="I122" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J122" t="s">
+        <v>13</v>
+      </c>
+      <c r="K122" t="s">
         <v>44</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6183,22 +6183,22 @@
       <c r="E123" t="s">
         <v>12</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>300</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>301</v>
       </c>
-      <c r="H123" t="s">
-        <v>21</v>
-      </c>
       <c r="I123" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J123" t="s">
+        <v>13</v>
+      </c>
+      <c r="K123" t="s">
         <v>44</v>
       </c>
-      <c r="K123" t="s">
+      <c r="L123" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6218,22 +6218,22 @@
       <c r="E124" t="s">
         <v>12</v>
       </c>
-      <c r="F124" t="s">
-        <v>13</v>
-      </c>
       <c r="G124" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" t="s">
         <v>303</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>15</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>18</v>
       </c>
-      <c r="J124" t="s">
-        <v>13</v>
-      </c>
       <c r="K124" t="s">
+        <v>13</v>
+      </c>
+      <c r="L124" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6253,22 +6253,22 @@
       <c r="E125" t="s">
         <v>12</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>304</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>305</v>
       </c>
-      <c r="H125" t="s">
-        <v>21</v>
-      </c>
       <c r="I125" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J125" t="s">
+        <v>13</v>
+      </c>
+      <c r="K125" t="s">
         <v>44</v>
       </c>
-      <c r="K125" t="s">
+      <c r="L125" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6288,22 +6288,22 @@
       <c r="E126" t="s">
         <v>12</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>307</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>308</v>
       </c>
-      <c r="H126" t="s">
-        <v>21</v>
-      </c>
       <c r="I126" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J126" t="s">
+        <v>13</v>
+      </c>
+      <c r="K126" t="s">
         <v>44</v>
       </c>
-      <c r="K126" t="s">
+      <c r="L126" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6323,22 +6323,22 @@
       <c r="E127" t="s">
         <v>12</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>310</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>311</v>
       </c>
-      <c r="H127" t="s">
-        <v>21</v>
-      </c>
       <c r="I127" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J127" t="s">
+        <v>13</v>
+      </c>
+      <c r="K127" t="s">
         <v>44</v>
       </c>
-      <c r="K127" t="s">
+      <c r="L127" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6358,22 +6358,22 @@
       <c r="E128" t="s">
         <v>12</v>
       </c>
-      <c r="F128" t="s">
-        <v>13</v>
-      </c>
       <c r="G128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s">
         <v>313</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>15</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>16</v>
       </c>
-      <c r="J128" t="s">
-        <v>13</v>
-      </c>
       <c r="K128" t="s">
+        <v>13</v>
+      </c>
+      <c r="L128" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6393,22 +6393,22 @@
       <c r="E129" t="s">
         <v>12</v>
       </c>
-      <c r="F129" t="s">
-        <v>13</v>
-      </c>
       <c r="G129" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" t="s">
         <v>314</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>15</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>18</v>
       </c>
-      <c r="J129" t="s">
-        <v>13</v>
-      </c>
       <c r="K129" t="s">
+        <v>13</v>
+      </c>
+      <c r="L129" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6428,22 +6428,22 @@
       <c r="E130" t="s">
         <v>12</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>315</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>316</v>
       </c>
-      <c r="H130" t="s">
-        <v>21</v>
-      </c>
       <c r="I130" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J130" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K130" t="s">
+        <v>22</v>
+      </c>
+      <c r="L130" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6463,22 +6463,22 @@
       <c r="E131" t="s">
         <v>12</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>318</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>319</v>
       </c>
-      <c r="H131" t="s">
-        <v>21</v>
-      </c>
       <c r="I131" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J131" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K131" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6498,22 +6498,22 @@
       <c r="E132" t="s">
         <v>12</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>321</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>322</v>
       </c>
-      <c r="H132" t="s">
-        <v>21</v>
-      </c>
       <c r="I132" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J132" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K132" t="s">
+        <v>22</v>
+      </c>
+      <c r="L132" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6533,22 +6533,22 @@
       <c r="E133" t="s">
         <v>12</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>324</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>325</v>
       </c>
-      <c r="H133" t="s">
-        <v>21</v>
-      </c>
       <c r="I133" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J133" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K133" t="s">
+        <v>22</v>
+      </c>
+      <c r="L133" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6568,22 +6568,22 @@
       <c r="E134" t="s">
         <v>12</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>327</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>328</v>
       </c>
-      <c r="H134" t="s">
-        <v>21</v>
-      </c>
       <c r="I134" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J134" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K134" t="s">
+        <v>22</v>
+      </c>
+      <c r="L134" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6603,22 +6603,22 @@
       <c r="E135" t="s">
         <v>12</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>330</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>331</v>
       </c>
-      <c r="H135" t="s">
-        <v>21</v>
-      </c>
       <c r="I135" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J135" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K135" t="s">
+        <v>22</v>
+      </c>
+      <c r="L135" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6638,22 +6638,22 @@
       <c r="E136" t="s">
         <v>12</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>333</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>334</v>
       </c>
-      <c r="H136" t="s">
-        <v>21</v>
-      </c>
       <c r="I136" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J136" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K136" t="s">
+        <v>22</v>
+      </c>
+      <c r="L136" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6673,22 +6673,22 @@
       <c r="E137" t="s">
         <v>12</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>336</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>337</v>
       </c>
-      <c r="H137" t="s">
-        <v>21</v>
-      </c>
       <c r="I137" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J137" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K137" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6708,22 +6708,22 @@
       <c r="E138" t="s">
         <v>12</v>
       </c>
-      <c r="F138" t="s">
-        <v>13</v>
-      </c>
       <c r="G138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" t="s">
         <v>339</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>15</v>
       </c>
-      <c r="I138" t="s">
+      <c r="J138" t="s">
         <v>18</v>
       </c>
-      <c r="J138" t="s">
-        <v>13</v>
-      </c>
       <c r="K138" t="s">
+        <v>13</v>
+      </c>
+      <c r="L138" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6743,22 +6743,22 @@
       <c r="E139" t="s">
         <v>12</v>
       </c>
-      <c r="F139" t="s">
-        <v>13</v>
-      </c>
       <c r="G139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s">
         <v>340</v>
       </c>
-      <c r="H139" t="s">
+      <c r="I139" t="s">
         <v>15</v>
       </c>
-      <c r="I139" t="s">
+      <c r="J139" t="s">
         <v>166</v>
       </c>
-      <c r="J139" t="s">
-        <v>13</v>
-      </c>
       <c r="K139" t="s">
+        <v>13</v>
+      </c>
+      <c r="L139" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6778,22 +6778,22 @@
       <c r="E140" t="s">
         <v>12</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>342</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>343</v>
       </c>
-      <c r="H140" t="s">
-        <v>21</v>
-      </c>
       <c r="I140" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J140" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K140" t="s">
+        <v>22</v>
+      </c>
+      <c r="L140" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6813,22 +6813,22 @@
       <c r="E141" t="s">
         <v>12</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>345</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>346</v>
       </c>
-      <c r="H141" t="s">
-        <v>21</v>
-      </c>
       <c r="I141" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J141" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K141" t="s">
+        <v>22</v>
+      </c>
+      <c r="L141" t="s">
         <v>347</v>
       </c>
     </row>
@@ -6848,22 +6848,22 @@
       <c r="E142" t="s">
         <v>12</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>348</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>349</v>
       </c>
-      <c r="H142" t="s">
-        <v>21</v>
-      </c>
       <c r="I142" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J142" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K142" t="s">
+        <v>22</v>
+      </c>
+      <c r="L142" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6883,22 +6883,22 @@
       <c r="E143" t="s">
         <v>12</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>351</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>352</v>
       </c>
-      <c r="H143" t="s">
-        <v>21</v>
-      </c>
       <c r="I143" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J143" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K143" t="s">
+        <v>22</v>
+      </c>
+      <c r="L143" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6918,22 +6918,22 @@
       <c r="E144" t="s">
         <v>12</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>354</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>355</v>
       </c>
-      <c r="H144" t="s">
-        <v>21</v>
-      </c>
       <c r="I144" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J144" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K144" t="s">
+        <v>22</v>
+      </c>
+      <c r="L144" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6953,22 +6953,22 @@
       <c r="E145" t="s">
         <v>12</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>357</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>358</v>
       </c>
-      <c r="H145" t="s">
-        <v>21</v>
-      </c>
       <c r="I145" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J145" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K145" t="s">
+        <v>22</v>
+      </c>
+      <c r="L145" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6988,22 +6988,22 @@
       <c r="E146" t="s">
         <v>12</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>360</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>361</v>
       </c>
-      <c r="H146" t="s">
-        <v>21</v>
-      </c>
       <c r="I146" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J146" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K146" t="s">
+        <v>22</v>
+      </c>
+      <c r="L146" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7023,22 +7023,22 @@
       <c r="E147" t="s">
         <v>12</v>
       </c>
-      <c r="F147" t="s">
-        <v>13</v>
-      </c>
       <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
         <v>363</v>
       </c>
-      <c r="H147" t="s">
+      <c r="I147" t="s">
         <v>15</v>
       </c>
-      <c r="I147" t="s">
+      <c r="J147" t="s">
         <v>166</v>
       </c>
-      <c r="J147" t="s">
-        <v>13</v>
-      </c>
       <c r="K147" t="s">
+        <v>13</v>
+      </c>
+      <c r="L147" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7058,22 +7058,22 @@
       <c r="E148" t="s">
         <v>12</v>
       </c>
-      <c r="F148" t="s">
-        <v>13</v>
-      </c>
       <c r="G148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
         <v>365</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>50</v>
       </c>
-      <c r="I148" t="s">
-        <v>13</v>
-      </c>
       <c r="J148" t="s">
         <v>13</v>
       </c>
       <c r="K148" t="s">
+        <v>13</v>
+      </c>
+      <c r="L148" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7093,22 +7093,22 @@
       <c r="E149" t="s">
         <v>12</v>
       </c>
-      <c r="F149" t="s">
-        <v>13</v>
-      </c>
       <c r="G149" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" t="s">
         <v>367</v>
       </c>
-      <c r="H149" t="s">
+      <c r="I149" t="s">
         <v>50</v>
       </c>
-      <c r="I149" t="s">
-        <v>13</v>
-      </c>
       <c r="J149" t="s">
         <v>13</v>
       </c>
       <c r="K149" t="s">
+        <v>13</v>
+      </c>
+      <c r="L149" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7128,22 +7128,22 @@
       <c r="E150" t="s">
         <v>12</v>
       </c>
-      <c r="F150" t="s">
-        <v>13</v>
-      </c>
       <c r="G150" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" t="s">
         <v>368</v>
       </c>
-      <c r="H150" t="s">
+      <c r="I150" t="s">
         <v>15</v>
       </c>
-      <c r="I150" t="s">
+      <c r="J150" t="s">
         <v>166</v>
       </c>
-      <c r="J150" t="s">
-        <v>13</v>
-      </c>
       <c r="K150" t="s">
+        <v>13</v>
+      </c>
+      <c r="L150" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7163,22 +7163,22 @@
       <c r="E151" t="s">
         <v>12</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>370</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>371</v>
       </c>
-      <c r="H151" t="s">
-        <v>21</v>
-      </c>
       <c r="I151" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J151" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K151" t="s">
+        <v>22</v>
+      </c>
+      <c r="L151" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7198,22 +7198,22 @@
       <c r="E152" t="s">
         <v>12</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>373</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>374</v>
       </c>
-      <c r="H152" t="s">
-        <v>21</v>
-      </c>
       <c r="I152" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J152" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K152" t="s">
+        <v>22</v>
+      </c>
+      <c r="L152" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7233,22 +7233,22 @@
       <c r="E153" t="s">
         <v>12</v>
       </c>
-      <c r="F153" t="s">
-        <v>13</v>
-      </c>
       <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s">
         <v>376</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>15</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>166</v>
       </c>
-      <c r="J153" t="s">
-        <v>13</v>
-      </c>
       <c r="K153" t="s">
+        <v>13</v>
+      </c>
+      <c r="L153" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7268,22 +7268,22 @@
       <c r="E154" t="s">
         <v>12</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>378</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>379</v>
       </c>
-      <c r="H154" t="s">
-        <v>21</v>
-      </c>
       <c r="I154" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J154" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K154" t="s">
+        <v>22</v>
+      </c>
+      <c r="L154" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7303,22 +7303,22 @@
       <c r="E155" t="s">
         <v>12</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>381</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>382</v>
       </c>
-      <c r="H155" t="s">
-        <v>21</v>
-      </c>
       <c r="I155" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J155" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K155" t="s">
+        <v>22</v>
+      </c>
+      <c r="L155" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7338,22 +7338,22 @@
       <c r="E156" t="s">
         <v>12</v>
       </c>
-      <c r="F156" t="s">
-        <v>13</v>
-      </c>
       <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
         <v>384</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>15</v>
       </c>
-      <c r="I156" t="s">
+      <c r="J156" t="s">
         <v>166</v>
       </c>
-      <c r="J156" t="s">
-        <v>13</v>
-      </c>
       <c r="K156" t="s">
+        <v>13</v>
+      </c>
+      <c r="L156" t="s">
         <v>385</v>
       </c>
     </row>
@@ -7373,22 +7373,22 @@
       <c r="E157" t="s">
         <v>12</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>386</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>387</v>
       </c>
-      <c r="H157" t="s">
-        <v>21</v>
-      </c>
       <c r="I157" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J157" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K157" t="s">
+        <v>22</v>
+      </c>
+      <c r="L157" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7408,22 +7408,22 @@
       <c r="E158" t="s">
         <v>12</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>389</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
         <v>390</v>
       </c>
-      <c r="H158" t="s">
-        <v>21</v>
-      </c>
       <c r="I158" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J158" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K158" t="s">
+        <v>22</v>
+      </c>
+      <c r="L158" t="s">
         <v>391</v>
       </c>
     </row>
@@ -7443,22 +7443,22 @@
       <c r="E159" t="s">
         <v>12</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
         <v>392</v>
       </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>393</v>
       </c>
-      <c r="H159" t="s">
-        <v>21</v>
-      </c>
       <c r="I159" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J159" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K159" t="s">
+        <v>22</v>
+      </c>
+      <c r="L159" t="s">
         <v>394</v>
       </c>
     </row>
@@ -7478,22 +7478,22 @@
       <c r="E160" t="s">
         <v>12</v>
       </c>
-      <c r="F160" t="s">
-        <v>13</v>
-      </c>
       <c r="G160" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" t="s">
         <v>395</v>
       </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
         <v>15</v>
       </c>
-      <c r="I160" t="s">
+      <c r="J160" t="s">
         <v>166</v>
       </c>
-      <c r="J160" t="s">
-        <v>13</v>
-      </c>
       <c r="K160" t="s">
+        <v>13</v>
+      </c>
+      <c r="L160" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7513,22 +7513,22 @@
       <c r="E161" t="s">
         <v>12</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>397</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>398</v>
       </c>
-      <c r="H161" t="s">
-        <v>21</v>
-      </c>
       <c r="I161" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J161" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K161" t="s">
+        <v>22</v>
+      </c>
+      <c r="L161" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7548,22 +7548,22 @@
       <c r="E162" t="s">
         <v>12</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>400</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>401</v>
       </c>
-      <c r="H162" t="s">
-        <v>21</v>
-      </c>
       <c r="I162" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J162" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K162" t="s">
+        <v>22</v>
+      </c>
+      <c r="L162" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7583,22 +7583,22 @@
       <c r="E163" t="s">
         <v>12</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>403</v>
       </c>
-      <c r="G163" t="s">
+      <c r="H163" t="s">
         <v>404</v>
       </c>
-      <c r="H163" t="s">
-        <v>21</v>
-      </c>
       <c r="I163" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J163" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K163" t="s">
+        <v>22</v>
+      </c>
+      <c r="L163" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7618,22 +7618,22 @@
       <c r="E164" t="s">
         <v>12</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>406</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H164" t="s">
         <v>407</v>
       </c>
-      <c r="H164" t="s">
-        <v>21</v>
-      </c>
       <c r="I164" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J164" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K164" t="s">
+        <v>22</v>
+      </c>
+      <c r="L164" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7653,22 +7653,22 @@
       <c r="E165" t="s">
         <v>12</v>
       </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>409</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>410</v>
       </c>
-      <c r="H165" t="s">
-        <v>21</v>
-      </c>
       <c r="I165" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J165" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K165" t="s">
+        <v>22</v>
+      </c>
+      <c r="L165" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7688,22 +7688,22 @@
       <c r="E166" t="s">
         <v>12</v>
       </c>
-      <c r="F166" t="s">
+      <c r="G166" t="s">
         <v>412</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>413</v>
       </c>
-      <c r="H166" t="s">
-        <v>21</v>
-      </c>
       <c r="I166" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J166" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K166" t="s">
+        <v>22</v>
+      </c>
+      <c r="L166" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7723,22 +7723,22 @@
       <c r="E167" t="s">
         <v>12</v>
       </c>
-      <c r="F167" t="s">
+      <c r="G167" t="s">
         <v>415</v>
       </c>
-      <c r="G167" t="s">
+      <c r="H167" t="s">
         <v>416</v>
       </c>
-      <c r="H167" t="s">
-        <v>21</v>
-      </c>
       <c r="I167" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J167" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K167" t="s">
+        <v>22</v>
+      </c>
+      <c r="L167" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7758,22 +7758,22 @@
       <c r="E168" t="s">
         <v>12</v>
       </c>
-      <c r="F168" t="s">
+      <c r="G168" t="s">
         <v>418</v>
       </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>419</v>
       </c>
-      <c r="H168" t="s">
-        <v>21</v>
-      </c>
       <c r="I168" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J168" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K168" t="s">
+        <v>22</v>
+      </c>
+      <c r="L168" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7793,22 +7793,22 @@
       <c r="E169" t="s">
         <v>12</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>421</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
         <v>422</v>
       </c>
-      <c r="H169" t="s">
-        <v>21</v>
-      </c>
       <c r="I169" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J169" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K169" t="s">
+        <v>22</v>
+      </c>
+      <c r="L169" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7828,22 +7828,22 @@
       <c r="E170" t="s">
         <v>12</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>424</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>425</v>
       </c>
-      <c r="H170" t="s">
-        <v>21</v>
-      </c>
       <c r="I170" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J170" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K170" t="s">
+        <v>22</v>
+      </c>
+      <c r="L170" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7863,22 +7863,22 @@
       <c r="E171" t="s">
         <v>12</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>427</v>
       </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>428</v>
       </c>
-      <c r="H171" t="s">
-        <v>21</v>
-      </c>
       <c r="I171" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J171" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K171" t="s">
+        <v>22</v>
+      </c>
+      <c r="L171" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7898,22 +7898,22 @@
       <c r="E172" t="s">
         <v>12</v>
       </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
         <v>430</v>
       </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>431</v>
       </c>
-      <c r="H172" t="s">
-        <v>21</v>
-      </c>
       <c r="I172" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J172" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K172" t="s">
+        <v>22</v>
+      </c>
+      <c r="L172" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       <c r="E173" t="s">
         <v>12</v>
       </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>433</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H173" t="s">
         <v>434</v>
       </c>
-      <c r="H173" t="s">
-        <v>21</v>
-      </c>
       <c r="I173" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J173" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K173" t="s">
+        <v>22</v>
+      </c>
+      <c r="L173" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7968,22 +7968,22 @@
       <c r="E174" t="s">
         <v>12</v>
       </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
         <v>436</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>437</v>
       </c>
-      <c r="H174" t="s">
-        <v>21</v>
-      </c>
       <c r="I174" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J174" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K174" t="s">
+        <v>22</v>
+      </c>
+      <c r="L174" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8003,22 +8003,22 @@
       <c r="E175" t="s">
         <v>12</v>
       </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
         <v>439</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>440</v>
       </c>
-      <c r="H175" t="s">
-        <v>21</v>
-      </c>
       <c r="I175" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J175" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K175" t="s">
+        <v>22</v>
+      </c>
+      <c r="L175" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8038,22 +8038,22 @@
       <c r="E176" t="s">
         <v>12</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>442</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>443</v>
       </c>
-      <c r="H176" t="s">
-        <v>21</v>
-      </c>
       <c r="I176" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J176" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K176" t="s">
+        <v>22</v>
+      </c>
+      <c r="L176" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8073,22 +8073,22 @@
       <c r="E177" t="s">
         <v>12</v>
       </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
         <v>445</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>446</v>
       </c>
-      <c r="H177" t="s">
-        <v>21</v>
-      </c>
       <c r="I177" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J177" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K177" t="s">
+        <v>22</v>
+      </c>
+      <c r="L177" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8108,22 +8108,22 @@
       <c r="E178" t="s">
         <v>12</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
         <v>448</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>449</v>
       </c>
-      <c r="H178" t="s">
-        <v>21</v>
-      </c>
       <c r="I178" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J178" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K178" t="s">
+        <v>22</v>
+      </c>
+      <c r="L178" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8143,22 +8143,22 @@
       <c r="E179" t="s">
         <v>12</v>
       </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
         <v>451</v>
       </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>452</v>
       </c>
-      <c r="H179" t="s">
-        <v>21</v>
-      </c>
       <c r="I179" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J179" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K179" t="s">
+        <v>22</v>
+      </c>
+      <c r="L179" t="s">
         <v>453</v>
       </c>
     </row>
@@ -8178,22 +8178,22 @@
       <c r="E180" t="s">
         <v>12</v>
       </c>
-      <c r="F180" t="s">
+      <c r="G180" t="s">
         <v>454</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>455</v>
       </c>
-      <c r="H180" t="s">
-        <v>21</v>
-      </c>
       <c r="I180" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J180" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L180" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8213,22 +8213,22 @@
       <c r="E181" t="s">
         <v>12</v>
       </c>
-      <c r="F181" t="s">
-        <v>13</v>
-      </c>
       <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
         <v>457</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>15</v>
       </c>
-      <c r="I181" t="s">
+      <c r="J181" t="s">
         <v>166</v>
       </c>
-      <c r="J181" t="s">
-        <v>13</v>
-      </c>
       <c r="K181" t="s">
+        <v>13</v>
+      </c>
+      <c r="L181" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8248,22 +8248,22 @@
       <c r="E182" t="s">
         <v>12</v>
       </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>459</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>460</v>
       </c>
-      <c r="H182" t="s">
-        <v>21</v>
-      </c>
       <c r="I182" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J182" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K182" t="s">
+        <v>22</v>
+      </c>
+      <c r="L182" t="s">
         <v>461</v>
       </c>
     </row>
@@ -8283,22 +8283,22 @@
       <c r="E183" t="s">
         <v>12</v>
       </c>
-      <c r="F183" t="s">
+      <c r="G183" t="s">
         <v>462</v>
       </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>463</v>
       </c>
-      <c r="H183" t="s">
-        <v>21</v>
-      </c>
       <c r="I183" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J183" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K183" t="s">
+        <v>22</v>
+      </c>
+      <c r="L183" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8318,22 +8318,22 @@
       <c r="E184" t="s">
         <v>12</v>
       </c>
-      <c r="F184" t="s">
-        <v>13</v>
-      </c>
       <c r="G184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s">
         <v>465</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>15</v>
       </c>
-      <c r="I184" t="s">
+      <c r="J184" t="s">
         <v>166</v>
       </c>
-      <c r="J184" t="s">
-        <v>13</v>
-      </c>
       <c r="K184" t="s">
+        <v>13</v>
+      </c>
+      <c r="L184" t="s">
         <v>466</v>
       </c>
     </row>
@@ -8353,22 +8353,22 @@
       <c r="E185" t="s">
         <v>12</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>467</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>468</v>
       </c>
-      <c r="H185" t="s">
-        <v>21</v>
-      </c>
       <c r="I185" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J185" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K185" t="s">
+        <v>22</v>
+      </c>
+      <c r="L185" t="s">
         <v>469</v>
       </c>
     </row>
@@ -8388,22 +8388,22 @@
       <c r="E186" t="s">
         <v>12</v>
       </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>470</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>471</v>
       </c>
-      <c r="H186" t="s">
-        <v>21</v>
-      </c>
       <c r="I186" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J186" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K186" t="s">
+        <v>22</v>
+      </c>
+      <c r="L186" t="s">
         <v>472</v>
       </c>
     </row>
@@ -8423,22 +8423,22 @@
       <c r="E187" t="s">
         <v>12</v>
       </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>473</v>
       </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>474</v>
       </c>
-      <c r="H187" t="s">
-        <v>21</v>
-      </c>
       <c r="I187" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J187" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K187" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8458,22 +8458,22 @@
       <c r="E188" t="s">
         <v>12</v>
       </c>
-      <c r="F188" t="s">
-        <v>13</v>
-      </c>
       <c r="G188" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" t="s">
         <v>475</v>
       </c>
-      <c r="H188" t="s">
+      <c r="I188" t="s">
         <v>15</v>
       </c>
-      <c r="I188" t="s">
+      <c r="J188" t="s">
         <v>166</v>
       </c>
-      <c r="J188" t="s">
-        <v>13</v>
-      </c>
       <c r="K188" t="s">
+        <v>13</v>
+      </c>
+      <c r="L188" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8493,22 +8493,22 @@
       <c r="E189" t="s">
         <v>12</v>
       </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>477</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>478</v>
       </c>
-      <c r="H189" t="s">
-        <v>21</v>
-      </c>
       <c r="I189" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J189" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K189" t="s">
+        <v>22</v>
+      </c>
+      <c r="L189" t="s">
         <v>479</v>
       </c>
     </row>
@@ -8528,22 +8528,22 @@
       <c r="E190" t="s">
         <v>12</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>480</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>481</v>
       </c>
-      <c r="H190" t="s">
-        <v>21</v>
-      </c>
       <c r="I190" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J190" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K190" t="s">
+        <v>22</v>
+      </c>
+      <c r="L190" t="s">
         <v>482</v>
       </c>
     </row>
@@ -8563,22 +8563,22 @@
       <c r="E191" t="s">
         <v>12</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>483</v>
       </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>484</v>
       </c>
-      <c r="H191" t="s">
-        <v>21</v>
-      </c>
       <c r="I191" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J191" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K191" t="s">
+        <v>22</v>
+      </c>
+      <c r="L191" t="s">
         <v>485</v>
       </c>
     </row>
@@ -8598,22 +8598,22 @@
       <c r="E192" t="s">
         <v>12</v>
       </c>
-      <c r="F192" t="s">
+      <c r="G192" t="s">
         <v>486</v>
       </c>
-      <c r="G192" t="s">
+      <c r="H192" t="s">
         <v>487</v>
       </c>
-      <c r="H192" t="s">
-        <v>21</v>
-      </c>
       <c r="I192" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J192" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K192" t="s">
+        <v>22</v>
+      </c>
+      <c r="L192" t="s">
         <v>488</v>
       </c>
     </row>
@@ -8633,22 +8633,22 @@
       <c r="E193" t="s">
         <v>12</v>
       </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>489</v>
       </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>490</v>
       </c>
-      <c r="H193" t="s">
-        <v>21</v>
-      </c>
       <c r="I193" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J193" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K193" t="s">
+        <v>22</v>
+      </c>
+      <c r="L193" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8668,22 +8668,22 @@
       <c r="E194" t="s">
         <v>12</v>
       </c>
-      <c r="F194" t="s">
+      <c r="G194" t="s">
         <v>492</v>
       </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>493</v>
       </c>
-      <c r="H194" t="s">
-        <v>21</v>
-      </c>
       <c r="I194" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J194" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K194" t="s">
+        <v>22</v>
+      </c>
+      <c r="L194" t="s">
         <v>494</v>
       </c>
     </row>
@@ -8703,22 +8703,22 @@
       <c r="E195" t="s">
         <v>12</v>
       </c>
-      <c r="F195" t="s">
+      <c r="G195" t="s">
         <v>495</v>
       </c>
-      <c r="G195" t="s">
+      <c r="H195" t="s">
         <v>496</v>
       </c>
-      <c r="H195" t="s">
-        <v>21</v>
-      </c>
       <c r="I195" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J195" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K195" t="s">
+        <v>22</v>
+      </c>
+      <c r="L195" t="s">
         <v>497</v>
       </c>
     </row>
@@ -8738,22 +8738,22 @@
       <c r="E196" t="s">
         <v>12</v>
       </c>
-      <c r="F196" t="s">
+      <c r="G196" t="s">
         <v>498</v>
       </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>499</v>
       </c>
-      <c r="H196" t="s">
-        <v>21</v>
-      </c>
       <c r="I196" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J196" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K196" t="s">
+        <v>22</v>
+      </c>
+      <c r="L196" t="s">
         <v>500</v>
       </c>
     </row>
@@ -8773,22 +8773,22 @@
       <c r="E197" t="s">
         <v>12</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G197" t="s">
         <v>501</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>502</v>
       </c>
-      <c r="H197" t="s">
-        <v>21</v>
-      </c>
       <c r="I197" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J197" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K197" t="s">
+        <v>22</v>
+      </c>
+      <c r="L197" t="s">
         <v>503</v>
       </c>
     </row>
@@ -8808,22 +8808,22 @@
       <c r="E198" t="s">
         <v>12</v>
       </c>
-      <c r="F198" t="s">
+      <c r="G198" t="s">
         <v>504</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>254</v>
       </c>
-      <c r="H198" t="s">
-        <v>21</v>
-      </c>
       <c r="I198" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J198" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K198" t="s">
+        <v>22</v>
+      </c>
+      <c r="L198" t="s">
         <v>505</v>
       </c>
     </row>
@@ -8843,22 +8843,22 @@
       <c r="E199" t="s">
         <v>12</v>
       </c>
-      <c r="F199" t="s">
+      <c r="G199" t="s">
         <v>506</v>
       </c>
-      <c r="G199" t="s">
+      <c r="H199" t="s">
         <v>507</v>
       </c>
-      <c r="H199" t="s">
-        <v>21</v>
-      </c>
       <c r="I199" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J199" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K199" t="s">
+        <v>22</v>
+      </c>
+      <c r="L199" t="s">
         <v>508</v>
       </c>
     </row>
@@ -8878,22 +8878,22 @@
       <c r="E200" t="s">
         <v>12</v>
       </c>
-      <c r="F200" t="s">
+      <c r="G200" t="s">
         <v>509</v>
       </c>
-      <c r="G200" t="s">
+      <c r="H200" t="s">
         <v>510</v>
       </c>
-      <c r="H200" t="s">
-        <v>21</v>
-      </c>
       <c r="I200" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J200" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K200" t="s">
+        <v>22</v>
+      </c>
+      <c r="L200" t="s">
         <v>511</v>
       </c>
     </row>
@@ -8913,22 +8913,22 @@
       <c r="E201" t="s">
         <v>12</v>
       </c>
-      <c r="F201" t="s">
+      <c r="G201" t="s">
         <v>512</v>
       </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>513</v>
       </c>
-      <c r="H201" t="s">
-        <v>21</v>
-      </c>
       <c r="I201" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J201" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K201" t="s">
+        <v>22</v>
+      </c>
+      <c r="L201" t="s">
         <v>514</v>
       </c>
     </row>
@@ -8948,22 +8948,22 @@
       <c r="E202" t="s">
         <v>12</v>
       </c>
-      <c r="F202" t="s">
+      <c r="G202" t="s">
         <v>515</v>
       </c>
-      <c r="G202" t="s">
+      <c r="H202" t="s">
         <v>516</v>
       </c>
-      <c r="H202" t="s">
-        <v>21</v>
-      </c>
       <c r="I202" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J202" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K202" t="s">
+        <v>22</v>
+      </c>
+      <c r="L202" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8983,22 +8983,22 @@
       <c r="E203" t="s">
         <v>12</v>
       </c>
-      <c r="F203" t="s">
+      <c r="G203" t="s">
         <v>518</v>
       </c>
-      <c r="G203" t="s">
+      <c r="H203" t="s">
         <v>519</v>
       </c>
-      <c r="H203" t="s">
-        <v>21</v>
-      </c>
       <c r="I203" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J203" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K203" t="s">
+        <v>22</v>
+      </c>
+      <c r="L203" t="s">
         <v>520</v>
       </c>
     </row>
@@ -9018,22 +9018,22 @@
       <c r="E204" t="s">
         <v>12</v>
       </c>
-      <c r="F204" t="s">
-        <v>13</v>
-      </c>
       <c r="G204" t="s">
+        <v>13</v>
+      </c>
+      <c r="H204" t="s">
         <v>521</v>
       </c>
-      <c r="H204" t="s">
+      <c r="I204" t="s">
         <v>15</v>
       </c>
-      <c r="I204" t="s">
+      <c r="J204" t="s">
         <v>18</v>
       </c>
-      <c r="J204" t="s">
-        <v>13</v>
-      </c>
       <c r="K204" t="s">
+        <v>13</v>
+      </c>
+      <c r="L204" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9053,22 +9053,22 @@
       <c r="E205" t="s">
         <v>12</v>
       </c>
-      <c r="F205" t="s">
-        <v>13</v>
-      </c>
       <c r="G205" t="s">
+        <v>13</v>
+      </c>
+      <c r="H205" t="s">
         <v>522</v>
       </c>
-      <c r="H205" t="s">
+      <c r="I205" t="s">
         <v>15</v>
       </c>
-      <c r="I205" t="s">
+      <c r="J205" t="s">
         <v>166</v>
       </c>
-      <c r="J205" t="s">
-        <v>13</v>
-      </c>
       <c r="K205" t="s">
+        <v>13</v>
+      </c>
+      <c r="L205" t="s">
         <v>523</v>
       </c>
     </row>
@@ -9088,22 +9088,22 @@
       <c r="E206" t="s">
         <v>12</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>524</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H206" t="s">
         <v>525</v>
       </c>
-      <c r="H206" t="s">
-        <v>21</v>
-      </c>
       <c r="I206" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J206" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K206" t="s">
+        <v>22</v>
+      </c>
+      <c r="L206" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9123,22 +9123,22 @@
       <c r="E207" t="s">
         <v>12</v>
       </c>
-      <c r="F207" t="s">
+      <c r="G207" t="s">
         <v>527</v>
       </c>
-      <c r="G207" t="s">
+      <c r="H207" t="s">
         <v>528</v>
       </c>
-      <c r="H207" t="s">
-        <v>21</v>
-      </c>
       <c r="I207" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J207" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K207" t="s">
+        <v>22</v>
+      </c>
+      <c r="L207" t="s">
         <v>529</v>
       </c>
     </row>
@@ -9158,22 +9158,22 @@
       <c r="E208" t="s">
         <v>12</v>
       </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>530</v>
       </c>
-      <c r="G208" t="s">
+      <c r="H208" t="s">
         <v>531</v>
       </c>
-      <c r="H208" t="s">
-        <v>21</v>
-      </c>
       <c r="I208" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J208" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K208" t="s">
+        <v>22</v>
+      </c>
+      <c r="L208" t="s">
         <v>532</v>
       </c>
     </row>
@@ -9193,22 +9193,22 @@
       <c r="E209" t="s">
         <v>12</v>
       </c>
-      <c r="F209" t="s">
+      <c r="G209" t="s">
         <v>533</v>
       </c>
-      <c r="G209" t="s">
+      <c r="H209" t="s">
         <v>534</v>
       </c>
-      <c r="H209" t="s">
-        <v>21</v>
-      </c>
       <c r="I209" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J209" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K209" t="s">
+        <v>22</v>
+      </c>
+      <c r="L209" t="s">
         <v>535</v>
       </c>
     </row>
@@ -9228,22 +9228,22 @@
       <c r="E210" t="s">
         <v>12</v>
       </c>
-      <c r="F210" t="s">
+      <c r="G210" t="s">
         <v>536</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>537</v>
       </c>
-      <c r="H210" t="s">
-        <v>21</v>
-      </c>
       <c r="I210" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J210" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K210" t="s">
+        <v>22</v>
+      </c>
+      <c r="L210" t="s">
         <v>538</v>
       </c>
     </row>
@@ -9263,22 +9263,22 @@
       <c r="E211" t="s">
         <v>12</v>
       </c>
-      <c r="F211" t="s">
+      <c r="G211" t="s">
         <v>539</v>
       </c>
-      <c r="G211" t="s">
+      <c r="H211" t="s">
         <v>540</v>
       </c>
-      <c r="H211" t="s">
-        <v>21</v>
-      </c>
       <c r="I211" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J211" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K211" t="s">
+        <v>22</v>
+      </c>
+      <c r="L211" t="s">
         <v>541</v>
       </c>
     </row>
@@ -9298,22 +9298,22 @@
       <c r="E212" t="s">
         <v>12</v>
       </c>
-      <c r="F212" t="s">
-        <v>13</v>
-      </c>
       <c r="G212" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s">
         <v>542</v>
       </c>
-      <c r="H212" t="s">
+      <c r="I212" t="s">
         <v>15</v>
       </c>
-      <c r="I212" t="s">
+      <c r="J212" t="s">
         <v>18</v>
       </c>
-      <c r="J212" t="s">
-        <v>13</v>
-      </c>
       <c r="K212" t="s">
+        <v>13</v>
+      </c>
+      <c r="L212" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9333,22 +9333,22 @@
       <c r="E213" t="s">
         <v>12</v>
       </c>
-      <c r="F213" t="s">
+      <c r="G213" t="s">
         <v>543</v>
       </c>
-      <c r="G213" t="s">
+      <c r="H213" t="s">
         <v>544</v>
       </c>
-      <c r="H213" t="s">
-        <v>21</v>
-      </c>
       <c r="I213" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J213" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K213" t="s">
+        <v>22</v>
+      </c>
+      <c r="L213" t="s">
         <v>545</v>
       </c>
     </row>
@@ -9368,22 +9368,22 @@
       <c r="E214" t="s">
         <v>12</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>546</v>
       </c>
-      <c r="G214" t="s">
+      <c r="H214" t="s">
         <v>547</v>
       </c>
-      <c r="H214" t="s">
-        <v>21</v>
-      </c>
       <c r="I214" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J214" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K214" t="s">
+        <v>22</v>
+      </c>
+      <c r="L214" t="s">
         <v>548</v>
       </c>
     </row>
@@ -9403,22 +9403,22 @@
       <c r="E215" t="s">
         <v>12</v>
       </c>
-      <c r="F215" t="s">
+      <c r="G215" t="s">
         <v>549</v>
       </c>
-      <c r="G215" t="s">
+      <c r="H215" t="s">
         <v>550</v>
       </c>
-      <c r="H215" t="s">
-        <v>21</v>
-      </c>
       <c r="I215" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J215" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K215" t="s">
+        <v>22</v>
+      </c>
+      <c r="L215" t="s">
         <v>551</v>
       </c>
     </row>
@@ -9438,22 +9438,22 @@
       <c r="E216" t="s">
         <v>12</v>
       </c>
-      <c r="F216" t="s">
-        <v>13</v>
-      </c>
       <c r="G216" t="s">
+        <v>13</v>
+      </c>
+      <c r="H216" t="s">
         <v>552</v>
       </c>
-      <c r="H216" t="s">
+      <c r="I216" t="s">
         <v>15</v>
       </c>
-      <c r="I216" t="s">
+      <c r="J216" t="s">
         <v>18</v>
       </c>
-      <c r="J216" t="s">
-        <v>13</v>
-      </c>
       <c r="K216" t="s">
+        <v>13</v>
+      </c>
+      <c r="L216" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9473,22 +9473,22 @@
       <c r="E217" t="s">
         <v>12</v>
       </c>
-      <c r="F217" t="s">
-        <v>13</v>
-      </c>
       <c r="G217" t="s">
+        <v>13</v>
+      </c>
+      <c r="H217" t="s">
         <v>553</v>
       </c>
-      <c r="H217" t="s">
+      <c r="I217" t="s">
         <v>15</v>
       </c>
-      <c r="I217" t="s">
+      <c r="J217" t="s">
         <v>157</v>
       </c>
-      <c r="J217" t="s">
-        <v>13</v>
-      </c>
       <c r="K217" t="s">
+        <v>13</v>
+      </c>
+      <c r="L217" t="s">
         <v>554</v>
       </c>
     </row>
@@ -9508,22 +9508,22 @@
       <c r="E218" t="s">
         <v>12</v>
       </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
         <v>555</v>
       </c>
-      <c r="G218" t="s">
+      <c r="H218" t="s">
         <v>556</v>
       </c>
-      <c r="H218" t="s">
-        <v>21</v>
-      </c>
       <c r="I218" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J218" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K218" t="s">
+        <v>22</v>
+      </c>
+      <c r="L218" t="s">
         <v>557</v>
       </c>
     </row>
@@ -9543,22 +9543,22 @@
       <c r="E219" t="s">
         <v>12</v>
       </c>
-      <c r="F219" t="s">
+      <c r="G219" t="s">
         <v>558</v>
       </c>
-      <c r="G219" t="s">
+      <c r="H219" t="s">
         <v>367</v>
       </c>
-      <c r="H219" t="s">
-        <v>21</v>
-      </c>
       <c r="I219" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J219" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K219" t="s">
+        <v>22</v>
+      </c>
+      <c r="L219" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9578,22 +9578,22 @@
       <c r="E220" t="s">
         <v>12</v>
       </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>559</v>
       </c>
-      <c r="G220" t="s">
+      <c r="H220" t="s">
         <v>560</v>
       </c>
-      <c r="H220" t="s">
-        <v>21</v>
-      </c>
       <c r="I220" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J220" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K220" t="s">
+        <v>22</v>
+      </c>
+      <c r="L220" t="s">
         <v>554</v>
       </c>
     </row>
@@ -9613,22 +9613,22 @@
       <c r="E221" t="s">
         <v>12</v>
       </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>561</v>
       </c>
-      <c r="G221" t="s">
+      <c r="H221" t="s">
         <v>562</v>
       </c>
-      <c r="H221" t="s">
-        <v>21</v>
-      </c>
       <c r="I221" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J221" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K221" t="s">
+        <v>22</v>
+      </c>
+      <c r="L221" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9648,22 +9648,22 @@
       <c r="E222" t="s">
         <v>12</v>
       </c>
-      <c r="F222" t="s">
+      <c r="G222" t="s">
         <v>564</v>
       </c>
-      <c r="G222" t="s">
+      <c r="H222" t="s">
         <v>565</v>
       </c>
-      <c r="H222" t="s">
-        <v>21</v>
-      </c>
       <c r="I222" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J222" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K222" t="s">
+        <v>22</v>
+      </c>
+      <c r="L222" t="s">
         <v>566</v>
       </c>
     </row>
@@ -9683,22 +9683,22 @@
       <c r="E223" t="s">
         <v>12</v>
       </c>
-      <c r="F223" t="s">
+      <c r="G223" t="s">
         <v>567</v>
       </c>
-      <c r="G223" t="s">
+      <c r="H223" t="s">
         <v>568</v>
       </c>
-      <c r="H223" t="s">
-        <v>21</v>
-      </c>
       <c r="I223" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J223" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K223" t="s">
+        <v>22</v>
+      </c>
+      <c r="L223" t="s">
         <v>569</v>
       </c>
     </row>
@@ -9718,22 +9718,22 @@
       <c r="E224" t="s">
         <v>12</v>
       </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
         <v>570</v>
       </c>
-      <c r="G224" t="s">
+      <c r="H224" t="s">
         <v>571</v>
       </c>
-      <c r="H224" t="s">
-        <v>21</v>
-      </c>
       <c r="I224" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J224" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K224" t="s">
+        <v>22</v>
+      </c>
+      <c r="L224" t="s">
         <v>572</v>
       </c>
     </row>
@@ -9753,22 +9753,22 @@
       <c r="E225" t="s">
         <v>12</v>
       </c>
-      <c r="F225" t="s">
+      <c r="G225" t="s">
         <v>573</v>
       </c>
-      <c r="G225" t="s">
+      <c r="H225" t="s">
         <v>574</v>
       </c>
-      <c r="H225" t="s">
-        <v>21</v>
-      </c>
       <c r="I225" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J225" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K225" t="s">
+        <v>22</v>
+      </c>
+      <c r="L225" t="s">
         <v>575</v>
       </c>
     </row>
@@ -9788,22 +9788,22 @@
       <c r="E226" t="s">
         <v>12</v>
       </c>
-      <c r="F226" t="s">
+      <c r="G226" t="s">
         <v>576</v>
       </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>577</v>
       </c>
-      <c r="H226" t="s">
-        <v>21</v>
-      </c>
       <c r="I226" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J226" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K226" t="s">
+        <v>22</v>
+      </c>
+      <c r="L226" t="s">
         <v>578</v>
       </c>
     </row>
@@ -9823,22 +9823,22 @@
       <c r="E227" t="s">
         <v>12</v>
       </c>
-      <c r="F227" t="s">
-        <v>13</v>
-      </c>
       <c r="G227" t="s">
+        <v>13</v>
+      </c>
+      <c r="H227" t="s">
         <v>579</v>
       </c>
-      <c r="H227" t="s">
+      <c r="I227" t="s">
         <v>15</v>
       </c>
-      <c r="I227" t="s">
+      <c r="J227" t="s">
         <v>18</v>
       </c>
-      <c r="J227" t="s">
-        <v>13</v>
-      </c>
       <c r="K227" t="s">
+        <v>13</v>
+      </c>
+      <c r="L227" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9858,22 +9858,22 @@
       <c r="E228" t="s">
         <v>12</v>
       </c>
-      <c r="F228" t="s">
+      <c r="G228" t="s">
         <v>580</v>
       </c>
-      <c r="G228" t="s">
+      <c r="H228" t="s">
         <v>581</v>
       </c>
-      <c r="H228" t="s">
-        <v>21</v>
-      </c>
       <c r="I228" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J228" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K228" t="s">
+        <v>22</v>
+      </c>
+      <c r="L228" t="s">
         <v>582</v>
       </c>
     </row>
@@ -9893,22 +9893,22 @@
       <c r="E229" t="s">
         <v>12</v>
       </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>583</v>
       </c>
-      <c r="G229" t="s">
+      <c r="H229" t="s">
         <v>584</v>
       </c>
-      <c r="H229" t="s">
-        <v>21</v>
-      </c>
       <c r="I229" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J229" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K229" t="s">
+        <v>22</v>
+      </c>
+      <c r="L229" t="s">
         <v>585</v>
       </c>
     </row>
@@ -9928,22 +9928,22 @@
       <c r="E230" t="s">
         <v>12</v>
       </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>586</v>
       </c>
-      <c r="G230" t="s">
+      <c r="H230" t="s">
         <v>587</v>
       </c>
-      <c r="H230" t="s">
-        <v>21</v>
-      </c>
       <c r="I230" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J230" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K230" t="s">
+        <v>22</v>
+      </c>
+      <c r="L230" t="s">
         <v>588</v>
       </c>
     </row>
@@ -9963,22 +9963,22 @@
       <c r="E231" t="s">
         <v>12</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
         <v>589</v>
       </c>
-      <c r="G231" t="s">
+      <c r="H231" t="s">
         <v>590</v>
       </c>
-      <c r="H231" t="s">
-        <v>21</v>
-      </c>
       <c r="I231" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J231" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K231" t="s">
+        <v>22</v>
+      </c>
+      <c r="L231" t="s">
         <v>591</v>
       </c>
     </row>
@@ -9998,22 +9998,22 @@
       <c r="E232" t="s">
         <v>12</v>
       </c>
-      <c r="F232" t="s">
-        <v>13</v>
-      </c>
       <c r="G232" t="s">
+        <v>13</v>
+      </c>
+      <c r="H232" t="s">
         <v>592</v>
       </c>
-      <c r="H232" t="s">
+      <c r="I232" t="s">
         <v>15</v>
       </c>
-      <c r="I232" t="s">
+      <c r="J232" t="s">
         <v>18</v>
       </c>
-      <c r="J232" t="s">
-        <v>13</v>
-      </c>
       <c r="K232" t="s">
+        <v>13</v>
+      </c>
+      <c r="L232" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10033,22 +10033,22 @@
       <c r="E233" t="s">
         <v>12</v>
       </c>
-      <c r="F233" t="s">
+      <c r="G233" t="s">
         <v>593</v>
       </c>
-      <c r="G233" t="s">
+      <c r="H233" t="s">
         <v>594</v>
       </c>
-      <c r="H233" t="s">
-        <v>21</v>
-      </c>
       <c r="I233" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J233" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K233" t="s">
+        <v>22</v>
+      </c>
+      <c r="L233" t="s">
         <v>595</v>
       </c>
     </row>
@@ -10068,22 +10068,22 @@
       <c r="E234" t="s">
         <v>12</v>
       </c>
-      <c r="F234" t="s">
+      <c r="G234" t="s">
         <v>596</v>
       </c>
-      <c r="G234" t="s">
+      <c r="H234" t="s">
         <v>597</v>
       </c>
-      <c r="H234" t="s">
-        <v>21</v>
-      </c>
       <c r="I234" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J234" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K234" t="s">
+        <v>22</v>
+      </c>
+      <c r="L234" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10103,22 +10103,22 @@
       <c r="E235" t="s">
         <v>12</v>
       </c>
-      <c r="F235" t="s">
-        <v>13</v>
-      </c>
       <c r="G235" t="s">
+        <v>13</v>
+      </c>
+      <c r="H235" t="s">
         <v>599</v>
       </c>
-      <c r="H235" t="s">
+      <c r="I235" t="s">
         <v>15</v>
       </c>
-      <c r="I235" t="s">
+      <c r="J235" t="s">
         <v>18</v>
       </c>
-      <c r="J235" t="s">
-        <v>13</v>
-      </c>
       <c r="K235" t="s">
+        <v>13</v>
+      </c>
+      <c r="L235" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10138,22 +10138,22 @@
       <c r="E236" t="s">
         <v>12</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>600</v>
       </c>
-      <c r="G236" t="s">
+      <c r="H236" t="s">
         <v>601</v>
       </c>
-      <c r="H236" t="s">
-        <v>21</v>
-      </c>
       <c r="I236" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J236" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K236" t="s">
+        <v>22</v>
+      </c>
+      <c r="L236" t="s">
         <v>602</v>
       </c>
     </row>
@@ -10173,22 +10173,22 @@
       <c r="E237" t="s">
         <v>12</v>
       </c>
-      <c r="F237" t="s">
+      <c r="G237" t="s">
         <v>603</v>
       </c>
-      <c r="G237" t="s">
+      <c r="H237" t="s">
         <v>604</v>
       </c>
-      <c r="H237" t="s">
-        <v>21</v>
-      </c>
       <c r="I237" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J237" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K237" t="s">
+        <v>22</v>
+      </c>
+      <c r="L237" t="s">
         <v>602</v>
       </c>
     </row>

--- a/ricorsione/output/ServiceMenu.xlsx
+++ b/ricorsione/output/ServiceMenu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="605">
   <si>
     <t>0</t>
   </si>
@@ -1878,7 +1878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L237"/>
+  <dimension ref="A1:K237"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1890,11 +1890,11 @@
     <col min="4" max="4" width="2.76171875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="2.76171875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.9140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.51953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="41.5078125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.5078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.23046875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.2578125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="12.765625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="23.3046875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="23.3046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.28125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1948,22 +1948,22 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1983,22 +1983,22 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2018,22 +2018,22 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2053,22 +2053,22 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2088,22 +2088,22 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2123,22 +2123,22 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2158,22 +2158,22 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2193,22 +2193,22 @@
       <c r="E9" t="s">
         <v>12</v>
       </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2228,22 +2228,22 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2263,22 +2263,22 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2298,22 +2298,22 @@
       <c r="E12" t="s">
         <v>12</v>
       </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2333,22 +2333,22 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2368,22 +2368,22 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2403,22 +2403,22 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
       <c r="E16" t="s">
         <v>12</v>
       </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2473,22 +2473,22 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2543,22 +2543,22 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2578,22 +2578,22 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2613,22 +2613,22 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2648,22 +2648,22 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2683,22 +2683,22 @@
       <c r="E23" t="s">
         <v>12</v>
       </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2718,22 +2718,22 @@
       <c r="E24" t="s">
         <v>12</v>
       </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
       <c r="G24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2753,22 +2753,22 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2788,22 +2788,22 @@
       <c r="E26" t="s">
         <v>12</v>
       </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2823,22 +2823,22 @@
       <c r="E27" t="s">
         <v>12</v>
       </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2858,22 +2858,22 @@
       <c r="E28" t="s">
         <v>12</v>
       </c>
+      <c r="F28" t="s">
+        <v>94</v>
+      </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2893,22 +2893,22 @@
       <c r="E29" t="s">
         <v>12</v>
       </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2928,22 +2928,22 @@
       <c r="E30" t="s">
         <v>12</v>
       </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2963,22 +2963,22 @@
       <c r="E31" t="s">
         <v>12</v>
       </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
       <c r="G31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H31" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2998,22 +2998,22 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
+      <c r="F32" t="s">
+        <v>106</v>
+      </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3033,22 +3033,22 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3068,22 +3068,22 @@
       <c r="E34" t="s">
         <v>12</v>
       </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3103,22 +3103,22 @@
       <c r="E35" t="s">
         <v>12</v>
       </c>
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
       <c r="G35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3138,22 +3138,22 @@
       <c r="E36" t="s">
         <v>12</v>
       </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3173,22 +3173,22 @@
       <c r="E37" t="s">
         <v>12</v>
       </c>
+      <c r="F37" t="s">
+        <v>119</v>
+      </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H37" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3208,22 +3208,22 @@
       <c r="E38" t="s">
         <v>12</v>
       </c>
+      <c r="F38" t="s">
+        <v>122</v>
+      </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
-      </c>
-      <c r="L38" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3243,22 +3243,22 @@
       <c r="E39" t="s">
         <v>12</v>
       </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
       <c r="G39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L39" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3278,22 +3278,22 @@
       <c r="E40" t="s">
         <v>12</v>
       </c>
+      <c r="F40" t="s">
+        <v>128</v>
+      </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H40" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3313,22 +3313,22 @@
       <c r="E41" t="s">
         <v>12</v>
       </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
       <c r="G41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H41" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K41" t="s">
-        <v>44</v>
-      </c>
-      <c r="L41" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3348,22 +3348,22 @@
       <c r="E42" t="s">
         <v>12</v>
       </c>
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H42" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3383,22 +3383,22 @@
       <c r="E43" t="s">
         <v>12</v>
       </c>
+      <c r="F43" t="s">
+        <v>137</v>
+      </c>
       <c r="G43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H43" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3418,22 +3418,22 @@
       <c r="E44" t="s">
         <v>12</v>
       </c>
+      <c r="F44" t="s">
+        <v>140</v>
+      </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3453,22 +3453,22 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
+      <c r="F45" t="s">
+        <v>143</v>
+      </c>
       <c r="G45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3488,22 +3488,22 @@
       <c r="E46" t="s">
         <v>12</v>
       </c>
+      <c r="F46" t="s">
+        <v>146</v>
+      </c>
       <c r="G46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3523,22 +3523,22 @@
       <c r="E47" t="s">
         <v>12</v>
       </c>
+      <c r="F47" t="s">
+        <v>149</v>
+      </c>
       <c r="G47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3558,22 +3558,22 @@
       <c r="E48" t="s">
         <v>12</v>
       </c>
+      <c r="F48" t="s">
+        <v>152</v>
+      </c>
       <c r="G48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H48" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K48" t="s">
-        <v>44</v>
-      </c>
-      <c r="L48" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3593,22 +3593,22 @@
       <c r="E49" t="s">
         <v>12</v>
       </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K49" t="s">
-        <v>13</v>
-      </c>
-      <c r="L49" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3628,22 +3628,22 @@
       <c r="E50" t="s">
         <v>12</v>
       </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="H50" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K50" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3663,22 +3663,22 @@
       <c r="E51" t="s">
         <v>12</v>
       </c>
+      <c r="F51" t="s">
+        <v>159</v>
+      </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
-      </c>
-      <c r="L51" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3698,22 +3698,22 @@
       <c r="E52" t="s">
         <v>12</v>
       </c>
+      <c r="F52" t="s">
+        <v>160</v>
+      </c>
       <c r="G52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H52" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
-      </c>
-      <c r="L52" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3733,22 +3733,22 @@
       <c r="E53" t="s">
         <v>12</v>
       </c>
+      <c r="F53" t="s">
+        <v>162</v>
+      </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H53" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
-      </c>
-      <c r="L53" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3768,22 +3768,22 @@
       <c r="E54" t="s">
         <v>12</v>
       </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="H54" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K54" t="s">
-        <v>13</v>
-      </c>
-      <c r="L54" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3803,22 +3803,22 @@
       <c r="E55" t="s">
         <v>12</v>
       </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="H55" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J55" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K55" t="s">
-        <v>13</v>
-      </c>
-      <c r="L55" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3838,22 +3838,22 @@
       <c r="E56" t="s">
         <v>12</v>
       </c>
+      <c r="F56" t="s">
+        <v>168</v>
+      </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H56" t="s">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J56" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K56" t="s">
-        <v>44</v>
-      </c>
-      <c r="L56" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3873,22 +3873,22 @@
       <c r="E57" t="s">
         <v>12</v>
       </c>
+      <c r="F57" t="s">
+        <v>171</v>
+      </c>
       <c r="G57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H57" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K57" t="s">
-        <v>44</v>
-      </c>
-      <c r="L57" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3908,22 +3908,22 @@
       <c r="E58" t="s">
         <v>12</v>
       </c>
+      <c r="F58" t="s">
+        <v>174</v>
+      </c>
       <c r="G58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H58" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K58" t="s">
-        <v>44</v>
-      </c>
-      <c r="L58" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       <c r="E59" t="s">
         <v>12</v>
       </c>
+      <c r="F59" t="s">
+        <v>177</v>
+      </c>
       <c r="G59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H59" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K59" t="s">
-        <v>44</v>
-      </c>
-      <c r="L59" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3978,22 +3978,22 @@
       <c r="E60" t="s">
         <v>12</v>
       </c>
+      <c r="F60" t="s">
+        <v>180</v>
+      </c>
       <c r="G60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H60" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K60" t="s">
-        <v>44</v>
-      </c>
-      <c r="L60" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4013,22 +4013,22 @@
       <c r="E61" t="s">
         <v>12</v>
       </c>
+      <c r="F61" t="s">
+        <v>183</v>
+      </c>
       <c r="G61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H61" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K61" t="s">
-        <v>44</v>
-      </c>
-      <c r="L61" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4048,22 +4048,22 @@
       <c r="E62" t="s">
         <v>12</v>
       </c>
+      <c r="F62" t="s">
+        <v>186</v>
+      </c>
       <c r="G62" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H62" t="s">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K62" t="s">
-        <v>44</v>
-      </c>
-      <c r="L62" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4083,22 +4083,22 @@
       <c r="E63" t="s">
         <v>12</v>
       </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="H63" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J63" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K63" t="s">
-        <v>13</v>
-      </c>
-      <c r="L63" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4118,22 +4118,22 @@
       <c r="E64" t="s">
         <v>12</v>
       </c>
+      <c r="F64" t="s">
+        <v>191</v>
+      </c>
       <c r="G64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H64" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L64" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4153,22 +4153,22 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
+      <c r="F65" t="s">
+        <v>194</v>
+      </c>
       <c r="G65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H65" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K65" t="s">
-        <v>44</v>
-      </c>
-      <c r="L65" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4188,22 +4188,22 @@
       <c r="E66" t="s">
         <v>12</v>
       </c>
+      <c r="F66" t="s">
+        <v>197</v>
+      </c>
       <c r="G66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H66" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K66" t="s">
-        <v>44</v>
-      </c>
-      <c r="L66" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4223,22 +4223,22 @@
       <c r="E67" t="s">
         <v>12</v>
       </c>
+      <c r="F67" t="s">
+        <v>200</v>
+      </c>
       <c r="G67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H67" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J67" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K67" t="s">
-        <v>44</v>
-      </c>
-      <c r="L67" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4258,22 +4258,22 @@
       <c r="E68" t="s">
         <v>12</v>
       </c>
+      <c r="F68" t="s">
+        <v>203</v>
+      </c>
       <c r="G68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H68" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="I68" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J68" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K68" t="s">
-        <v>44</v>
-      </c>
-      <c r="L68" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4293,22 +4293,22 @@
       <c r="E69" t="s">
         <v>12</v>
       </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="H69" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J69" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K69" t="s">
-        <v>13</v>
-      </c>
-      <c r="L69" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4328,22 +4328,22 @@
       <c r="E70" t="s">
         <v>12</v>
       </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="H70" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J70" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K70" t="s">
-        <v>13</v>
-      </c>
-      <c r="L70" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4363,22 +4363,22 @@
       <c r="E71" t="s">
         <v>11</v>
       </c>
+      <c r="F71" t="s">
+        <v>210</v>
+      </c>
       <c r="G71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H71" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I71" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J71" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K71" t="s">
-        <v>44</v>
-      </c>
-      <c r="L71" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4398,22 +4398,22 @@
       <c r="E72" t="s">
         <v>11</v>
       </c>
+      <c r="F72" t="s">
+        <v>210</v>
+      </c>
       <c r="G72" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J72" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="K72" t="s">
-        <v>212</v>
-      </c>
-      <c r="L72" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4433,22 +4433,22 @@
       <c r="E73" t="s">
         <v>12</v>
       </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="H73" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J73" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K73" t="s">
-        <v>13</v>
-      </c>
-      <c r="L73" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4468,22 +4468,22 @@
       <c r="E74" t="s">
         <v>11</v>
       </c>
+      <c r="F74" t="s">
+        <v>215</v>
+      </c>
       <c r="G74" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H74" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J74" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K74" t="s">
-        <v>44</v>
-      </c>
-      <c r="L74" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4503,22 +4503,22 @@
       <c r="E75" t="s">
         <v>11</v>
       </c>
+      <c r="F75" t="s">
+        <v>215</v>
+      </c>
       <c r="G75" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I75" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="K75" t="s">
-        <v>212</v>
-      </c>
-      <c r="L75" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4538,22 +4538,22 @@
       <c r="E76" t="s">
         <v>12</v>
       </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="H76" t="s">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J76" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K76" t="s">
-        <v>13</v>
-      </c>
-      <c r="L76" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4573,22 +4573,22 @@
       <c r="E77" t="s">
         <v>11</v>
       </c>
+      <c r="F77" t="s">
+        <v>218</v>
+      </c>
       <c r="G77" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H77" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K77" t="s">
-        <v>44</v>
-      </c>
-      <c r="L77" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4608,22 +4608,22 @@
       <c r="E78" t="s">
         <v>11</v>
       </c>
+      <c r="F78" t="s">
+        <v>218</v>
+      </c>
       <c r="G78" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="H78" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="K78" t="s">
-        <v>212</v>
-      </c>
-      <c r="L78" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4643,22 +4643,22 @@
       <c r="E79" t="s">
         <v>12</v>
       </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="H79" t="s">
-        <v>219</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J79" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K79" t="s">
-        <v>13</v>
-      </c>
-      <c r="L79" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4678,22 +4678,22 @@
       <c r="E80" t="s">
         <v>11</v>
       </c>
+      <c r="F80" t="s">
+        <v>221</v>
+      </c>
       <c r="G80" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H80" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J80" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K80" t="s">
-        <v>44</v>
-      </c>
-      <c r="L80" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       <c r="E81" t="s">
         <v>11</v>
       </c>
+      <c r="F81" t="s">
+        <v>221</v>
+      </c>
       <c r="G81" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="H81" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J81" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="K81" t="s">
-        <v>212</v>
-      </c>
-      <c r="L81" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4748,22 +4748,22 @@
       <c r="E82" t="s">
         <v>12</v>
       </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="H82" t="s">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J82" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K82" t="s">
-        <v>13</v>
-      </c>
-      <c r="L82" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4783,22 +4783,22 @@
       <c r="E83" t="s">
         <v>11</v>
       </c>
+      <c r="F83" t="s">
+        <v>224</v>
+      </c>
       <c r="G83" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H83" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J83" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K83" t="s">
-        <v>44</v>
-      </c>
-      <c r="L83" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4818,22 +4818,22 @@
       <c r="E84" t="s">
         <v>11</v>
       </c>
+      <c r="F84" t="s">
+        <v>224</v>
+      </c>
       <c r="G84" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="H84" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I84" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J84" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="K84" t="s">
-        <v>212</v>
-      </c>
-      <c r="L84" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4853,22 +4853,22 @@
       <c r="E85" t="s">
         <v>12</v>
       </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="H85" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J85" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K85" t="s">
-        <v>13</v>
-      </c>
-      <c r="L85" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4888,22 +4888,22 @@
       <c r="E86" t="s">
         <v>12</v>
       </c>
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="H86" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J86" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K86" t="s">
-        <v>13</v>
-      </c>
-      <c r="L86" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4923,22 +4923,22 @@
       <c r="E87" t="s">
         <v>11</v>
       </c>
+      <c r="F87" t="s">
+        <v>229</v>
+      </c>
       <c r="G87" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="H87" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J87" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="K87" t="s">
-        <v>230</v>
-      </c>
-      <c r="L87" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4958,22 +4958,22 @@
       <c r="E88" t="s">
         <v>11</v>
       </c>
+      <c r="F88" t="s">
+        <v>229</v>
+      </c>
       <c r="G88" t="s">
-        <v>229</v>
+        <v>49</v>
       </c>
       <c r="H88" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I88" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="K88" t="s">
-        <v>231</v>
-      </c>
-      <c r="L88" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4993,22 +4993,22 @@
       <c r="E89" t="s">
         <v>12</v>
       </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="H89" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J89" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K89" t="s">
-        <v>13</v>
-      </c>
-      <c r="L89" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5028,22 +5028,22 @@
       <c r="E90" t="s">
         <v>11</v>
       </c>
+      <c r="F90" t="s">
+        <v>234</v>
+      </c>
       <c r="G90" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="H90" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I90" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="K90" t="s">
-        <v>230</v>
-      </c>
-      <c r="L90" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5063,22 +5063,22 @@
       <c r="E91" t="s">
         <v>11</v>
       </c>
+      <c r="F91" t="s">
+        <v>234</v>
+      </c>
       <c r="G91" t="s">
-        <v>234</v>
+        <v>49</v>
       </c>
       <c r="H91" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="K91" t="s">
-        <v>231</v>
-      </c>
-      <c r="L91" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5098,22 +5098,22 @@
       <c r="E92" t="s">
         <v>12</v>
       </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="H92" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J92" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K92" t="s">
-        <v>13</v>
-      </c>
-      <c r="L92" t="s">
         <v>236</v>
       </c>
     </row>
@@ -5133,22 +5133,22 @@
       <c r="E93" t="s">
         <v>11</v>
       </c>
+      <c r="F93" t="s">
+        <v>237</v>
+      </c>
       <c r="G93" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="H93" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I93" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J93" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="K93" t="s">
-        <v>230</v>
-      </c>
-      <c r="L93" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5168,22 +5168,22 @@
       <c r="E94" t="s">
         <v>11</v>
       </c>
+      <c r="F94" t="s">
+        <v>237</v>
+      </c>
       <c r="G94" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="H94" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J94" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="K94" t="s">
-        <v>231</v>
-      </c>
-      <c r="L94" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5203,22 +5203,22 @@
       <c r="E95" t="s">
         <v>12</v>
       </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="H95" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J95" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K95" t="s">
-        <v>13</v>
-      </c>
-      <c r="L95" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5238,22 +5238,22 @@
       <c r="E96" t="s">
         <v>11</v>
       </c>
+      <c r="F96" t="s">
+        <v>240</v>
+      </c>
       <c r="G96" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="H96" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I96" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J96" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="K96" t="s">
-        <v>230</v>
-      </c>
-      <c r="L96" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5273,22 +5273,22 @@
       <c r="E97" t="s">
         <v>11</v>
       </c>
+      <c r="F97" t="s">
+        <v>240</v>
+      </c>
       <c r="G97" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="H97" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="K97" t="s">
-        <v>231</v>
-      </c>
-      <c r="L97" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5308,22 +5308,22 @@
       <c r="E98" t="s">
         <v>12</v>
       </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="H98" t="s">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J98" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K98" t="s">
-        <v>13</v>
-      </c>
-      <c r="L98" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5343,22 +5343,22 @@
       <c r="E99" t="s">
         <v>11</v>
       </c>
+      <c r="F99" t="s">
+        <v>243</v>
+      </c>
       <c r="G99" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="H99" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I99" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J99" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="K99" t="s">
-        <v>230</v>
-      </c>
-      <c r="L99" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5378,22 +5378,22 @@
       <c r="E100" t="s">
         <v>11</v>
       </c>
+      <c r="F100" t="s">
+        <v>243</v>
+      </c>
       <c r="G100" t="s">
-        <v>243</v>
+        <v>49</v>
       </c>
       <c r="H100" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I100" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J100" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="K100" t="s">
-        <v>231</v>
-      </c>
-      <c r="L100" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5413,22 +5413,22 @@
       <c r="E101" t="s">
         <v>12</v>
       </c>
+      <c r="F101" t="s">
+        <v>244</v>
+      </c>
       <c r="G101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H101" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="I101" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J101" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>22</v>
-      </c>
-      <c r="L101" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5448,22 +5448,22 @@
       <c r="E102" t="s">
         <v>12</v>
       </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="H102" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J102" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K102" t="s">
-        <v>13</v>
-      </c>
-      <c r="L102" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5483,22 +5483,22 @@
       <c r="E103" t="s">
         <v>12</v>
       </c>
+      <c r="F103" t="s">
+        <v>249</v>
+      </c>
       <c r="G103" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="H103" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I103" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J103" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K103" t="s">
-        <v>44</v>
-      </c>
-      <c r="L103" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5518,22 +5518,22 @@
       <c r="E104" t="s">
         <v>12</v>
       </c>
+      <c r="F104" t="s">
+        <v>249</v>
+      </c>
       <c r="G104" t="s">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="H104" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I104" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J104" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="K104" t="s">
-        <v>212</v>
-      </c>
-      <c r="L104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5553,22 +5553,22 @@
       <c r="E105" t="s">
         <v>12</v>
       </c>
+      <c r="F105" t="s">
+        <v>250</v>
+      </c>
       <c r="G105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H105" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="I105" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J105" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K105" t="s">
-        <v>44</v>
-      </c>
-      <c r="L105" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5588,22 +5588,22 @@
       <c r="E106" t="s">
         <v>12</v>
       </c>
+      <c r="F106" t="s">
+        <v>253</v>
+      </c>
       <c r="G106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H106" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="I106" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J106" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K106" t="s">
-        <v>44</v>
-      </c>
-      <c r="L106" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5623,22 +5623,22 @@
       <c r="E107" t="s">
         <v>12</v>
       </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="H107" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J107" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K107" t="s">
-        <v>13</v>
-      </c>
-      <c r="L107" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       <c r="E108" t="s">
         <v>12</v>
       </c>
+      <c r="F108" t="s">
+        <v>257</v>
+      </c>
       <c r="G108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H108" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="I108" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J108" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K108" t="s">
-        <v>44</v>
-      </c>
-      <c r="L108" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5693,22 +5693,22 @@
       <c r="E109" t="s">
         <v>12</v>
       </c>
+      <c r="F109" t="s">
+        <v>260</v>
+      </c>
       <c r="G109" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H109" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="I109" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J109" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K109" t="s">
-        <v>44</v>
-      </c>
-      <c r="L109" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5728,22 +5728,22 @@
       <c r="E110" t="s">
         <v>12</v>
       </c>
+      <c r="F110" t="s">
+        <v>263</v>
+      </c>
       <c r="G110" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H110" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="I110" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J110" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K110" t="s">
-        <v>44</v>
-      </c>
-      <c r="L110" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5763,22 +5763,22 @@
       <c r="E111" t="s">
         <v>12</v>
       </c>
+      <c r="F111" t="s">
+        <v>266</v>
+      </c>
       <c r="G111" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H111" t="s">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="I111" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J111" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K111" t="s">
-        <v>44</v>
-      </c>
-      <c r="L111" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5798,22 +5798,22 @@
       <c r="E112" t="s">
         <v>12</v>
       </c>
+      <c r="F112" t="s">
+        <v>269</v>
+      </c>
       <c r="G112" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H112" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="I112" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J112" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K112" t="s">
-        <v>44</v>
-      </c>
-      <c r="L112" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5833,22 +5833,22 @@
       <c r="E113" t="s">
         <v>12</v>
       </c>
+      <c r="F113" t="s">
+        <v>272</v>
+      </c>
       <c r="G113" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H113" t="s">
-        <v>273</v>
+        <v>21</v>
       </c>
       <c r="I113" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J113" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K113" t="s">
-        <v>44</v>
-      </c>
-      <c r="L113" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5868,22 +5868,22 @@
       <c r="E114" t="s">
         <v>12</v>
       </c>
+      <c r="F114" t="s">
+        <v>275</v>
+      </c>
       <c r="G114" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H114" t="s">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="I114" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J114" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K114" t="s">
-        <v>44</v>
-      </c>
-      <c r="L114" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5903,22 +5903,22 @@
       <c r="E115" t="s">
         <v>12</v>
       </c>
+      <c r="F115" t="s">
+        <v>278</v>
+      </c>
       <c r="G115" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H115" t="s">
-        <v>279</v>
+        <v>21</v>
       </c>
       <c r="I115" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J115" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K115" t="s">
-        <v>44</v>
-      </c>
-      <c r="L115" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5938,22 +5938,22 @@
       <c r="E116" t="s">
         <v>12</v>
       </c>
+      <c r="F116" t="s">
+        <v>281</v>
+      </c>
       <c r="G116" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H116" t="s">
-        <v>282</v>
+        <v>21</v>
       </c>
       <c r="I116" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J116" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K116" t="s">
-        <v>44</v>
-      </c>
-      <c r="L116" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5973,22 +5973,22 @@
       <c r="E117" t="s">
         <v>12</v>
       </c>
+      <c r="F117" t="s">
+        <v>284</v>
+      </c>
       <c r="G117" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H117" t="s">
-        <v>285</v>
+        <v>21</v>
       </c>
       <c r="I117" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J117" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K117" t="s">
-        <v>44</v>
-      </c>
-      <c r="L117" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6008,22 +6008,22 @@
       <c r="E118" t="s">
         <v>12</v>
       </c>
+      <c r="F118" t="s">
+        <v>287</v>
+      </c>
       <c r="G118" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H118" t="s">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J118" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K118" t="s">
-        <v>44</v>
-      </c>
-      <c r="L118" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6043,22 +6043,22 @@
       <c r="E119" t="s">
         <v>12</v>
       </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="H119" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J119" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K119" t="s">
-        <v>13</v>
-      </c>
-      <c r="L119" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6078,22 +6078,22 @@
       <c r="E120" t="s">
         <v>12</v>
       </c>
+      <c r="F120" t="s">
+        <v>291</v>
+      </c>
       <c r="G120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H120" t="s">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="I120" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J120" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K120" t="s">
-        <v>44</v>
-      </c>
-      <c r="L120" t="s">
         <v>293</v>
       </c>
     </row>
@@ -6113,22 +6113,22 @@
       <c r="E121" t="s">
         <v>12</v>
       </c>
+      <c r="F121" t="s">
+        <v>294</v>
+      </c>
       <c r="G121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H121" t="s">
-        <v>295</v>
+        <v>21</v>
       </c>
       <c r="I121" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J121" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K121" t="s">
-        <v>44</v>
-      </c>
-      <c r="L121" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6148,22 +6148,22 @@
       <c r="E122" t="s">
         <v>12</v>
       </c>
+      <c r="F122" t="s">
+        <v>297</v>
+      </c>
       <c r="G122" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H122" t="s">
-        <v>298</v>
+        <v>21</v>
       </c>
       <c r="I122" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J122" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K122" t="s">
-        <v>44</v>
-      </c>
-      <c r="L122" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6183,22 +6183,22 @@
       <c r="E123" t="s">
         <v>12</v>
       </c>
+      <c r="F123" t="s">
+        <v>300</v>
+      </c>
       <c r="G123" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H123" t="s">
-        <v>301</v>
+        <v>21</v>
       </c>
       <c r="I123" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J123" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K123" t="s">
-        <v>44</v>
-      </c>
-      <c r="L123" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6218,22 +6218,22 @@
       <c r="E124" t="s">
         <v>12</v>
       </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
       <c r="H124" t="s">
-        <v>303</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J124" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K124" t="s">
-        <v>13</v>
-      </c>
-      <c r="L124" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6253,22 +6253,22 @@
       <c r="E125" t="s">
         <v>12</v>
       </c>
+      <c r="F125" t="s">
+        <v>304</v>
+      </c>
       <c r="G125" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H125" t="s">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c r="I125" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J125" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K125" t="s">
-        <v>44</v>
-      </c>
-      <c r="L125" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6288,22 +6288,22 @@
       <c r="E126" t="s">
         <v>12</v>
       </c>
+      <c r="F126" t="s">
+        <v>307</v>
+      </c>
       <c r="G126" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H126" t="s">
-        <v>308</v>
+        <v>21</v>
       </c>
       <c r="I126" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J126" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K126" t="s">
-        <v>44</v>
-      </c>
-      <c r="L126" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6323,22 +6323,22 @@
       <c r="E127" t="s">
         <v>12</v>
       </c>
+      <c r="F127" t="s">
+        <v>310</v>
+      </c>
       <c r="G127" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H127" t="s">
-        <v>311</v>
+        <v>21</v>
       </c>
       <c r="I127" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J127" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="K127" t="s">
-        <v>44</v>
-      </c>
-      <c r="L127" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6358,22 +6358,22 @@
       <c r="E128" t="s">
         <v>12</v>
       </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>313</v>
       </c>
       <c r="H128" t="s">
-        <v>313</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J128" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K128" t="s">
-        <v>13</v>
-      </c>
-      <c r="L128" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6393,22 +6393,22 @@
       <c r="E129" t="s">
         <v>12</v>
       </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
       <c r="H129" t="s">
-        <v>314</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K129" t="s">
-        <v>13</v>
-      </c>
-      <c r="L129" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6428,22 +6428,22 @@
       <c r="E130" t="s">
         <v>12</v>
       </c>
+      <c r="F130" t="s">
+        <v>315</v>
+      </c>
       <c r="G130" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H130" t="s">
-        <v>316</v>
+        <v>21</v>
       </c>
       <c r="I130" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J130" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K130" t="s">
-        <v>22</v>
-      </c>
-      <c r="L130" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6463,22 +6463,22 @@
       <c r="E131" t="s">
         <v>12</v>
       </c>
+      <c r="F131" t="s">
+        <v>318</v>
+      </c>
       <c r="G131" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H131" t="s">
-        <v>319</v>
+        <v>21</v>
       </c>
       <c r="I131" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J131" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K131" t="s">
-        <v>22</v>
-      </c>
-      <c r="L131" t="s">
         <v>320</v>
       </c>
     </row>
@@ -6498,22 +6498,22 @@
       <c r="E132" t="s">
         <v>12</v>
       </c>
+      <c r="F132" t="s">
+        <v>321</v>
+      </c>
       <c r="G132" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H132" t="s">
-        <v>322</v>
+        <v>21</v>
       </c>
       <c r="I132" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J132" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K132" t="s">
-        <v>22</v>
-      </c>
-      <c r="L132" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6533,22 +6533,22 @@
       <c r="E133" t="s">
         <v>12</v>
       </c>
+      <c r="F133" t="s">
+        <v>324</v>
+      </c>
       <c r="G133" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H133" t="s">
-        <v>325</v>
+        <v>21</v>
       </c>
       <c r="I133" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J133" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K133" t="s">
-        <v>22</v>
-      </c>
-      <c r="L133" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6568,22 +6568,22 @@
       <c r="E134" t="s">
         <v>12</v>
       </c>
+      <c r="F134" t="s">
+        <v>327</v>
+      </c>
       <c r="G134" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H134" t="s">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c r="I134" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J134" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K134" t="s">
-        <v>22</v>
-      </c>
-      <c r="L134" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6603,22 +6603,22 @@
       <c r="E135" t="s">
         <v>12</v>
       </c>
+      <c r="F135" t="s">
+        <v>330</v>
+      </c>
       <c r="G135" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H135" t="s">
-        <v>331</v>
+        <v>21</v>
       </c>
       <c r="I135" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J135" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K135" t="s">
-        <v>22</v>
-      </c>
-      <c r="L135" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6638,22 +6638,22 @@
       <c r="E136" t="s">
         <v>12</v>
       </c>
+      <c r="F136" t="s">
+        <v>333</v>
+      </c>
       <c r="G136" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H136" t="s">
-        <v>334</v>
+        <v>21</v>
       </c>
       <c r="I136" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J136" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K136" t="s">
-        <v>22</v>
-      </c>
-      <c r="L136" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6673,22 +6673,22 @@
       <c r="E137" t="s">
         <v>12</v>
       </c>
+      <c r="F137" t="s">
+        <v>336</v>
+      </c>
       <c r="G137" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H137" t="s">
-        <v>337</v>
+        <v>21</v>
       </c>
       <c r="I137" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J137" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K137" t="s">
-        <v>22</v>
-      </c>
-      <c r="L137" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6708,22 +6708,22 @@
       <c r="E138" t="s">
         <v>12</v>
       </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="H138" t="s">
-        <v>339</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J138" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K138" t="s">
-        <v>13</v>
-      </c>
-      <c r="L138" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6743,22 +6743,22 @@
       <c r="E139" t="s">
         <v>12</v>
       </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="H139" t="s">
-        <v>340</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J139" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K139" t="s">
-        <v>13</v>
-      </c>
-      <c r="L139" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6778,22 +6778,22 @@
       <c r="E140" t="s">
         <v>12</v>
       </c>
+      <c r="F140" t="s">
+        <v>342</v>
+      </c>
       <c r="G140" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H140" t="s">
-        <v>343</v>
+        <v>21</v>
       </c>
       <c r="I140" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J140" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K140" t="s">
-        <v>22</v>
-      </c>
-      <c r="L140" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6813,22 +6813,22 @@
       <c r="E141" t="s">
         <v>12</v>
       </c>
+      <c r="F141" t="s">
+        <v>345</v>
+      </c>
       <c r="G141" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H141" t="s">
-        <v>346</v>
+        <v>21</v>
       </c>
       <c r="I141" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J141" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K141" t="s">
-        <v>22</v>
-      </c>
-      <c r="L141" t="s">
         <v>347</v>
       </c>
     </row>
@@ -6848,22 +6848,22 @@
       <c r="E142" t="s">
         <v>12</v>
       </c>
+      <c r="F142" t="s">
+        <v>348</v>
+      </c>
       <c r="G142" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H142" t="s">
-        <v>349</v>
+        <v>21</v>
       </c>
       <c r="I142" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J142" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K142" t="s">
-        <v>22</v>
-      </c>
-      <c r="L142" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6883,22 +6883,22 @@
       <c r="E143" t="s">
         <v>12</v>
       </c>
+      <c r="F143" t="s">
+        <v>351</v>
+      </c>
       <c r="G143" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H143" t="s">
-        <v>352</v>
+        <v>21</v>
       </c>
       <c r="I143" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J143" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K143" t="s">
-        <v>22</v>
-      </c>
-      <c r="L143" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6918,22 +6918,22 @@
       <c r="E144" t="s">
         <v>12</v>
       </c>
+      <c r="F144" t="s">
+        <v>354</v>
+      </c>
       <c r="G144" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H144" t="s">
-        <v>355</v>
+        <v>21</v>
       </c>
       <c r="I144" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J144" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K144" t="s">
-        <v>22</v>
-      </c>
-      <c r="L144" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6953,22 +6953,22 @@
       <c r="E145" t="s">
         <v>12</v>
       </c>
+      <c r="F145" t="s">
+        <v>357</v>
+      </c>
       <c r="G145" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H145" t="s">
-        <v>358</v>
+        <v>21</v>
       </c>
       <c r="I145" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J145" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K145" t="s">
-        <v>22</v>
-      </c>
-      <c r="L145" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6988,22 +6988,22 @@
       <c r="E146" t="s">
         <v>12</v>
       </c>
+      <c r="F146" t="s">
+        <v>360</v>
+      </c>
       <c r="G146" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H146" t="s">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c r="I146" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J146" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K146" t="s">
-        <v>22</v>
-      </c>
-      <c r="L146" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7023,22 +7023,22 @@
       <c r="E147" t="s">
         <v>12</v>
       </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>363</v>
       </c>
       <c r="H147" t="s">
-        <v>363</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J147" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K147" t="s">
-        <v>13</v>
-      </c>
-      <c r="L147" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7058,22 +7058,22 @@
       <c r="E148" t="s">
         <v>12</v>
       </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>365</v>
       </c>
       <c r="H148" t="s">
-        <v>365</v>
+        <v>50</v>
       </c>
       <c r="I148" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J148" t="s">
         <v>13</v>
       </c>
       <c r="K148" t="s">
-        <v>13</v>
-      </c>
-      <c r="L148" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7093,22 +7093,22 @@
       <c r="E149" t="s">
         <v>12</v>
       </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="H149" t="s">
-        <v>367</v>
+        <v>50</v>
       </c>
       <c r="I149" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="J149" t="s">
         <v>13</v>
       </c>
       <c r="K149" t="s">
-        <v>13</v>
-      </c>
-      <c r="L149" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7128,22 +7128,22 @@
       <c r="E150" t="s">
         <v>12</v>
       </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>368</v>
       </c>
       <c r="H150" t="s">
-        <v>368</v>
+        <v>15</v>
       </c>
       <c r="I150" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J150" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K150" t="s">
-        <v>13</v>
-      </c>
-      <c r="L150" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7163,22 +7163,22 @@
       <c r="E151" t="s">
         <v>12</v>
       </c>
+      <c r="F151" t="s">
+        <v>370</v>
+      </c>
       <c r="G151" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H151" t="s">
-        <v>371</v>
+        <v>21</v>
       </c>
       <c r="I151" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J151" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K151" t="s">
-        <v>22</v>
-      </c>
-      <c r="L151" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7198,22 +7198,22 @@
       <c r="E152" t="s">
         <v>12</v>
       </c>
+      <c r="F152" t="s">
+        <v>373</v>
+      </c>
       <c r="G152" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H152" t="s">
-        <v>374</v>
+        <v>21</v>
       </c>
       <c r="I152" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J152" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K152" t="s">
-        <v>22</v>
-      </c>
-      <c r="L152" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7233,22 +7233,22 @@
       <c r="E153" t="s">
         <v>12</v>
       </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>376</v>
       </c>
       <c r="H153" t="s">
-        <v>376</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J153" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K153" t="s">
-        <v>13</v>
-      </c>
-      <c r="L153" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7268,22 +7268,22 @@
       <c r="E154" t="s">
         <v>12</v>
       </c>
+      <c r="F154" t="s">
+        <v>378</v>
+      </c>
       <c r="G154" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H154" t="s">
-        <v>379</v>
+        <v>21</v>
       </c>
       <c r="I154" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J154" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K154" t="s">
-        <v>22</v>
-      </c>
-      <c r="L154" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7303,22 +7303,22 @@
       <c r="E155" t="s">
         <v>12</v>
       </c>
+      <c r="F155" t="s">
+        <v>381</v>
+      </c>
       <c r="G155" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H155" t="s">
-        <v>382</v>
+        <v>21</v>
       </c>
       <c r="I155" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J155" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K155" t="s">
-        <v>22</v>
-      </c>
-      <c r="L155" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7338,22 +7338,22 @@
       <c r="E156" t="s">
         <v>12</v>
       </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>384</v>
       </c>
       <c r="H156" t="s">
-        <v>384</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J156" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K156" t="s">
-        <v>13</v>
-      </c>
-      <c r="L156" t="s">
         <v>385</v>
       </c>
     </row>
@@ -7373,22 +7373,22 @@
       <c r="E157" t="s">
         <v>12</v>
       </c>
+      <c r="F157" t="s">
+        <v>386</v>
+      </c>
       <c r="G157" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H157" t="s">
-        <v>387</v>
+        <v>21</v>
       </c>
       <c r="I157" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J157" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K157" t="s">
-        <v>22</v>
-      </c>
-      <c r="L157" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7408,22 +7408,22 @@
       <c r="E158" t="s">
         <v>12</v>
       </c>
+      <c r="F158" t="s">
+        <v>389</v>
+      </c>
       <c r="G158" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H158" t="s">
-        <v>390</v>
+        <v>21</v>
       </c>
       <c r="I158" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J158" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K158" t="s">
-        <v>22</v>
-      </c>
-      <c r="L158" t="s">
         <v>391</v>
       </c>
     </row>
@@ -7443,22 +7443,22 @@
       <c r="E159" t="s">
         <v>12</v>
       </c>
+      <c r="F159" t="s">
+        <v>392</v>
+      </c>
       <c r="G159" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H159" t="s">
-        <v>393</v>
+        <v>21</v>
       </c>
       <c r="I159" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J159" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K159" t="s">
-        <v>22</v>
-      </c>
-      <c r="L159" t="s">
         <v>394</v>
       </c>
     </row>
@@ -7478,22 +7478,22 @@
       <c r="E160" t="s">
         <v>12</v>
       </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>395</v>
       </c>
       <c r="H160" t="s">
-        <v>395</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J160" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K160" t="s">
-        <v>13</v>
-      </c>
-      <c r="L160" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7513,22 +7513,22 @@
       <c r="E161" t="s">
         <v>12</v>
       </c>
+      <c r="F161" t="s">
+        <v>397</v>
+      </c>
       <c r="G161" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H161" t="s">
-        <v>398</v>
+        <v>21</v>
       </c>
       <c r="I161" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J161" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K161" t="s">
-        <v>22</v>
-      </c>
-      <c r="L161" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7548,22 +7548,22 @@
       <c r="E162" t="s">
         <v>12</v>
       </c>
+      <c r="F162" t="s">
+        <v>400</v>
+      </c>
       <c r="G162" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H162" t="s">
-        <v>401</v>
+        <v>21</v>
       </c>
       <c r="I162" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J162" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K162" t="s">
-        <v>22</v>
-      </c>
-      <c r="L162" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7583,22 +7583,22 @@
       <c r="E163" t="s">
         <v>12</v>
       </c>
+      <c r="F163" t="s">
+        <v>403</v>
+      </c>
       <c r="G163" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H163" t="s">
-        <v>404</v>
+        <v>21</v>
       </c>
       <c r="I163" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J163" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K163" t="s">
-        <v>22</v>
-      </c>
-      <c r="L163" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7618,22 +7618,22 @@
       <c r="E164" t="s">
         <v>12</v>
       </c>
+      <c r="F164" t="s">
+        <v>406</v>
+      </c>
       <c r="G164" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H164" t="s">
-        <v>407</v>
+        <v>21</v>
       </c>
       <c r="I164" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J164" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K164" t="s">
-        <v>22</v>
-      </c>
-      <c r="L164" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7653,22 +7653,22 @@
       <c r="E165" t="s">
         <v>12</v>
       </c>
+      <c r="F165" t="s">
+        <v>409</v>
+      </c>
       <c r="G165" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H165" t="s">
-        <v>410</v>
+        <v>21</v>
       </c>
       <c r="I165" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J165" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K165" t="s">
-        <v>22</v>
-      </c>
-      <c r="L165" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7688,22 +7688,22 @@
       <c r="E166" t="s">
         <v>12</v>
       </c>
+      <c r="F166" t="s">
+        <v>412</v>
+      </c>
       <c r="G166" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H166" t="s">
-        <v>413</v>
+        <v>21</v>
       </c>
       <c r="I166" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J166" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K166" t="s">
-        <v>22</v>
-      </c>
-      <c r="L166" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7723,22 +7723,22 @@
       <c r="E167" t="s">
         <v>12</v>
       </c>
+      <c r="F167" t="s">
+        <v>415</v>
+      </c>
       <c r="G167" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H167" t="s">
-        <v>416</v>
+        <v>21</v>
       </c>
       <c r="I167" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J167" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K167" t="s">
-        <v>22</v>
-      </c>
-      <c r="L167" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7758,22 +7758,22 @@
       <c r="E168" t="s">
         <v>12</v>
       </c>
+      <c r="F168" t="s">
+        <v>418</v>
+      </c>
       <c r="G168" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H168" t="s">
-        <v>419</v>
+        <v>21</v>
       </c>
       <c r="I168" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J168" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K168" t="s">
-        <v>22</v>
-      </c>
-      <c r="L168" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7793,22 +7793,22 @@
       <c r="E169" t="s">
         <v>12</v>
       </c>
+      <c r="F169" t="s">
+        <v>421</v>
+      </c>
       <c r="G169" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H169" t="s">
-        <v>422</v>
+        <v>21</v>
       </c>
       <c r="I169" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J169" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K169" t="s">
-        <v>22</v>
-      </c>
-      <c r="L169" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7828,22 +7828,22 @@
       <c r="E170" t="s">
         <v>12</v>
       </c>
+      <c r="F170" t="s">
+        <v>424</v>
+      </c>
       <c r="G170" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H170" t="s">
-        <v>425</v>
+        <v>21</v>
       </c>
       <c r="I170" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J170" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K170" t="s">
-        <v>22</v>
-      </c>
-      <c r="L170" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7863,22 +7863,22 @@
       <c r="E171" t="s">
         <v>12</v>
       </c>
+      <c r="F171" t="s">
+        <v>427</v>
+      </c>
       <c r="G171" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H171" t="s">
-        <v>428</v>
+        <v>21</v>
       </c>
       <c r="I171" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J171" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K171" t="s">
-        <v>22</v>
-      </c>
-      <c r="L171" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7898,22 +7898,22 @@
       <c r="E172" t="s">
         <v>12</v>
       </c>
+      <c r="F172" t="s">
+        <v>430</v>
+      </c>
       <c r="G172" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H172" t="s">
-        <v>431</v>
+        <v>21</v>
       </c>
       <c r="I172" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J172" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K172" t="s">
-        <v>22</v>
-      </c>
-      <c r="L172" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       <c r="E173" t="s">
         <v>12</v>
       </c>
+      <c r="F173" t="s">
+        <v>433</v>
+      </c>
       <c r="G173" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H173" t="s">
-        <v>434</v>
+        <v>21</v>
       </c>
       <c r="I173" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J173" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K173" t="s">
-        <v>22</v>
-      </c>
-      <c r="L173" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7968,22 +7968,22 @@
       <c r="E174" t="s">
         <v>12</v>
       </c>
+      <c r="F174" t="s">
+        <v>436</v>
+      </c>
       <c r="G174" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H174" t="s">
-        <v>437</v>
+        <v>21</v>
       </c>
       <c r="I174" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J174" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K174" t="s">
-        <v>22</v>
-      </c>
-      <c r="L174" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8003,22 +8003,22 @@
       <c r="E175" t="s">
         <v>12</v>
       </c>
+      <c r="F175" t="s">
+        <v>439</v>
+      </c>
       <c r="G175" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H175" t="s">
-        <v>440</v>
+        <v>21</v>
       </c>
       <c r="I175" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J175" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K175" t="s">
-        <v>22</v>
-      </c>
-      <c r="L175" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8038,22 +8038,22 @@
       <c r="E176" t="s">
         <v>12</v>
       </c>
+      <c r="F176" t="s">
+        <v>442</v>
+      </c>
       <c r="G176" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H176" t="s">
-        <v>443</v>
+        <v>21</v>
       </c>
       <c r="I176" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J176" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K176" t="s">
-        <v>22</v>
-      </c>
-      <c r="L176" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8073,22 +8073,22 @@
       <c r="E177" t="s">
         <v>12</v>
       </c>
+      <c r="F177" t="s">
+        <v>445</v>
+      </c>
       <c r="G177" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H177" t="s">
-        <v>446</v>
+        <v>21</v>
       </c>
       <c r="I177" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J177" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K177" t="s">
-        <v>22</v>
-      </c>
-      <c r="L177" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8108,22 +8108,22 @@
       <c r="E178" t="s">
         <v>12</v>
       </c>
+      <c r="F178" t="s">
+        <v>448</v>
+      </c>
       <c r="G178" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H178" t="s">
-        <v>449</v>
+        <v>21</v>
       </c>
       <c r="I178" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J178" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K178" t="s">
-        <v>22</v>
-      </c>
-      <c r="L178" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8143,22 +8143,22 @@
       <c r="E179" t="s">
         <v>12</v>
       </c>
+      <c r="F179" t="s">
+        <v>451</v>
+      </c>
       <c r="G179" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H179" t="s">
-        <v>452</v>
+        <v>21</v>
       </c>
       <c r="I179" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J179" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K179" t="s">
-        <v>22</v>
-      </c>
-      <c r="L179" t="s">
         <v>453</v>
       </c>
     </row>
@@ -8178,22 +8178,22 @@
       <c r="E180" t="s">
         <v>12</v>
       </c>
+      <c r="F180" t="s">
+        <v>454</v>
+      </c>
       <c r="G180" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H180" t="s">
-        <v>455</v>
+        <v>21</v>
       </c>
       <c r="I180" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J180" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K180" t="s">
-        <v>22</v>
-      </c>
-      <c r="L180" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8213,22 +8213,22 @@
       <c r="E181" t="s">
         <v>12</v>
       </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="H181" t="s">
-        <v>457</v>
+        <v>15</v>
       </c>
       <c r="I181" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J181" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K181" t="s">
-        <v>13</v>
-      </c>
-      <c r="L181" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8248,22 +8248,22 @@
       <c r="E182" t="s">
         <v>12</v>
       </c>
+      <c r="F182" t="s">
+        <v>459</v>
+      </c>
       <c r="G182" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H182" t="s">
-        <v>460</v>
+        <v>21</v>
       </c>
       <c r="I182" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J182" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K182" t="s">
-        <v>22</v>
-      </c>
-      <c r="L182" t="s">
         <v>461</v>
       </c>
     </row>
@@ -8283,22 +8283,22 @@
       <c r="E183" t="s">
         <v>12</v>
       </c>
+      <c r="F183" t="s">
+        <v>462</v>
+      </c>
       <c r="G183" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H183" t="s">
-        <v>463</v>
+        <v>21</v>
       </c>
       <c r="I183" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J183" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K183" t="s">
-        <v>22</v>
-      </c>
-      <c r="L183" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8318,22 +8318,22 @@
       <c r="E184" t="s">
         <v>12</v>
       </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>465</v>
       </c>
       <c r="H184" t="s">
-        <v>465</v>
+        <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J184" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K184" t="s">
-        <v>13</v>
-      </c>
-      <c r="L184" t="s">
         <v>466</v>
       </c>
     </row>
@@ -8353,22 +8353,22 @@
       <c r="E185" t="s">
         <v>12</v>
       </c>
+      <c r="F185" t="s">
+        <v>467</v>
+      </c>
       <c r="G185" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H185" t="s">
-        <v>468</v>
+        <v>21</v>
       </c>
       <c r="I185" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J185" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K185" t="s">
-        <v>22</v>
-      </c>
-      <c r="L185" t="s">
         <v>469</v>
       </c>
     </row>
@@ -8388,22 +8388,22 @@
       <c r="E186" t="s">
         <v>12</v>
       </c>
+      <c r="F186" t="s">
+        <v>470</v>
+      </c>
       <c r="G186" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H186" t="s">
-        <v>471</v>
+        <v>21</v>
       </c>
       <c r="I186" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J186" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K186" t="s">
-        <v>22</v>
-      </c>
-      <c r="L186" t="s">
         <v>472</v>
       </c>
     </row>
@@ -8423,22 +8423,22 @@
       <c r="E187" t="s">
         <v>12</v>
       </c>
+      <c r="F187" t="s">
+        <v>473</v>
+      </c>
       <c r="G187" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H187" t="s">
-        <v>474</v>
+        <v>21</v>
       </c>
       <c r="I187" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J187" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K187" t="s">
-        <v>22</v>
-      </c>
-      <c r="L187" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8458,22 +8458,22 @@
       <c r="E188" t="s">
         <v>12</v>
       </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>475</v>
       </c>
       <c r="H188" t="s">
-        <v>475</v>
+        <v>15</v>
       </c>
       <c r="I188" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J188" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K188" t="s">
-        <v>13</v>
-      </c>
-      <c r="L188" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8493,22 +8493,22 @@
       <c r="E189" t="s">
         <v>12</v>
       </c>
+      <c r="F189" t="s">
+        <v>477</v>
+      </c>
       <c r="G189" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H189" t="s">
-        <v>478</v>
+        <v>21</v>
       </c>
       <c r="I189" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J189" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K189" t="s">
-        <v>22</v>
-      </c>
-      <c r="L189" t="s">
         <v>479</v>
       </c>
     </row>
@@ -8528,22 +8528,22 @@
       <c r="E190" t="s">
         <v>12</v>
       </c>
+      <c r="F190" t="s">
+        <v>480</v>
+      </c>
       <c r="G190" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H190" t="s">
-        <v>481</v>
+        <v>21</v>
       </c>
       <c r="I190" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J190" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K190" t="s">
-        <v>22</v>
-      </c>
-      <c r="L190" t="s">
         <v>482</v>
       </c>
     </row>
@@ -8563,22 +8563,22 @@
       <c r="E191" t="s">
         <v>12</v>
       </c>
+      <c r="F191" t="s">
+        <v>483</v>
+      </c>
       <c r="G191" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H191" t="s">
-        <v>484</v>
+        <v>21</v>
       </c>
       <c r="I191" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J191" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K191" t="s">
-        <v>22</v>
-      </c>
-      <c r="L191" t="s">
         <v>485</v>
       </c>
     </row>
@@ -8598,22 +8598,22 @@
       <c r="E192" t="s">
         <v>12</v>
       </c>
+      <c r="F192" t="s">
+        <v>486</v>
+      </c>
       <c r="G192" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H192" t="s">
-        <v>487</v>
+        <v>21</v>
       </c>
       <c r="I192" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J192" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K192" t="s">
-        <v>22</v>
-      </c>
-      <c r="L192" t="s">
         <v>488</v>
       </c>
     </row>
@@ -8633,22 +8633,22 @@
       <c r="E193" t="s">
         <v>12</v>
       </c>
+      <c r="F193" t="s">
+        <v>489</v>
+      </c>
       <c r="G193" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H193" t="s">
-        <v>490</v>
+        <v>21</v>
       </c>
       <c r="I193" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J193" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K193" t="s">
-        <v>22</v>
-      </c>
-      <c r="L193" t="s">
         <v>491</v>
       </c>
     </row>
@@ -8668,22 +8668,22 @@
       <c r="E194" t="s">
         <v>12</v>
       </c>
+      <c r="F194" t="s">
+        <v>492</v>
+      </c>
       <c r="G194" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H194" t="s">
-        <v>493</v>
+        <v>21</v>
       </c>
       <c r="I194" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J194" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K194" t="s">
-        <v>22</v>
-      </c>
-      <c r="L194" t="s">
         <v>494</v>
       </c>
     </row>
@@ -8703,22 +8703,22 @@
       <c r="E195" t="s">
         <v>12</v>
       </c>
+      <c r="F195" t="s">
+        <v>495</v>
+      </c>
       <c r="G195" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H195" t="s">
-        <v>496</v>
+        <v>21</v>
       </c>
       <c r="I195" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J195" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K195" t="s">
-        <v>22</v>
-      </c>
-      <c r="L195" t="s">
         <v>497</v>
       </c>
     </row>
@@ -8738,22 +8738,22 @@
       <c r="E196" t="s">
         <v>12</v>
       </c>
+      <c r="F196" t="s">
+        <v>498</v>
+      </c>
       <c r="G196" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H196" t="s">
-        <v>499</v>
+        <v>21</v>
       </c>
       <c r="I196" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J196" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K196" t="s">
-        <v>22</v>
-      </c>
-      <c r="L196" t="s">
         <v>500</v>
       </c>
     </row>
@@ -8773,22 +8773,22 @@
       <c r="E197" t="s">
         <v>12</v>
       </c>
+      <c r="F197" t="s">
+        <v>501</v>
+      </c>
       <c r="G197" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H197" t="s">
-        <v>502</v>
+        <v>21</v>
       </c>
       <c r="I197" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J197" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K197" t="s">
-        <v>22</v>
-      </c>
-      <c r="L197" t="s">
         <v>503</v>
       </c>
     </row>
@@ -8808,22 +8808,22 @@
       <c r="E198" t="s">
         <v>12</v>
       </c>
+      <c r="F198" t="s">
+        <v>504</v>
+      </c>
       <c r="G198" t="s">
-        <v>504</v>
+        <v>254</v>
       </c>
       <c r="H198" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="I198" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J198" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K198" t="s">
-        <v>22</v>
-      </c>
-      <c r="L198" t="s">
         <v>505</v>
       </c>
     </row>
@@ -8843,22 +8843,22 @@
       <c r="E199" t="s">
         <v>12</v>
       </c>
+      <c r="F199" t="s">
+        <v>506</v>
+      </c>
       <c r="G199" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H199" t="s">
-        <v>507</v>
+        <v>21</v>
       </c>
       <c r="I199" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J199" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K199" t="s">
-        <v>22</v>
-      </c>
-      <c r="L199" t="s">
         <v>508</v>
       </c>
     </row>
@@ -8878,22 +8878,22 @@
       <c r="E200" t="s">
         <v>12</v>
       </c>
+      <c r="F200" t="s">
+        <v>509</v>
+      </c>
       <c r="G200" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H200" t="s">
-        <v>510</v>
+        <v>21</v>
       </c>
       <c r="I200" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J200" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K200" t="s">
-        <v>22</v>
-      </c>
-      <c r="L200" t="s">
         <v>511</v>
       </c>
     </row>
@@ -8913,22 +8913,22 @@
       <c r="E201" t="s">
         <v>12</v>
       </c>
+      <c r="F201" t="s">
+        <v>512</v>
+      </c>
       <c r="G201" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H201" t="s">
-        <v>513</v>
+        <v>21</v>
       </c>
       <c r="I201" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J201" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K201" t="s">
-        <v>22</v>
-      </c>
-      <c r="L201" t="s">
         <v>514</v>
       </c>
     </row>
@@ -8948,22 +8948,22 @@
       <c r="E202" t="s">
         <v>12</v>
       </c>
+      <c r="F202" t="s">
+        <v>515</v>
+      </c>
       <c r="G202" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H202" t="s">
-        <v>516</v>
+        <v>21</v>
       </c>
       <c r="I202" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J202" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K202" t="s">
-        <v>22</v>
-      </c>
-      <c r="L202" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8983,22 +8983,22 @@
       <c r="E203" t="s">
         <v>12</v>
       </c>
+      <c r="F203" t="s">
+        <v>518</v>
+      </c>
       <c r="G203" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H203" t="s">
-        <v>519</v>
+        <v>21</v>
       </c>
       <c r="I203" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J203" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K203" t="s">
-        <v>22</v>
-      </c>
-      <c r="L203" t="s">
         <v>520</v>
       </c>
     </row>
@@ -9018,22 +9018,22 @@
       <c r="E204" t="s">
         <v>12</v>
       </c>
+      <c r="F204" t="s">
+        <v>13</v>
+      </c>
       <c r="G204" t="s">
-        <v>13</v>
+        <v>521</v>
       </c>
       <c r="H204" t="s">
-        <v>521</v>
+        <v>15</v>
       </c>
       <c r="I204" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J204" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K204" t="s">
-        <v>13</v>
-      </c>
-      <c r="L204" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9053,22 +9053,22 @@
       <c r="E205" t="s">
         <v>12</v>
       </c>
+      <c r="F205" t="s">
+        <v>13</v>
+      </c>
       <c r="G205" t="s">
-        <v>13</v>
+        <v>522</v>
       </c>
       <c r="H205" t="s">
-        <v>522</v>
+        <v>15</v>
       </c>
       <c r="I205" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="J205" t="s">
-        <v>166</v>
+        <v>13</v>
       </c>
       <c r="K205" t="s">
-        <v>13</v>
-      </c>
-      <c r="L205" t="s">
         <v>523</v>
       </c>
     </row>
@@ -9088,22 +9088,22 @@
       <c r="E206" t="s">
         <v>12</v>
       </c>
+      <c r="F206" t="s">
+        <v>524</v>
+      </c>
       <c r="G206" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H206" t="s">
-        <v>525</v>
+        <v>21</v>
       </c>
       <c r="I206" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J206" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K206" t="s">
-        <v>22</v>
-      </c>
-      <c r="L206" t="s">
         <v>526</v>
       </c>
     </row>
@@ -9123,22 +9123,22 @@
       <c r="E207" t="s">
         <v>12</v>
       </c>
+      <c r="F207" t="s">
+        <v>527</v>
+      </c>
       <c r="G207" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H207" t="s">
-        <v>528</v>
+        <v>21</v>
       </c>
       <c r="I207" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J207" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K207" t="s">
-        <v>22</v>
-      </c>
-      <c r="L207" t="s">
         <v>529</v>
       </c>
     </row>
@@ -9158,22 +9158,22 @@
       <c r="E208" t="s">
         <v>12</v>
       </c>
+      <c r="F208" t="s">
+        <v>530</v>
+      </c>
       <c r="G208" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H208" t="s">
-        <v>531</v>
+        <v>21</v>
       </c>
       <c r="I208" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J208" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K208" t="s">
-        <v>22</v>
-      </c>
-      <c r="L208" t="s">
         <v>532</v>
       </c>
     </row>
@@ -9193,22 +9193,22 @@
       <c r="E209" t="s">
         <v>12</v>
       </c>
+      <c r="F209" t="s">
+        <v>533</v>
+      </c>
       <c r="G209" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H209" t="s">
-        <v>534</v>
+        <v>21</v>
       </c>
       <c r="I209" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J209" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K209" t="s">
-        <v>22</v>
-      </c>
-      <c r="L209" t="s">
         <v>535</v>
       </c>
     </row>
@@ -9228,22 +9228,22 @@
       <c r="E210" t="s">
         <v>12</v>
       </c>
+      <c r="F210" t="s">
+        <v>536</v>
+      </c>
       <c r="G210" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H210" t="s">
-        <v>537</v>
+        <v>21</v>
       </c>
       <c r="I210" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J210" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K210" t="s">
-        <v>22</v>
-      </c>
-      <c r="L210" t="s">
         <v>538</v>
       </c>
     </row>
@@ -9263,22 +9263,22 @@
       <c r="E211" t="s">
         <v>12</v>
       </c>
+      <c r="F211" t="s">
+        <v>539</v>
+      </c>
       <c r="G211" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H211" t="s">
-        <v>540</v>
+        <v>21</v>
       </c>
       <c r="I211" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J211" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K211" t="s">
-        <v>22</v>
-      </c>
-      <c r="L211" t="s">
         <v>541</v>
       </c>
     </row>
@@ -9298,22 +9298,22 @@
       <c r="E212" t="s">
         <v>12</v>
       </c>
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>542</v>
       </c>
       <c r="H212" t="s">
-        <v>542</v>
+        <v>15</v>
       </c>
       <c r="I212" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J212" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K212" t="s">
-        <v>13</v>
-      </c>
-      <c r="L212" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9333,22 +9333,22 @@
       <c r="E213" t="s">
         <v>12</v>
       </c>
+      <c r="F213" t="s">
+        <v>543</v>
+      </c>
       <c r="G213" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H213" t="s">
-        <v>544</v>
+        <v>21</v>
       </c>
       <c r="I213" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J213" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K213" t="s">
-        <v>22</v>
-      </c>
-      <c r="L213" t="s">
         <v>545</v>
       </c>
     </row>
@@ -9368,22 +9368,22 @@
       <c r="E214" t="s">
         <v>12</v>
       </c>
+      <c r="F214" t="s">
+        <v>546</v>
+      </c>
       <c r="G214" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H214" t="s">
-        <v>547</v>
+        <v>21</v>
       </c>
       <c r="I214" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J214" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K214" t="s">
-        <v>22</v>
-      </c>
-      <c r="L214" t="s">
         <v>548</v>
       </c>
     </row>
@@ -9403,22 +9403,22 @@
       <c r="E215" t="s">
         <v>12</v>
       </c>
+      <c r="F215" t="s">
+        <v>549</v>
+      </c>
       <c r="G215" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H215" t="s">
-        <v>550</v>
+        <v>21</v>
       </c>
       <c r="I215" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J215" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K215" t="s">
-        <v>22</v>
-      </c>
-      <c r="L215" t="s">
         <v>551</v>
       </c>
     </row>
@@ -9438,22 +9438,22 @@
       <c r="E216" t="s">
         <v>12</v>
       </c>
+      <c r="F216" t="s">
+        <v>13</v>
+      </c>
       <c r="G216" t="s">
-        <v>13</v>
+        <v>552</v>
       </c>
       <c r="H216" t="s">
-        <v>552</v>
+        <v>15</v>
       </c>
       <c r="I216" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J216" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K216" t="s">
-        <v>13</v>
-      </c>
-      <c r="L216" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9473,22 +9473,22 @@
       <c r="E217" t="s">
         <v>12</v>
       </c>
+      <c r="F217" t="s">
+        <v>13</v>
+      </c>
       <c r="G217" t="s">
-        <v>13</v>
+        <v>553</v>
       </c>
       <c r="H217" t="s">
-        <v>553</v>
+        <v>15</v>
       </c>
       <c r="I217" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="J217" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="K217" t="s">
-        <v>13</v>
-      </c>
-      <c r="L217" t="s">
         <v>554</v>
       </c>
     </row>
@@ -9508,22 +9508,22 @@
       <c r="E218" t="s">
         <v>12</v>
       </c>
+      <c r="F218" t="s">
+        <v>555</v>
+      </c>
       <c r="G218" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H218" t="s">
-        <v>556</v>
+        <v>21</v>
       </c>
       <c r="I218" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J218" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K218" t="s">
-        <v>22</v>
-      </c>
-      <c r="L218" t="s">
         <v>557</v>
       </c>
     </row>
@@ -9543,22 +9543,22 @@
       <c r="E219" t="s">
         <v>12</v>
       </c>
+      <c r="F219" t="s">
+        <v>558</v>
+      </c>
       <c r="G219" t="s">
-        <v>558</v>
+        <v>367</v>
       </c>
       <c r="H219" t="s">
-        <v>367</v>
+        <v>21</v>
       </c>
       <c r="I219" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J219" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K219" t="s">
-        <v>22</v>
-      </c>
-      <c r="L219" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9578,22 +9578,22 @@
       <c r="E220" t="s">
         <v>12</v>
       </c>
+      <c r="F220" t="s">
+        <v>559</v>
+      </c>
       <c r="G220" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H220" t="s">
-        <v>560</v>
+        <v>21</v>
       </c>
       <c r="I220" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J220" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K220" t="s">
-        <v>22</v>
-      </c>
-      <c r="L220" t="s">
         <v>554</v>
       </c>
     </row>
@@ -9613,22 +9613,22 @@
       <c r="E221" t="s">
         <v>12</v>
       </c>
+      <c r="F221" t="s">
+        <v>561</v>
+      </c>
       <c r="G221" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H221" t="s">
-        <v>562</v>
+        <v>21</v>
       </c>
       <c r="I221" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J221" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K221" t="s">
-        <v>22</v>
-      </c>
-      <c r="L221" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9648,22 +9648,22 @@
       <c r="E222" t="s">
         <v>12</v>
       </c>
+      <c r="F222" t="s">
+        <v>564</v>
+      </c>
       <c r="G222" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H222" t="s">
-        <v>565</v>
+        <v>21</v>
       </c>
       <c r="I222" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J222" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K222" t="s">
-        <v>22</v>
-      </c>
-      <c r="L222" t="s">
         <v>566</v>
       </c>
     </row>
@@ -9683,22 +9683,22 @@
       <c r="E223" t="s">
         <v>12</v>
       </c>
+      <c r="F223" t="s">
+        <v>567</v>
+      </c>
       <c r="G223" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H223" t="s">
-        <v>568</v>
+        <v>21</v>
       </c>
       <c r="I223" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J223" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K223" t="s">
-        <v>22</v>
-      </c>
-      <c r="L223" t="s">
         <v>569</v>
       </c>
     </row>
@@ -9718,22 +9718,22 @@
       <c r="E224" t="s">
         <v>12</v>
       </c>
+      <c r="F224" t="s">
+        <v>570</v>
+      </c>
       <c r="G224" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H224" t="s">
-        <v>571</v>
+        <v>21</v>
       </c>
       <c r="I224" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J224" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K224" t="s">
-        <v>22</v>
-      </c>
-      <c r="L224" t="s">
         <v>572</v>
       </c>
     </row>
@@ -9753,22 +9753,22 @@
       <c r="E225" t="s">
         <v>12</v>
       </c>
+      <c r="F225" t="s">
+        <v>573</v>
+      </c>
       <c r="G225" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H225" t="s">
-        <v>574</v>
+        <v>21</v>
       </c>
       <c r="I225" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J225" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K225" t="s">
-        <v>22</v>
-      </c>
-      <c r="L225" t="s">
         <v>575</v>
       </c>
     </row>
@@ -9788,22 +9788,22 @@
       <c r="E226" t="s">
         <v>12</v>
       </c>
+      <c r="F226" t="s">
+        <v>576</v>
+      </c>
       <c r="G226" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H226" t="s">
-        <v>577</v>
+        <v>21</v>
       </c>
       <c r="I226" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J226" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K226" t="s">
-        <v>22</v>
-      </c>
-      <c r="L226" t="s">
         <v>578</v>
       </c>
     </row>
@@ -9823,22 +9823,22 @@
       <c r="E227" t="s">
         <v>12</v>
       </c>
+      <c r="F227" t="s">
+        <v>13</v>
+      </c>
       <c r="G227" t="s">
-        <v>13</v>
+        <v>579</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>15</v>
       </c>
       <c r="I227" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J227" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K227" t="s">
-        <v>13</v>
-      </c>
-      <c r="L227" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9858,22 +9858,22 @@
       <c r="E228" t="s">
         <v>12</v>
       </c>
+      <c r="F228" t="s">
+        <v>580</v>
+      </c>
       <c r="G228" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H228" t="s">
-        <v>581</v>
+        <v>21</v>
       </c>
       <c r="I228" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J228" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K228" t="s">
-        <v>22</v>
-      </c>
-      <c r="L228" t="s">
         <v>582</v>
       </c>
     </row>
@@ -9893,22 +9893,22 @@
       <c r="E229" t="s">
         <v>12</v>
       </c>
+      <c r="F229" t="s">
+        <v>583</v>
+      </c>
       <c r="G229" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H229" t="s">
-        <v>584</v>
+        <v>21</v>
       </c>
       <c r="I229" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J229" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K229" t="s">
-        <v>22</v>
-      </c>
-      <c r="L229" t="s">
         <v>585</v>
       </c>
     </row>
@@ -9928,22 +9928,22 @@
       <c r="E230" t="s">
         <v>12</v>
       </c>
+      <c r="F230" t="s">
+        <v>586</v>
+      </c>
       <c r="G230" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H230" t="s">
-        <v>587</v>
+        <v>21</v>
       </c>
       <c r="I230" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J230" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K230" t="s">
-        <v>22</v>
-      </c>
-      <c r="L230" t="s">
         <v>588</v>
       </c>
     </row>
@@ -9963,22 +9963,22 @@
       <c r="E231" t="s">
         <v>12</v>
       </c>
+      <c r="F231" t="s">
+        <v>589</v>
+      </c>
       <c r="G231" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H231" t="s">
-        <v>590</v>
+        <v>21</v>
       </c>
       <c r="I231" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J231" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K231" t="s">
-        <v>22</v>
-      </c>
-      <c r="L231" t="s">
         <v>591</v>
       </c>
     </row>
@@ -9998,22 +9998,22 @@
       <c r="E232" t="s">
         <v>12</v>
       </c>
+      <c r="F232" t="s">
+        <v>13</v>
+      </c>
       <c r="G232" t="s">
-        <v>13</v>
+        <v>592</v>
       </c>
       <c r="H232" t="s">
-        <v>592</v>
+        <v>15</v>
       </c>
       <c r="I232" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J232" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K232" t="s">
-        <v>13</v>
-      </c>
-      <c r="L232" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10033,22 +10033,22 @@
       <c r="E233" t="s">
         <v>12</v>
       </c>
+      <c r="F233" t="s">
+        <v>593</v>
+      </c>
       <c r="G233" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H233" t="s">
-        <v>594</v>
+        <v>21</v>
       </c>
       <c r="I233" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J233" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K233" t="s">
-        <v>22</v>
-      </c>
-      <c r="L233" t="s">
         <v>595</v>
       </c>
     </row>
@@ -10068,22 +10068,22 @@
       <c r="E234" t="s">
         <v>12</v>
       </c>
+      <c r="F234" t="s">
+        <v>596</v>
+      </c>
       <c r="G234" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H234" t="s">
-        <v>597</v>
+        <v>21</v>
       </c>
       <c r="I234" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J234" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K234" t="s">
-        <v>22</v>
-      </c>
-      <c r="L234" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10103,22 +10103,22 @@
       <c r="E235" t="s">
         <v>12</v>
       </c>
+      <c r="F235" t="s">
+        <v>13</v>
+      </c>
       <c r="G235" t="s">
-        <v>13</v>
+        <v>599</v>
       </c>
       <c r="H235" t="s">
-        <v>599</v>
+        <v>15</v>
       </c>
       <c r="I235" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J235" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K235" t="s">
-        <v>13</v>
-      </c>
-      <c r="L235" t="s">
         <v>13</v>
       </c>
     </row>
@@ -10138,22 +10138,22 @@
       <c r="E236" t="s">
         <v>12</v>
       </c>
+      <c r="F236" t="s">
+        <v>600</v>
+      </c>
       <c r="G236" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H236" t="s">
-        <v>601</v>
+        <v>21</v>
       </c>
       <c r="I236" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J236" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K236" t="s">
-        <v>22</v>
-      </c>
-      <c r="L236" t="s">
         <v>602</v>
       </c>
     </row>
@@ -10173,22 +10173,22 @@
       <c r="E237" t="s">
         <v>12</v>
       </c>
+      <c r="F237" t="s">
+        <v>603</v>
+      </c>
       <c r="G237" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H237" t="s">
-        <v>604</v>
+        <v>21</v>
       </c>
       <c r="I237" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J237" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K237" t="s">
-        <v>22</v>
-      </c>
-      <c r="L237" t="s">
         <v>602</v>
       </c>
     </row>
